--- a/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.009330590531348548</v>
+        <v>0.00933059053116736</v>
       </c>
       <c r="D2">
-        <v>0.003715942034335451</v>
+        <v>0.003715942034332009</v>
       </c>
       <c r="E2">
-        <v>0.02556163446068638</v>
+        <v>0.02556163446068282</v>
       </c>
       <c r="F2">
         <v>1.114745355540947</v>
@@ -430,19 +430,19 @@
         <v>0.8314021898140993</v>
       </c>
       <c r="H2">
-        <v>0.8307936977652659</v>
+        <v>0.830793697765273</v>
       </c>
       <c r="I2">
-        <v>0.01744485045565192</v>
+        <v>0.01744485045564304</v>
       </c>
       <c r="J2">
-        <v>7.976442487469626</v>
+        <v>7.976442487469654</v>
       </c>
       <c r="K2">
-        <v>0.02635561082317395</v>
+        <v>0.02635561082316684</v>
       </c>
       <c r="L2">
-        <v>4.882147167293994</v>
+        <v>4.882147167293965</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007842017398228762</v>
+        <v>0.007842017398338896</v>
       </c>
       <c r="D3">
-        <v>0.002053150263714998</v>
+        <v>0.002053150263711001</v>
       </c>
       <c r="E3">
-        <v>0.02409941788352654</v>
+        <v>0.02409941788350878</v>
       </c>
       <c r="F3">
-        <v>0.9601135988251457</v>
+        <v>0.9601135988251599</v>
       </c>
       <c r="G3">
-        <v>0.7132896883052595</v>
+        <v>0.7132896883052666</v>
       </c>
       <c r="H3">
-        <v>0.7143774661477948</v>
+        <v>0.714377466147802</v>
       </c>
       <c r="I3">
-        <v>0.01648822004283446</v>
+        <v>0.01648822004283268</v>
       </c>
       <c r="J3">
-        <v>6.889647305153403</v>
+        <v>6.889647305153517</v>
       </c>
       <c r="K3">
-        <v>0.024237014147511</v>
+        <v>0.02423701414750923</v>
       </c>
       <c r="L3">
         <v>4.216301950676836</v>
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.006975471859796301</v>
+        <v>0.006975471859647087</v>
       </c>
       <c r="D4">
-        <v>0.001278657580467746</v>
+        <v>0.001278657580527032</v>
       </c>
       <c r="E4">
-        <v>0.02329898806046771</v>
+        <v>0.02329898806048369</v>
       </c>
       <c r="F4">
-        <v>0.8749970557642399</v>
+        <v>0.8749970557642541</v>
       </c>
       <c r="G4">
-        <v>0.6489307229828185</v>
+        <v>0.6489307229828043</v>
       </c>
       <c r="H4">
-        <v>0.6504475185628493</v>
+        <v>0.6504475185628564</v>
       </c>
       <c r="I4">
-        <v>0.01608025677253977</v>
+        <v>0.01608025677254332</v>
       </c>
       <c r="J4">
-        <v>6.231590101533158</v>
+        <v>6.231590101533129</v>
       </c>
       <c r="K4">
-        <v>0.02304740487580403</v>
+        <v>0.02304740487581114</v>
       </c>
       <c r="L4">
-        <v>3.813531481305418</v>
+        <v>3.813531481305375</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.006632111354321069</v>
+        <v>0.006632111354324621</v>
       </c>
       <c r="D5">
-        <v>0.00101570342359425</v>
+        <v>0.001015703423593028</v>
       </c>
       <c r="E5">
         <v>0.02299493822358123</v>
       </c>
       <c r="F5">
-        <v>0.8424623489385255</v>
+        <v>0.8424623489385397</v>
       </c>
       <c r="G5">
         <v>0.6244891969625641</v>
       </c>
       <c r="H5">
-        <v>0.6260472609756249</v>
+        <v>0.6260472609756178</v>
       </c>
       <c r="I5">
-        <v>0.01595397043098323</v>
+        <v>0.01595397043099922</v>
       </c>
       <c r="J5">
-        <v>5.965278755599059</v>
+        <v>5.965278755598945</v>
       </c>
       <c r="K5">
-        <v>0.02258739031822721</v>
+        <v>0.0225873903182201</v>
       </c>
       <c r="L5">
-        <v>3.650623227716878</v>
+        <v>3.650623227716849</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.006575629021757123</v>
+        <v>0.006575629021760676</v>
       </c>
       <c r="D6">
-        <v>0.0009749731553544416</v>
+        <v>0.0009749731554893337</v>
       </c>
       <c r="E6">
-        <v>0.02294572461555866</v>
+        <v>0.02294572461557465</v>
       </c>
       <c r="F6">
-        <v>0.8371813143444768</v>
+        <v>0.8371813143444484</v>
       </c>
       <c r="G6">
-        <v>0.6205313676416395</v>
+        <v>0.6205313676416324</v>
       </c>
       <c r="H6">
-        <v>0.6220887633770786</v>
+        <v>0.6220887633770928</v>
       </c>
       <c r="I6">
-        <v>0.01593527679847639</v>
+        <v>0.01593527679845685</v>
       </c>
       <c r="J6">
-        <v>5.921157218079969</v>
+        <v>5.921157218079884</v>
       </c>
       <c r="K6">
-        <v>0.02251241512446711</v>
+        <v>0.0225124151244529</v>
       </c>
       <c r="L6">
-        <v>3.623638321131693</v>
+        <v>3.623638321131679</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.006970804276171805</v>
+        <v>0.006970804276193121</v>
       </c>
       <c r="D7">
-        <v>0.001274909424458626</v>
+        <v>0.001274909424281212</v>
       </c>
       <c r="E7">
         <v>0.02329480081641933</v>
@@ -617,22 +617,22 @@
         <v>0.8745499653221316</v>
       </c>
       <c r="G7">
-        <v>0.6485941954186316</v>
+        <v>0.6485941954186174</v>
       </c>
       <c r="H7">
-        <v>0.6501120633219202</v>
+        <v>0.6501120633219273</v>
       </c>
       <c r="I7">
-        <v>0.01607839812776213</v>
+        <v>0.01607839812777634</v>
       </c>
       <c r="J7">
-        <v>6.227991611744159</v>
+        <v>6.22799161174413</v>
       </c>
       <c r="K7">
-        <v>0.02304110462691966</v>
+        <v>0.02304110462694098</v>
       </c>
       <c r="L7">
-        <v>3.81132985617802</v>
+        <v>3.811329856177991</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.008806071475753185</v>
+        <v>0.008806071475525812</v>
       </c>
       <c r="D8">
-        <v>0.003085399966331726</v>
+        <v>0.00308539996640278</v>
       </c>
       <c r="E8">
-        <v>0.02503573259474301</v>
+        <v>0.02503573259475544</v>
       </c>
       <c r="F8">
-        <v>1.059181794899814</v>
+        <v>1.0591817948998</v>
       </c>
       <c r="G8">
-        <v>0.788810303092589</v>
+        <v>0.7888103030925819</v>
       </c>
       <c r="H8">
-        <v>0.7889270552152112</v>
+        <v>0.7889270552152254</v>
       </c>
       <c r="I8">
-        <v>0.01707443274713327</v>
+        <v>0.0170744327471386</v>
       </c>
       <c r="J8">
-        <v>7.599493766612483</v>
+        <v>7.599493766612426</v>
       </c>
       <c r="K8">
-        <v>0.02559996242733042</v>
+        <v>0.02559996242733398</v>
       </c>
       <c r="L8">
-        <v>4.651111975792787</v>
+        <v>4.651111975792773</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01290037068577021</v>
+        <v>0.01290037068604732</v>
       </c>
       <c r="D9">
-        <v>0.009099515438528272</v>
+        <v>0.009099515438535377</v>
       </c>
       <c r="E9">
-        <v>0.02934807042435672</v>
+        <v>0.02934807042434251</v>
       </c>
       <c r="F9">
         <v>1.516381472963758</v>
       </c>
       <c r="G9">
-        <v>1.142868712811975</v>
+        <v>1.142868712812003</v>
       </c>
       <c r="H9">
-        <v>1.134273195342885</v>
+        <v>1.134273195342871</v>
       </c>
       <c r="I9">
-        <v>0.02072878142044488</v>
+        <v>0.02072878142043955</v>
       </c>
       <c r="J9">
-        <v>10.38755631689853</v>
+        <v>10.38755631689858</v>
       </c>
       <c r="K9">
-        <v>0.03167261912861896</v>
+        <v>0.03167261912861541</v>
       </c>
       <c r="L9">
-        <v>6.362096306599909</v>
+        <v>6.362096306599852</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01641996020792647</v>
+        <v>0.01641996020783054</v>
       </c>
       <c r="D10">
-        <v>0.01591132467722289</v>
+        <v>0.01591132467734502</v>
       </c>
       <c r="E10">
-        <v>0.03327776177686381</v>
+        <v>0.0332777617768425</v>
       </c>
       <c r="F10">
         <v>1.939748564032584</v>
       </c>
       <c r="G10">
-        <v>1.475853193501976</v>
+        <v>1.475853193501933</v>
       </c>
       <c r="H10">
-        <v>1.455302925100852</v>
+        <v>1.455302925100824</v>
       </c>
       <c r="I10">
-        <v>0.02492926301354359</v>
+        <v>0.02492926301357201</v>
       </c>
       <c r="J10">
-        <v>12.53908162165709</v>
+        <v>12.53908162165706</v>
       </c>
       <c r="K10">
-        <v>0.03707261595877753</v>
+        <v>0.03707261595878997</v>
       </c>
       <c r="L10">
         <v>7.685720973497922</v>
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0181964098093097</v>
+        <v>0.01819640980920312</v>
       </c>
       <c r="D11">
-        <v>0.0198022678803822</v>
+        <v>0.01980226788038308</v>
       </c>
       <c r="E11">
-        <v>0.0352931087646553</v>
+        <v>0.03529310876466241</v>
       </c>
       <c r="F11">
-        <v>2.160106617971451</v>
+        <v>2.160106617971465</v>
       </c>
       <c r="G11">
-        <v>1.650500269096668</v>
+        <v>1.650500269096682</v>
       </c>
       <c r="H11">
-        <v>1.622726522864966</v>
+        <v>1.622726522864994</v>
       </c>
       <c r="I11">
-        <v>0.02731195742734371</v>
+        <v>0.0273119574273526</v>
       </c>
       <c r="J11">
-        <v>13.55284395337969</v>
+        <v>13.55284395337983</v>
       </c>
       <c r="K11">
-        <v>0.03982016633199592</v>
+        <v>0.03982016633198882</v>
       </c>
       <c r="L11">
-        <v>8.310354350611391</v>
+        <v>8.310354350611476</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01890159276725001</v>
+        <v>0.01890159276742764</v>
       </c>
       <c r="D12">
-        <v>0.02142040600703687</v>
+        <v>0.02142040600694139</v>
       </c>
       <c r="E12">
         <v>0.0360957515700715</v>
       </c>
       <c r="F12">
-        <v>2.248513527916273</v>
+        <v>2.248513527916288</v>
       </c>
       <c r="G12">
-        <v>1.720780620176939</v>
+        <v>1.720780620176953</v>
       </c>
       <c r="H12">
-        <v>1.689949909953683</v>
+        <v>1.689949909953697</v>
       </c>
       <c r="I12">
-        <v>0.02829785864970447</v>
+        <v>0.02829785864971335</v>
       </c>
       <c r="J12">
-        <v>13.94312924461551</v>
+        <v>13.94312924461562</v>
       </c>
       <c r="K12">
-        <v>0.04091198857358869</v>
+        <v>0.04091198857358158</v>
       </c>
       <c r="L12">
-        <v>8.550994915634135</v>
+        <v>8.550994915634192</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0187481365241986</v>
+        <v>0.01874813652420571</v>
       </c>
       <c r="D13">
-        <v>0.02106488966895137</v>
+        <v>0.02106488966906683</v>
       </c>
       <c r="E13">
         <v>0.03592100778341845</v>
       </c>
       <c r="F13">
-        <v>2.229234623489972</v>
+        <v>2.229234623489958</v>
       </c>
       <c r="G13">
-        <v>1.705444839576288</v>
+        <v>1.705444839576273</v>
       </c>
       <c r="H13">
-        <v>1.675288030053622</v>
+        <v>1.675288030053608</v>
       </c>
       <c r="I13">
-        <v>0.02808151219650767</v>
+        <v>0.02808151219648991</v>
       </c>
       <c r="J13">
-        <v>13.85876461568756</v>
+        <v>13.85876461568745</v>
       </c>
       <c r="K13">
-        <v>0.04067438210667973</v>
+        <v>0.04067438210665664</v>
       </c>
       <c r="L13">
-        <v>8.498969915669562</v>
+        <v>8.498969915669619</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -874,10 +874,10 @@
         <v>0.018253725766467</v>
       </c>
       <c r="D14">
-        <v>0.01993228519365431</v>
+        <v>0.01993228519356816</v>
       </c>
       <c r="E14">
-        <v>0.03535830723222766</v>
+        <v>0.03535830723223476</v>
       </c>
       <c r="F14">
         <v>2.167273996841914</v>
@@ -886,19 +886,19 @@
         <v>1.656193771161256</v>
       </c>
       <c r="H14">
-        <v>1.628175406857665</v>
+        <v>1.628175406857679</v>
       </c>
       <c r="I14">
-        <v>0.02739128712147298</v>
+        <v>0.02739128712146233</v>
       </c>
       <c r="J14">
-        <v>13.58481580567684</v>
+        <v>13.58481580567678</v>
       </c>
       <c r="K14">
-        <v>0.03990889826267896</v>
+        <v>0.03990889826270205</v>
       </c>
       <c r="L14">
-        <v>8.330063974312338</v>
+        <v>8.330063974312253</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01795536487968974</v>
+        <v>0.01795536487977145</v>
       </c>
       <c r="D15">
-        <v>0.01925843993489673</v>
+        <v>0.01925843993499488</v>
       </c>
       <c r="E15">
-        <v>0.03501900464766372</v>
+        <v>0.03501900464764063</v>
       </c>
       <c r="F15">
-        <v>2.130000607110347</v>
+        <v>2.130000607110333</v>
       </c>
       <c r="G15">
-        <v>1.626593677233046</v>
+        <v>1.626593677233032</v>
       </c>
       <c r="H15">
         <v>1.599841066743608</v>
       </c>
       <c r="I15">
-        <v>0.02697993232186313</v>
+        <v>0.02697993232185247</v>
       </c>
       <c r="J15">
         <v>13.4178931118058</v>
       </c>
       <c r="K15">
-        <v>0.03944703227368329</v>
+        <v>0.03944703227369928</v>
       </c>
       <c r="L15">
-        <v>8.227168259109078</v>
+        <v>8.22716825910905</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01630797065379852</v>
+        <v>0.01630797065380563</v>
       </c>
       <c r="D16">
-        <v>0.01567543043240183</v>
+        <v>0.01567543043240383</v>
       </c>
       <c r="E16">
-        <v>0.03315117664837963</v>
+        <v>0.03315117664839207</v>
       </c>
       <c r="F16">
-        <v>1.925983747477687</v>
+        <v>1.925983747477659</v>
       </c>
       <c r="G16">
         <v>1.464970751592062</v>
       </c>
       <c r="H16">
-        <v>1.444851467409833</v>
+        <v>1.444851467409805</v>
       </c>
       <c r="I16">
-        <v>0.02478430338777038</v>
+        <v>0.02478430338779525</v>
       </c>
       <c r="J16">
-        <v>12.47364359929531</v>
+        <v>12.47364359929537</v>
       </c>
       <c r="K16">
-        <v>0.03689967707766684</v>
+        <v>0.03689967707765973</v>
       </c>
       <c r="L16">
         <v>7.645422287637587</v>
@@ -988,10 +988,10 @@
         <v>0.01534684295986821</v>
       </c>
       <c r="D17">
-        <v>0.01369970353359973</v>
+        <v>0.01369970353370875</v>
       </c>
       <c r="E17">
-        <v>0.03206796764091102</v>
+        <v>0.03206796764090036</v>
       </c>
       <c r="F17">
         <v>1.808553953733721</v>
@@ -1003,13 +1003,13 @@
         <v>1.35572353249168</v>
       </c>
       <c r="I17">
-        <v>0.02356825299843734</v>
+        <v>0.02356825299843557</v>
       </c>
       <c r="J17">
-        <v>11.90421785047033</v>
+        <v>11.90421785047039</v>
       </c>
       <c r="K17">
-        <v>0.03541759549519519</v>
+        <v>0.03541759549519163</v>
       </c>
       <c r="L17">
         <v>7.294861314278364</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0148100028287601</v>
+        <v>0.01481000282903366</v>
       </c>
       <c r="D18">
-        <v>0.0126356313280942</v>
+        <v>0.01263563132808554</v>
       </c>
       <c r="E18">
-        <v>0.03146588616819024</v>
+        <v>0.03146588616819734</v>
       </c>
       <c r="F18">
         <v>1.743554757574245</v>
@@ -1038,19 +1038,19 @@
         <v>1.321075802697024</v>
       </c>
       <c r="H18">
-        <v>1.3064182108767</v>
+        <v>1.306418210876714</v>
       </c>
       <c r="I18">
-        <v>0.02291208712775727</v>
+        <v>0.02291208712774839</v>
       </c>
       <c r="J18">
         <v>11.57989820983624</v>
       </c>
       <c r="K18">
-        <v>0.03459185181123381</v>
+        <v>0.03459185181126223</v>
       </c>
       <c r="L18">
-        <v>7.095284302403911</v>
+        <v>7.09528430240394</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01463079113571197</v>
+        <v>0.01463079113581855</v>
       </c>
       <c r="D19">
-        <v>0.01228696596287504</v>
+        <v>0.01228696596298584</v>
       </c>
       <c r="E19">
-        <v>0.03126544951527421</v>
+        <v>0.03126544951528665</v>
       </c>
       <c r="F19">
-        <v>1.721958253180873</v>
+        <v>1.721958253180901</v>
       </c>
       <c r="G19">
-        <v>1.304084624058049</v>
+        <v>1.304084624058078</v>
       </c>
       <c r="H19">
-        <v>1.290040839418026</v>
+        <v>1.29004083941804</v>
       </c>
       <c r="I19">
-        <v>0.02269693414760887</v>
+        <v>0.02269693414759821</v>
       </c>
       <c r="J19">
-        <v>11.47060219752953</v>
+        <v>11.47060219752959</v>
       </c>
       <c r="K19">
-        <v>0.03431660237836276</v>
+        <v>0.03431660237836098</v>
       </c>
       <c r="L19">
         <v>7.028040907843149</v>
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01544745684678617</v>
+        <v>0.01544745684679327</v>
       </c>
       <c r="D20">
-        <v>0.01390234182198036</v>
+        <v>0.0139023418219848</v>
       </c>
       <c r="E20">
-        <v>0.03218106480114713</v>
+        <v>0.0321810648011418</v>
       </c>
       <c r="F20">
-        <v>1.820785079006157</v>
+        <v>1.820785079006143</v>
       </c>
       <c r="G20">
-        <v>1.381914881346134</v>
+        <v>1.38191488134612</v>
       </c>
       <c r="H20">
-        <v>1.365003806959791</v>
+        <v>1.365003806959777</v>
       </c>
       <c r="I20">
-        <v>0.0236931230655415</v>
+        <v>0.02369312306554505</v>
       </c>
       <c r="J20">
-        <v>11.96449427327428</v>
+        <v>11.96449427327425</v>
       </c>
       <c r="K20">
-        <v>0.03557253937239579</v>
+        <v>0.03557253937242599</v>
       </c>
       <c r="L20">
-        <v>7.331960656316625</v>
+        <v>7.331960656316596</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01839799660225339</v>
+        <v>0.01839799660235286</v>
       </c>
       <c r="D21">
-        <v>0.02026074215139584</v>
+        <v>0.0202607421512675</v>
       </c>
       <c r="E21">
-        <v>0.03552245302713075</v>
+        <v>0.03552245302712365</v>
       </c>
       <c r="F21">
-        <v>2.185329669813342</v>
+        <v>2.18532966981337</v>
       </c>
       <c r="G21">
-        <v>1.670539948689481</v>
+        <v>1.670539948689509</v>
       </c>
       <c r="H21">
-        <v>1.641902804556878</v>
+        <v>1.641902804556906</v>
       </c>
       <c r="I21">
-        <v>0.02759160723025644</v>
+        <v>0.02759160723025289</v>
       </c>
       <c r="J21">
-        <v>13.66509514425525</v>
+        <v>13.66509514425533</v>
       </c>
       <c r="K21">
-        <v>0.04013225701357648</v>
+        <v>0.0401322570136049</v>
       </c>
       <c r="L21">
-        <v>8.379556332651532</v>
+        <v>8.379556332651561</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02052066664421659</v>
+        <v>0.02052066664432317</v>
       </c>
       <c r="D22">
-        <v>0.02528108453560174</v>
+        <v>0.02528108453560884</v>
       </c>
       <c r="E22">
-        <v>0.03794072315939623</v>
+        <v>0.03794072315937491</v>
       </c>
       <c r="F22">
-        <v>2.453155727466253</v>
+        <v>2.453155727466282</v>
       </c>
       <c r="G22">
         <v>1.883883207469793</v>
@@ -1193,16 +1193,16 @@
         <v>1.845663692930259</v>
       </c>
       <c r="I22">
-        <v>0.03063749844717023</v>
+        <v>0.0306374984471578</v>
       </c>
       <c r="J22">
         <v>14.81470826941325</v>
       </c>
       <c r="K22">
-        <v>0.04341811280325913</v>
+        <v>0.04341811280325025</v>
       </c>
       <c r="L22">
-        <v>9.088722811865068</v>
+        <v>9.088722811865125</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>0.01936700353105536</v>
       </c>
       <c r="D23">
-        <v>0.02250989955704563</v>
+        <v>0.02250989955694083</v>
       </c>
       <c r="E23">
         <v>0.03662592062103975</v>
       </c>
       <c r="F23">
-        <v>2.307114286398246</v>
+        <v>2.30711428639826</v>
       </c>
       <c r="G23">
-        <v>1.767428096879613</v>
+        <v>1.767428096879598</v>
       </c>
       <c r="H23">
-        <v>1.734524841586918</v>
+        <v>1.734524841586961</v>
       </c>
       <c r="I23">
-        <v>0.02895992612812748</v>
+        <v>0.02895992612813991</v>
       </c>
       <c r="J23">
-        <v>14.19710332223877</v>
+        <v>14.19710332223872</v>
       </c>
       <c r="K23">
-        <v>0.04163259379327577</v>
+        <v>0.04163259379328288</v>
       </c>
       <c r="L23">
-        <v>8.707638694292768</v>
+        <v>8.70763869429274</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01540192084796743</v>
+        <v>0.01540192084813086</v>
       </c>
       <c r="D24">
-        <v>0.0138105076155306</v>
+        <v>0.01381050761552394</v>
       </c>
       <c r="E24">
         <v>0.03212986967909615</v>
       </c>
       <c r="F24">
-        <v>1.815247630211275</v>
+        <v>1.81524763021126</v>
       </c>
       <c r="G24">
         <v>1.377548760195893</v>
@@ -1269,16 +1269,16 @@
         <v>1.360802219923002</v>
       </c>
       <c r="I24">
-        <v>0.0236365366381186</v>
+        <v>0.02363653663811327</v>
       </c>
       <c r="J24">
-        <v>11.93723389794542</v>
+        <v>11.93723389794548</v>
       </c>
       <c r="K24">
-        <v>0.03550240793614989</v>
+        <v>0.03550240793614279</v>
       </c>
       <c r="L24">
-        <v>7.315181985348744</v>
+        <v>7.315181985348772</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01172087331742588</v>
+        <v>0.01172087331743654</v>
       </c>
       <c r="D25">
-        <v>0.007128460569432171</v>
+        <v>0.007128460569432504</v>
       </c>
       <c r="E25">
-        <v>0.02806565856114496</v>
+        <v>0.02806565856112719</v>
       </c>
       <c r="F25">
         <v>1.379824799937836</v>
@@ -1307,16 +1307,16 @@
         <v>1.03094734636295</v>
       </c>
       <c r="I25">
-        <v>0.01951450133143418</v>
+        <v>0.0195145013314324</v>
       </c>
       <c r="J25">
-        <v>9.618807839289389</v>
+        <v>9.618807839289332</v>
       </c>
       <c r="K25">
-        <v>0.02988988835082118</v>
+        <v>0.0298898883508194</v>
       </c>
       <c r="L25">
-        <v>5.889840826375604</v>
+        <v>5.889840826375632</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
@@ -415,13 +415,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00933059053116736</v>
+        <v>0.009330590531348548</v>
       </c>
       <c r="D2">
-        <v>0.003715942034332009</v>
+        <v>0.003715942034335451</v>
       </c>
       <c r="E2">
-        <v>0.02556163446068282</v>
+        <v>0.02556163446068638</v>
       </c>
       <c r="F2">
         <v>1.114745355540947</v>
@@ -430,19 +430,19 @@
         <v>0.8314021898140993</v>
       </c>
       <c r="H2">
-        <v>0.830793697765273</v>
+        <v>0.8307936977652659</v>
       </c>
       <c r="I2">
-        <v>0.01744485045564304</v>
+        <v>0.01744485045565192</v>
       </c>
       <c r="J2">
-        <v>7.976442487469654</v>
+        <v>7.976442487469626</v>
       </c>
       <c r="K2">
-        <v>0.02635561082316684</v>
+        <v>0.02635561082317395</v>
       </c>
       <c r="L2">
-        <v>4.882147167293965</v>
+        <v>4.882147167293994</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007842017398338896</v>
+        <v>0.007842017398228762</v>
       </c>
       <c r="D3">
-        <v>0.002053150263711001</v>
+        <v>0.002053150263714998</v>
       </c>
       <c r="E3">
-        <v>0.02409941788350878</v>
+        <v>0.02409941788352654</v>
       </c>
       <c r="F3">
-        <v>0.9601135988251599</v>
+        <v>0.9601135988251457</v>
       </c>
       <c r="G3">
-        <v>0.7132896883052666</v>
+        <v>0.7132896883052595</v>
       </c>
       <c r="H3">
-        <v>0.714377466147802</v>
+        <v>0.7143774661477948</v>
       </c>
       <c r="I3">
-        <v>0.01648822004283268</v>
+        <v>0.01648822004283446</v>
       </c>
       <c r="J3">
-        <v>6.889647305153517</v>
+        <v>6.889647305153403</v>
       </c>
       <c r="K3">
-        <v>0.02423701414750923</v>
+        <v>0.024237014147511</v>
       </c>
       <c r="L3">
         <v>4.216301950676836</v>
@@ -491,34 +491,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.006975471859647087</v>
+        <v>0.006975471859796301</v>
       </c>
       <c r="D4">
-        <v>0.001278657580527032</v>
+        <v>0.001278657580467746</v>
       </c>
       <c r="E4">
-        <v>0.02329898806048369</v>
+        <v>0.02329898806046771</v>
       </c>
       <c r="F4">
-        <v>0.8749970557642541</v>
+        <v>0.8749970557642399</v>
       </c>
       <c r="G4">
-        <v>0.6489307229828043</v>
+        <v>0.6489307229828185</v>
       </c>
       <c r="H4">
-        <v>0.6504475185628564</v>
+        <v>0.6504475185628493</v>
       </c>
       <c r="I4">
-        <v>0.01608025677254332</v>
+        <v>0.01608025677253977</v>
       </c>
       <c r="J4">
-        <v>6.231590101533129</v>
+        <v>6.231590101533158</v>
       </c>
       <c r="K4">
-        <v>0.02304740487581114</v>
+        <v>0.02304740487580403</v>
       </c>
       <c r="L4">
-        <v>3.813531481305375</v>
+        <v>3.813531481305418</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.006632111354324621</v>
+        <v>0.006632111354321069</v>
       </c>
       <c r="D5">
-        <v>0.001015703423593028</v>
+        <v>0.00101570342359425</v>
       </c>
       <c r="E5">
         <v>0.02299493822358123</v>
       </c>
       <c r="F5">
-        <v>0.8424623489385397</v>
+        <v>0.8424623489385255</v>
       </c>
       <c r="G5">
         <v>0.6244891969625641</v>
       </c>
       <c r="H5">
-        <v>0.6260472609756178</v>
+        <v>0.6260472609756249</v>
       </c>
       <c r="I5">
-        <v>0.01595397043099922</v>
+        <v>0.01595397043098323</v>
       </c>
       <c r="J5">
-        <v>5.965278755598945</v>
+        <v>5.965278755599059</v>
       </c>
       <c r="K5">
-        <v>0.0225873903182201</v>
+        <v>0.02258739031822721</v>
       </c>
       <c r="L5">
-        <v>3.650623227716849</v>
+        <v>3.650623227716878</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.006575629021760676</v>
+        <v>0.006575629021757123</v>
       </c>
       <c r="D6">
-        <v>0.0009749731554893337</v>
+        <v>0.0009749731553544416</v>
       </c>
       <c r="E6">
-        <v>0.02294572461557465</v>
+        <v>0.02294572461555866</v>
       </c>
       <c r="F6">
-        <v>0.8371813143444484</v>
+        <v>0.8371813143444768</v>
       </c>
       <c r="G6">
-        <v>0.6205313676416324</v>
+        <v>0.6205313676416395</v>
       </c>
       <c r="H6">
-        <v>0.6220887633770928</v>
+        <v>0.6220887633770786</v>
       </c>
       <c r="I6">
-        <v>0.01593527679845685</v>
+        <v>0.01593527679847639</v>
       </c>
       <c r="J6">
-        <v>5.921157218079884</v>
+        <v>5.921157218079969</v>
       </c>
       <c r="K6">
-        <v>0.0225124151244529</v>
+        <v>0.02251241512446711</v>
       </c>
       <c r="L6">
-        <v>3.623638321131679</v>
+        <v>3.623638321131693</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.006970804276193121</v>
+        <v>0.006970804276171805</v>
       </c>
       <c r="D7">
-        <v>0.001274909424281212</v>
+        <v>0.001274909424458626</v>
       </c>
       <c r="E7">
         <v>0.02329480081641933</v>
@@ -617,22 +617,22 @@
         <v>0.8745499653221316</v>
       </c>
       <c r="G7">
-        <v>0.6485941954186174</v>
+        <v>0.6485941954186316</v>
       </c>
       <c r="H7">
-        <v>0.6501120633219273</v>
+        <v>0.6501120633219202</v>
       </c>
       <c r="I7">
-        <v>0.01607839812777634</v>
+        <v>0.01607839812776213</v>
       </c>
       <c r="J7">
-        <v>6.22799161174413</v>
+        <v>6.227991611744159</v>
       </c>
       <c r="K7">
-        <v>0.02304110462694098</v>
+        <v>0.02304110462691966</v>
       </c>
       <c r="L7">
-        <v>3.811329856177991</v>
+        <v>3.81132985617802</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.008806071475525812</v>
+        <v>0.008806071475753185</v>
       </c>
       <c r="D8">
-        <v>0.00308539996640278</v>
+        <v>0.003085399966331726</v>
       </c>
       <c r="E8">
-        <v>0.02503573259475544</v>
+        <v>0.02503573259474301</v>
       </c>
       <c r="F8">
-        <v>1.0591817948998</v>
+        <v>1.059181794899814</v>
       </c>
       <c r="G8">
-        <v>0.7888103030925819</v>
+        <v>0.788810303092589</v>
       </c>
       <c r="H8">
-        <v>0.7889270552152254</v>
+        <v>0.7889270552152112</v>
       </c>
       <c r="I8">
-        <v>0.0170744327471386</v>
+        <v>0.01707443274713327</v>
       </c>
       <c r="J8">
-        <v>7.599493766612426</v>
+        <v>7.599493766612483</v>
       </c>
       <c r="K8">
-        <v>0.02559996242733398</v>
+        <v>0.02559996242733042</v>
       </c>
       <c r="L8">
-        <v>4.651111975792773</v>
+        <v>4.651111975792787</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,34 +681,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01290037068604732</v>
+        <v>0.01290037068577021</v>
       </c>
       <c r="D9">
-        <v>0.009099515438535377</v>
+        <v>0.009099515438528272</v>
       </c>
       <c r="E9">
-        <v>0.02934807042434251</v>
+        <v>0.02934807042435672</v>
       </c>
       <c r="F9">
         <v>1.516381472963758</v>
       </c>
       <c r="G9">
-        <v>1.142868712812003</v>
+        <v>1.142868712811975</v>
       </c>
       <c r="H9">
-        <v>1.134273195342871</v>
+        <v>1.134273195342885</v>
       </c>
       <c r="I9">
-        <v>0.02072878142043955</v>
+        <v>0.02072878142044488</v>
       </c>
       <c r="J9">
-        <v>10.38755631689858</v>
+        <v>10.38755631689853</v>
       </c>
       <c r="K9">
-        <v>0.03167261912861541</v>
+        <v>0.03167261912861896</v>
       </c>
       <c r="L9">
-        <v>6.362096306599852</v>
+        <v>6.362096306599909</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01641996020783054</v>
+        <v>0.01641996020792647</v>
       </c>
       <c r="D10">
-        <v>0.01591132467734502</v>
+        <v>0.01591132467722289</v>
       </c>
       <c r="E10">
-        <v>0.0332777617768425</v>
+        <v>0.03327776177686381</v>
       </c>
       <c r="F10">
         <v>1.939748564032584</v>
       </c>
       <c r="G10">
-        <v>1.475853193501933</v>
+        <v>1.475853193501976</v>
       </c>
       <c r="H10">
-        <v>1.455302925100824</v>
+        <v>1.455302925100852</v>
       </c>
       <c r="I10">
-        <v>0.02492926301357201</v>
+        <v>0.02492926301354359</v>
       </c>
       <c r="J10">
-        <v>12.53908162165706</v>
+        <v>12.53908162165709</v>
       </c>
       <c r="K10">
-        <v>0.03707261595878997</v>
+        <v>0.03707261595877753</v>
       </c>
       <c r="L10">
         <v>7.685720973497922</v>
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01819640980920312</v>
+        <v>0.0181964098093097</v>
       </c>
       <c r="D11">
-        <v>0.01980226788038308</v>
+        <v>0.0198022678803822</v>
       </c>
       <c r="E11">
-        <v>0.03529310876466241</v>
+        <v>0.0352931087646553</v>
       </c>
       <c r="F11">
-        <v>2.160106617971465</v>
+        <v>2.160106617971451</v>
       </c>
       <c r="G11">
-        <v>1.650500269096682</v>
+        <v>1.650500269096668</v>
       </c>
       <c r="H11">
-        <v>1.622726522864994</v>
+        <v>1.622726522864966</v>
       </c>
       <c r="I11">
-        <v>0.0273119574273526</v>
+        <v>0.02731195742734371</v>
       </c>
       <c r="J11">
-        <v>13.55284395337983</v>
+        <v>13.55284395337969</v>
       </c>
       <c r="K11">
-        <v>0.03982016633198882</v>
+        <v>0.03982016633199592</v>
       </c>
       <c r="L11">
-        <v>8.310354350611476</v>
+        <v>8.310354350611391</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01890159276742764</v>
+        <v>0.01890159276725001</v>
       </c>
       <c r="D12">
-        <v>0.02142040600694139</v>
+        <v>0.02142040600703687</v>
       </c>
       <c r="E12">
         <v>0.0360957515700715</v>
       </c>
       <c r="F12">
-        <v>2.248513527916288</v>
+        <v>2.248513527916273</v>
       </c>
       <c r="G12">
-        <v>1.720780620176953</v>
+        <v>1.720780620176939</v>
       </c>
       <c r="H12">
-        <v>1.689949909953697</v>
+        <v>1.689949909953683</v>
       </c>
       <c r="I12">
-        <v>0.02829785864971335</v>
+        <v>0.02829785864970447</v>
       </c>
       <c r="J12">
-        <v>13.94312924461562</v>
+        <v>13.94312924461551</v>
       </c>
       <c r="K12">
-        <v>0.04091198857358158</v>
+        <v>0.04091198857358869</v>
       </c>
       <c r="L12">
-        <v>8.550994915634192</v>
+        <v>8.550994915634135</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,34 +833,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01874813652420571</v>
+        <v>0.0187481365241986</v>
       </c>
       <c r="D13">
-        <v>0.02106488966906683</v>
+        <v>0.02106488966895137</v>
       </c>
       <c r="E13">
         <v>0.03592100778341845</v>
       </c>
       <c r="F13">
-        <v>2.229234623489958</v>
+        <v>2.229234623489972</v>
       </c>
       <c r="G13">
-        <v>1.705444839576273</v>
+        <v>1.705444839576288</v>
       </c>
       <c r="H13">
-        <v>1.675288030053608</v>
+        <v>1.675288030053622</v>
       </c>
       <c r="I13">
-        <v>0.02808151219648991</v>
+        <v>0.02808151219650767</v>
       </c>
       <c r="J13">
-        <v>13.85876461568745</v>
+        <v>13.85876461568756</v>
       </c>
       <c r="K13">
-        <v>0.04067438210665664</v>
+        <v>0.04067438210667973</v>
       </c>
       <c r="L13">
-        <v>8.498969915669619</v>
+        <v>8.498969915669562</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -874,10 +874,10 @@
         <v>0.018253725766467</v>
       </c>
       <c r="D14">
-        <v>0.01993228519356816</v>
+        <v>0.01993228519365431</v>
       </c>
       <c r="E14">
-        <v>0.03535830723223476</v>
+        <v>0.03535830723222766</v>
       </c>
       <c r="F14">
         <v>2.167273996841914</v>
@@ -886,19 +886,19 @@
         <v>1.656193771161256</v>
       </c>
       <c r="H14">
-        <v>1.628175406857679</v>
+        <v>1.628175406857665</v>
       </c>
       <c r="I14">
-        <v>0.02739128712146233</v>
+        <v>0.02739128712147298</v>
       </c>
       <c r="J14">
-        <v>13.58481580567678</v>
+        <v>13.58481580567684</v>
       </c>
       <c r="K14">
-        <v>0.03990889826270205</v>
+        <v>0.03990889826267896</v>
       </c>
       <c r="L14">
-        <v>8.330063974312253</v>
+        <v>8.330063974312338</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,34 +909,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01795536487977145</v>
+        <v>0.01795536487968974</v>
       </c>
       <c r="D15">
-        <v>0.01925843993499488</v>
+        <v>0.01925843993489673</v>
       </c>
       <c r="E15">
-        <v>0.03501900464764063</v>
+        <v>0.03501900464766372</v>
       </c>
       <c r="F15">
-        <v>2.130000607110333</v>
+        <v>2.130000607110347</v>
       </c>
       <c r="G15">
-        <v>1.626593677233032</v>
+        <v>1.626593677233046</v>
       </c>
       <c r="H15">
         <v>1.599841066743608</v>
       </c>
       <c r="I15">
-        <v>0.02697993232185247</v>
+        <v>0.02697993232186313</v>
       </c>
       <c r="J15">
         <v>13.4178931118058</v>
       </c>
       <c r="K15">
-        <v>0.03944703227369928</v>
+        <v>0.03944703227368329</v>
       </c>
       <c r="L15">
-        <v>8.22716825910905</v>
+        <v>8.227168259109078</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01630797065380563</v>
+        <v>0.01630797065379852</v>
       </c>
       <c r="D16">
-        <v>0.01567543043240383</v>
+        <v>0.01567543043240183</v>
       </c>
       <c r="E16">
-        <v>0.03315117664839207</v>
+        <v>0.03315117664837963</v>
       </c>
       <c r="F16">
-        <v>1.925983747477659</v>
+        <v>1.925983747477687</v>
       </c>
       <c r="G16">
         <v>1.464970751592062</v>
       </c>
       <c r="H16">
-        <v>1.444851467409805</v>
+        <v>1.444851467409833</v>
       </c>
       <c r="I16">
-        <v>0.02478430338779525</v>
+        <v>0.02478430338777038</v>
       </c>
       <c r="J16">
-        <v>12.47364359929537</v>
+        <v>12.47364359929531</v>
       </c>
       <c r="K16">
-        <v>0.03689967707765973</v>
+        <v>0.03689967707766684</v>
       </c>
       <c r="L16">
         <v>7.645422287637587</v>
@@ -988,10 +988,10 @@
         <v>0.01534684295986821</v>
       </c>
       <c r="D17">
-        <v>0.01369970353370875</v>
+        <v>0.01369970353359973</v>
       </c>
       <c r="E17">
-        <v>0.03206796764090036</v>
+        <v>0.03206796764091102</v>
       </c>
       <c r="F17">
         <v>1.808553953733721</v>
@@ -1003,13 +1003,13 @@
         <v>1.35572353249168</v>
       </c>
       <c r="I17">
-        <v>0.02356825299843557</v>
+        <v>0.02356825299843734</v>
       </c>
       <c r="J17">
-        <v>11.90421785047039</v>
+        <v>11.90421785047033</v>
       </c>
       <c r="K17">
-        <v>0.03541759549519163</v>
+        <v>0.03541759549519519</v>
       </c>
       <c r="L17">
         <v>7.294861314278364</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01481000282903366</v>
+        <v>0.0148100028287601</v>
       </c>
       <c r="D18">
-        <v>0.01263563132808554</v>
+        <v>0.0126356313280942</v>
       </c>
       <c r="E18">
-        <v>0.03146588616819734</v>
+        <v>0.03146588616819024</v>
       </c>
       <c r="F18">
         <v>1.743554757574245</v>
@@ -1038,19 +1038,19 @@
         <v>1.321075802697024</v>
       </c>
       <c r="H18">
-        <v>1.306418210876714</v>
+        <v>1.3064182108767</v>
       </c>
       <c r="I18">
-        <v>0.02291208712774839</v>
+        <v>0.02291208712775727</v>
       </c>
       <c r="J18">
         <v>11.57989820983624</v>
       </c>
       <c r="K18">
-        <v>0.03459185181126223</v>
+        <v>0.03459185181123381</v>
       </c>
       <c r="L18">
-        <v>7.09528430240394</v>
+        <v>7.095284302403911</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01463079113581855</v>
+        <v>0.01463079113571197</v>
       </c>
       <c r="D19">
-        <v>0.01228696596298584</v>
+        <v>0.01228696596287504</v>
       </c>
       <c r="E19">
-        <v>0.03126544951528665</v>
+        <v>0.03126544951527421</v>
       </c>
       <c r="F19">
-        <v>1.721958253180901</v>
+        <v>1.721958253180873</v>
       </c>
       <c r="G19">
-        <v>1.304084624058078</v>
+        <v>1.304084624058049</v>
       </c>
       <c r="H19">
-        <v>1.29004083941804</v>
+        <v>1.290040839418026</v>
       </c>
       <c r="I19">
-        <v>0.02269693414759821</v>
+        <v>0.02269693414760887</v>
       </c>
       <c r="J19">
-        <v>11.47060219752959</v>
+        <v>11.47060219752953</v>
       </c>
       <c r="K19">
-        <v>0.03431660237836098</v>
+        <v>0.03431660237836276</v>
       </c>
       <c r="L19">
         <v>7.028040907843149</v>
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01544745684679327</v>
+        <v>0.01544745684678617</v>
       </c>
       <c r="D20">
-        <v>0.0139023418219848</v>
+        <v>0.01390234182198036</v>
       </c>
       <c r="E20">
-        <v>0.0321810648011418</v>
+        <v>0.03218106480114713</v>
       </c>
       <c r="F20">
-        <v>1.820785079006143</v>
+        <v>1.820785079006157</v>
       </c>
       <c r="G20">
-        <v>1.38191488134612</v>
+        <v>1.381914881346134</v>
       </c>
       <c r="H20">
-        <v>1.365003806959777</v>
+        <v>1.365003806959791</v>
       </c>
       <c r="I20">
-        <v>0.02369312306554505</v>
+        <v>0.0236931230655415</v>
       </c>
       <c r="J20">
-        <v>11.96449427327425</v>
+        <v>11.96449427327428</v>
       </c>
       <c r="K20">
-        <v>0.03557253937242599</v>
+        <v>0.03557253937239579</v>
       </c>
       <c r="L20">
-        <v>7.331960656316596</v>
+        <v>7.331960656316625</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01839799660235286</v>
+        <v>0.01839799660225339</v>
       </c>
       <c r="D21">
-        <v>0.0202607421512675</v>
+        <v>0.02026074215139584</v>
       </c>
       <c r="E21">
-        <v>0.03552245302712365</v>
+        <v>0.03552245302713075</v>
       </c>
       <c r="F21">
-        <v>2.18532966981337</v>
+        <v>2.185329669813342</v>
       </c>
       <c r="G21">
-        <v>1.670539948689509</v>
+        <v>1.670539948689481</v>
       </c>
       <c r="H21">
-        <v>1.641902804556906</v>
+        <v>1.641902804556878</v>
       </c>
       <c r="I21">
-        <v>0.02759160723025289</v>
+        <v>0.02759160723025644</v>
       </c>
       <c r="J21">
-        <v>13.66509514425533</v>
+        <v>13.66509514425525</v>
       </c>
       <c r="K21">
-        <v>0.0401322570136049</v>
+        <v>0.04013225701357648</v>
       </c>
       <c r="L21">
-        <v>8.379556332651561</v>
+        <v>8.379556332651532</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02052066664432317</v>
+        <v>0.02052066664421659</v>
       </c>
       <c r="D22">
-        <v>0.02528108453560884</v>
+        <v>0.02528108453560174</v>
       </c>
       <c r="E22">
-        <v>0.03794072315937491</v>
+        <v>0.03794072315939623</v>
       </c>
       <c r="F22">
-        <v>2.453155727466282</v>
+        <v>2.453155727466253</v>
       </c>
       <c r="G22">
         <v>1.883883207469793</v>
@@ -1193,16 +1193,16 @@
         <v>1.845663692930259</v>
       </c>
       <c r="I22">
-        <v>0.0306374984471578</v>
+        <v>0.03063749844717023</v>
       </c>
       <c r="J22">
         <v>14.81470826941325</v>
       </c>
       <c r="K22">
-        <v>0.04341811280325025</v>
+        <v>0.04341811280325913</v>
       </c>
       <c r="L22">
-        <v>9.088722811865125</v>
+        <v>9.088722811865068</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1216,31 +1216,31 @@
         <v>0.01936700353105536</v>
       </c>
       <c r="D23">
-        <v>0.02250989955694083</v>
+        <v>0.02250989955704563</v>
       </c>
       <c r="E23">
         <v>0.03662592062103975</v>
       </c>
       <c r="F23">
-        <v>2.30711428639826</v>
+        <v>2.307114286398246</v>
       </c>
       <c r="G23">
-        <v>1.767428096879598</v>
+        <v>1.767428096879613</v>
       </c>
       <c r="H23">
-        <v>1.734524841586961</v>
+        <v>1.734524841586918</v>
       </c>
       <c r="I23">
-        <v>0.02895992612813991</v>
+        <v>0.02895992612812748</v>
       </c>
       <c r="J23">
-        <v>14.19710332223872</v>
+        <v>14.19710332223877</v>
       </c>
       <c r="K23">
-        <v>0.04163259379328288</v>
+        <v>0.04163259379327577</v>
       </c>
       <c r="L23">
-        <v>8.70763869429274</v>
+        <v>8.707638694292768</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01540192084813086</v>
+        <v>0.01540192084796743</v>
       </c>
       <c r="D24">
-        <v>0.01381050761552394</v>
+        <v>0.0138105076155306</v>
       </c>
       <c r="E24">
         <v>0.03212986967909615</v>
       </c>
       <c r="F24">
-        <v>1.81524763021126</v>
+        <v>1.815247630211275</v>
       </c>
       <c r="G24">
         <v>1.377548760195893</v>
@@ -1269,16 +1269,16 @@
         <v>1.360802219923002</v>
       </c>
       <c r="I24">
-        <v>0.02363653663811327</v>
+        <v>0.0236365366381186</v>
       </c>
       <c r="J24">
-        <v>11.93723389794548</v>
+        <v>11.93723389794542</v>
       </c>
       <c r="K24">
-        <v>0.03550240793614279</v>
+        <v>0.03550240793614989</v>
       </c>
       <c r="L24">
-        <v>7.315181985348772</v>
+        <v>7.315181985348744</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,13 +1289,13 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01172087331743654</v>
+        <v>0.01172087331742588</v>
       </c>
       <c r="D25">
-        <v>0.007128460569432504</v>
+        <v>0.007128460569432171</v>
       </c>
       <c r="E25">
-        <v>0.02806565856112719</v>
+        <v>0.02806565856114496</v>
       </c>
       <c r="F25">
         <v>1.379824799937836</v>
@@ -1307,16 +1307,16 @@
         <v>1.03094734636295</v>
       </c>
       <c r="I25">
-        <v>0.0195145013314324</v>
+        <v>0.01951450133143418</v>
       </c>
       <c r="J25">
-        <v>9.618807839289332</v>
+        <v>9.618807839289389</v>
       </c>
       <c r="K25">
-        <v>0.0298898883508194</v>
+        <v>0.02988988835082118</v>
       </c>
       <c r="L25">
-        <v>5.889840826375632</v>
+        <v>5.889840826375604</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.009330590531348548</v>
+        <v>0.00935782100697935</v>
       </c>
       <c r="D2">
-        <v>0.003715942034335451</v>
+        <v>0.003708543610876469</v>
       </c>
       <c r="E2">
-        <v>0.02556163446068638</v>
+        <v>0.02554268111323488</v>
       </c>
       <c r="F2">
-        <v>1.114745355540947</v>
+        <v>1.113164518065062</v>
       </c>
       <c r="G2">
-        <v>0.8314021898140993</v>
+        <v>0.2810710129261196</v>
       </c>
       <c r="H2">
-        <v>0.8307936977652659</v>
+        <v>0.5527927944030182</v>
       </c>
       <c r="I2">
-        <v>0.01744485045565192</v>
+        <v>0.8295723098639556</v>
       </c>
       <c r="J2">
-        <v>7.976442487469626</v>
+        <v>0.01745637618658336</v>
       </c>
       <c r="K2">
-        <v>0.02635561082317395</v>
+        <v>7.976031734126423</v>
       </c>
       <c r="L2">
-        <v>4.882147167293994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.02635620556656626</v>
+      </c>
+      <c r="M2">
+        <v>4.882037937769496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007842017398228762</v>
+        <v>0.007867155955707972</v>
       </c>
       <c r="D3">
-        <v>0.002053150263714998</v>
+        <v>0.002050226090181351</v>
       </c>
       <c r="E3">
-        <v>0.02409941788352654</v>
+        <v>0.02408299957994942</v>
       </c>
       <c r="F3">
-        <v>0.9601135988251457</v>
+        <v>0.9587688581051452</v>
       </c>
       <c r="G3">
-        <v>0.7132896883052595</v>
+        <v>0.2368067403000254</v>
       </c>
       <c r="H3">
-        <v>0.7143774661477948</v>
+        <v>0.4792982221882198</v>
       </c>
       <c r="I3">
-        <v>0.01648822004283446</v>
+        <v>0.7133392252597304</v>
       </c>
       <c r="J3">
-        <v>6.889647305153403</v>
+        <v>0.01649807352337795</v>
       </c>
       <c r="K3">
-        <v>0.024237014147511</v>
+        <v>6.889364966414405</v>
       </c>
       <c r="L3">
-        <v>4.216301950676836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.0242374870834432</v>
+      </c>
+      <c r="M3">
+        <v>4.2162543293406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.006975471859796301</v>
+        <v>0.00699912457647045</v>
       </c>
       <c r="D4">
-        <v>0.001278657580467746</v>
+        <v>0.001277678636195212</v>
       </c>
       <c r="E4">
-        <v>0.02329898806046771</v>
+        <v>0.02328435524153605</v>
       </c>
       <c r="F4">
-        <v>0.8749970557642399</v>
+        <v>0.8737823748799372</v>
       </c>
       <c r="G4">
-        <v>0.6489307229828185</v>
+        <v>0.2123078327243348</v>
       </c>
       <c r="H4">
-        <v>0.6504475185628493</v>
+        <v>0.4396360590530364</v>
       </c>
       <c r="I4">
-        <v>0.01608025677253977</v>
+        <v>0.6495100869740824</v>
       </c>
       <c r="J4">
-        <v>6.231590101533158</v>
+        <v>0.01608913552091451</v>
       </c>
       <c r="K4">
-        <v>0.02304740487580403</v>
+        <v>6.231373525934998</v>
       </c>
       <c r="L4">
-        <v>3.813531481305418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.02304791017129482</v>
+      </c>
+      <c r="M4">
+        <v>3.813513130471023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.006632111354321069</v>
+        <v>0.006655115342159235</v>
       </c>
       <c r="D5">
-        <v>0.00101570342359425</v>
+        <v>0.001015346096943093</v>
       </c>
       <c r="E5">
-        <v>0.02299493822358123</v>
+        <v>0.02298108593012138</v>
       </c>
       <c r="F5">
-        <v>0.8424623489385255</v>
+        <v>0.8412975397544784</v>
       </c>
       <c r="G5">
-        <v>0.6244891969625641</v>
+        <v>0.2029072717235465</v>
       </c>
       <c r="H5">
-        <v>0.6260472609756249</v>
+        <v>0.4246716748637951</v>
       </c>
       <c r="I5">
-        <v>0.01595397043098323</v>
+        <v>0.6251484649186807</v>
       </c>
       <c r="J5">
-        <v>5.965278755599059</v>
+        <v>0.01596246476601237</v>
       </c>
       <c r="K5">
-        <v>0.02258739031822721</v>
+        <v>5.965086298468947</v>
       </c>
       <c r="L5">
-        <v>3.650623227716878</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.02258793378559609</v>
+      </c>
+      <c r="M5">
+        <v>3.650615042328809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.006575629021757123</v>
+        <v>0.006598522870802981</v>
       </c>
       <c r="D6">
-        <v>0.0009749731553544416</v>
+        <v>0.0009747095151810825</v>
       </c>
       <c r="E6">
-        <v>0.02294572461555866</v>
+        <v>0.02293200499692638</v>
       </c>
       <c r="F6">
-        <v>0.8371813143444768</v>
+        <v>0.8360246134270568</v>
       </c>
       <c r="G6">
-        <v>0.6205313676416395</v>
+        <v>0.2013790904211419</v>
       </c>
       <c r="H6">
-        <v>0.6220887633770786</v>
+        <v>0.4222545180667154</v>
       </c>
       <c r="I6">
-        <v>0.01593527679847639</v>
+        <v>0.6211962475839101</v>
       </c>
       <c r="J6">
-        <v>5.921157218079969</v>
+        <v>0.01594370806014922</v>
       </c>
       <c r="K6">
-        <v>0.02251241512446711</v>
+        <v>5.920968619659504</v>
       </c>
       <c r="L6">
-        <v>3.623638321131693</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.02251296638288736</v>
+      </c>
+      <c r="M6">
+        <v>3.623631727313537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.006970804276171805</v>
+        <v>0.006994448410303278</v>
       </c>
       <c r="D7">
-        <v>0.001274909424458626</v>
+        <v>0.00127393951936261</v>
       </c>
       <c r="E7">
-        <v>0.02329480081641933</v>
+        <v>0.02328017831543328</v>
       </c>
       <c r="F7">
-        <v>0.8745499653221316</v>
+        <v>0.8733359689533273</v>
       </c>
       <c r="G7">
-        <v>0.6485941954186316</v>
+        <v>0.2121788046311224</v>
       </c>
       <c r="H7">
-        <v>0.6501120633219202</v>
+        <v>0.4394296078899984</v>
       </c>
       <c r="I7">
-        <v>0.01607839812776213</v>
+        <v>0.6491751621084134</v>
       </c>
       <c r="J7">
-        <v>6.227991611744159</v>
+        <v>0.01608727164062707</v>
       </c>
       <c r="K7">
-        <v>0.02304110462691966</v>
+        <v>6.227775371544055</v>
       </c>
       <c r="L7">
-        <v>3.81132985617802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.02304161033859486</v>
+      </c>
+      <c r="M7">
+        <v>3.811311649111616</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.008806071475753185</v>
+        <v>0.008832627331585741</v>
       </c>
       <c r="D8">
-        <v>0.003085399966331726</v>
+        <v>0.003079730836164418</v>
       </c>
       <c r="E8">
-        <v>0.02503573259474301</v>
+        <v>0.02501760286804533</v>
       </c>
       <c r="F8">
-        <v>1.059181794899814</v>
+        <v>1.057685866534356</v>
       </c>
       <c r="G8">
-        <v>0.788810303092589</v>
+        <v>0.265193908733103</v>
       </c>
       <c r="H8">
-        <v>0.7889270552152112</v>
+        <v>0.5262044591652284</v>
       </c>
       <c r="I8">
-        <v>0.01707443274713327</v>
+        <v>0.7877715523784801</v>
       </c>
       <c r="J8">
-        <v>7.599493766612483</v>
+        <v>0.01708537103883856</v>
       </c>
       <c r="K8">
-        <v>0.02559996242733042</v>
+        <v>7.599130410758448</v>
       </c>
       <c r="L8">
-        <v>4.651111975792787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.02560049174440771</v>
+      </c>
+      <c r="M8">
+        <v>4.651026023249472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01290037068577021</v>
+        <v>0.01293062012454982</v>
       </c>
       <c r="D9">
-        <v>0.009099515438528272</v>
+        <v>0.00907654177583328</v>
       </c>
       <c r="E9">
-        <v>0.02934807042435672</v>
+        <v>0.02932511554622508</v>
       </c>
       <c r="F9">
-        <v>1.516381472963758</v>
+        <v>1.514178973731489</v>
       </c>
       <c r="G9">
-        <v>1.142868712811975</v>
+        <v>0.3952864514085093</v>
       </c>
       <c r="H9">
-        <v>1.134273195342885</v>
+        <v>0.7491382620677456</v>
       </c>
       <c r="I9">
-        <v>0.02072878142044488</v>
+        <v>1.132568996679552</v>
       </c>
       <c r="J9">
-        <v>10.38755631689853</v>
+        <v>0.02074416506438581</v>
       </c>
       <c r="K9">
-        <v>0.03167261912861896</v>
+        <v>10.3867654419897</v>
       </c>
       <c r="L9">
-        <v>6.362096306599909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.03167413227828852</v>
+      </c>
+      <c r="M9">
+        <v>6.361787104677887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01641996020792647</v>
+        <v>0.01645092280660521</v>
       </c>
       <c r="D10">
-        <v>0.01591132467722289</v>
+        <v>0.01586752953436599</v>
       </c>
       <c r="E10">
-        <v>0.03327776177686381</v>
+        <v>0.03325288854233399</v>
       </c>
       <c r="F10">
-        <v>1.939748564032584</v>
+        <v>1.936866956729901</v>
       </c>
       <c r="G10">
-        <v>1.475853193501976</v>
+        <v>0.5151649086693908</v>
       </c>
       <c r="H10">
-        <v>1.455302925100852</v>
+        <v>0.9612867733551269</v>
       </c>
       <c r="I10">
-        <v>0.02492926301354359</v>
+        <v>1.453070771859799</v>
       </c>
       <c r="J10">
-        <v>12.53908162165709</v>
+        <v>0.02494804875403389</v>
       </c>
       <c r="K10">
-        <v>0.03707261595877753</v>
+        <v>12.53782530967553</v>
       </c>
       <c r="L10">
-        <v>7.685720973497922</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.03707553160844412</v>
+      </c>
+      <c r="M10">
+        <v>7.685150040220435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0181964098093097</v>
+        <v>0.01822700913216835</v>
       </c>
       <c r="D11">
-        <v>0.0198022678803822</v>
+        <v>0.01974620026041185</v>
       </c>
       <c r="E11">
-        <v>0.0352931087646553</v>
+        <v>0.03526781526186973</v>
       </c>
       <c r="F11">
-        <v>2.160106617971451</v>
+        <v>2.156859213086022</v>
       </c>
       <c r="G11">
-        <v>1.650500269096668</v>
+        <v>0.5774701609564517</v>
       </c>
       <c r="H11">
-        <v>1.622726522864966</v>
+        <v>1.073124034560905</v>
       </c>
       <c r="I11">
-        <v>0.02731195742734371</v>
+        <v>1.620209857522454</v>
       </c>
       <c r="J11">
-        <v>13.55284395337969</v>
+        <v>0.02733225468449874</v>
       </c>
       <c r="K11">
-        <v>0.03982016633199592</v>
+        <v>13.55132052771819</v>
       </c>
       <c r="L11">
-        <v>8.310354350611391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.03982388128371461</v>
+      </c>
+      <c r="M11">
+        <v>8.309628708808191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01890159276725001</v>
+        <v>0.01893192501866992</v>
       </c>
       <c r="D12">
-        <v>0.02142040600703687</v>
+        <v>0.0213591630765273</v>
       </c>
       <c r="E12">
-        <v>0.0360957515700715</v>
+        <v>0.03607037367649291</v>
       </c>
       <c r="F12">
-        <v>2.248513527916273</v>
+        <v>2.24511672357221</v>
       </c>
       <c r="G12">
-        <v>1.720780620176939</v>
+        <v>0.6024573604743608</v>
       </c>
       <c r="H12">
-        <v>1.689949909953683</v>
+        <v>1.118213138883021</v>
       </c>
       <c r="I12">
-        <v>0.02829785864970447</v>
+        <v>1.687317025050902</v>
       </c>
       <c r="J12">
-        <v>13.94312924461551</v>
+        <v>0.02831871211080639</v>
       </c>
       <c r="K12">
-        <v>0.04091198857358869</v>
+        <v>13.94149392483249</v>
       </c>
       <c r="L12">
-        <v>8.550994915634135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.04091602893421786</v>
+      </c>
+      <c r="M12">
+        <v>8.550203780054829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0187481365241986</v>
+        <v>0.01877853265752449</v>
       </c>
       <c r="D13">
-        <v>0.02106488966895137</v>
+        <v>0.02100478728400601</v>
       </c>
       <c r="E13">
-        <v>0.03592100778341845</v>
+        <v>0.03589564457248784</v>
       </c>
       <c r="F13">
-        <v>2.229234623489972</v>
+        <v>2.22587053251587</v>
       </c>
       <c r="G13">
-        <v>1.705444839576288</v>
+        <v>0.597008756494219</v>
       </c>
       <c r="H13">
-        <v>1.675288030053622</v>
+        <v>1.108370544738392</v>
       </c>
       <c r="I13">
-        <v>0.02808151219650767</v>
+        <v>1.672680594075075</v>
       </c>
       <c r="J13">
-        <v>13.85876461568756</v>
+        <v>0.02810224683647355</v>
       </c>
       <c r="K13">
-        <v>0.04067438210667973</v>
+        <v>13.85715392759374</v>
       </c>
       <c r="L13">
-        <v>8.498969915669562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.04067835140475928</v>
+      </c>
+      <c r="M13">
+        <v>8.498193228218156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.018253725766467</v>
+        <v>0.01828430592574648</v>
       </c>
       <c r="D14">
-        <v>0.01993228519365431</v>
+        <v>0.01987580325182225</v>
       </c>
       <c r="E14">
-        <v>0.03535830723222766</v>
+        <v>0.03533300522840932</v>
       </c>
       <c r="F14">
-        <v>2.167273996841914</v>
+        <v>2.16401453777631</v>
       </c>
       <c r="G14">
-        <v>1.656193771161256</v>
+        <v>0.579496103308287</v>
       </c>
       <c r="H14">
-        <v>1.628175406857665</v>
+        <v>1.076775088538142</v>
       </c>
       <c r="I14">
-        <v>0.02739128712147298</v>
+        <v>1.625649364793716</v>
       </c>
       <c r="J14">
-        <v>13.58481580567684</v>
+        <v>0.02741163054878015</v>
       </c>
       <c r="K14">
-        <v>0.03990889826267896</v>
+        <v>13.58328340932937</v>
       </c>
       <c r="L14">
-        <v>8.330063974312338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.03991263954076629</v>
+      </c>
+      <c r="M14">
+        <v>8.329333095334846</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01795536487968974</v>
+        <v>0.01798603980735791</v>
       </c>
       <c r="D15">
-        <v>0.01925843993489673</v>
+        <v>0.01920410241222248</v>
       </c>
       <c r="E15">
-        <v>0.03501900464766372</v>
+        <v>0.03499375017932138</v>
       </c>
       <c r="F15">
-        <v>2.130000607110347</v>
+        <v>2.126803724671973</v>
       </c>
       <c r="G15">
-        <v>1.626593677233046</v>
+        <v>0.568959998007756</v>
       </c>
       <c r="H15">
-        <v>1.599841066743608</v>
+        <v>1.057796867859466</v>
       </c>
       <c r="I15">
-        <v>0.02697993232186313</v>
+        <v>1.597363701134796</v>
       </c>
       <c r="J15">
-        <v>13.4178931118058</v>
+        <v>0.02700003357598391</v>
       </c>
       <c r="K15">
-        <v>0.03944703227368329</v>
+        <v>13.41640717249635</v>
       </c>
       <c r="L15">
-        <v>8.227168259109078</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.03945063679361027</v>
+      </c>
+      <c r="M15">
+        <v>8.226464475374485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01630797065379852</v>
+        <v>0.01633894076455533</v>
       </c>
       <c r="D16">
-        <v>0.01567543043240183</v>
+        <v>0.01563237118188088</v>
       </c>
       <c r="E16">
-        <v>0.03315117664837963</v>
+        <v>0.0331263407841611</v>
       </c>
       <c r="F16">
-        <v>1.925983747477687</v>
+        <v>1.923124691216003</v>
       </c>
       <c r="G16">
-        <v>1.464970751592062</v>
+        <v>0.5112715272397992</v>
       </c>
       <c r="H16">
-        <v>1.444851467409833</v>
+        <v>0.9543290592923768</v>
       </c>
       <c r="I16">
-        <v>0.02478430338777038</v>
+        <v>1.442636851569972</v>
       </c>
       <c r="J16">
-        <v>12.47364359929531</v>
+        <v>0.02480298882089471</v>
       </c>
       <c r="K16">
-        <v>0.03689967707766684</v>
+        <v>12.47240341345744</v>
       </c>
       <c r="L16">
-        <v>7.645422287637587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.03690254374096114</v>
+      </c>
+      <c r="M16">
+        <v>7.644860609190914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01534684295986821</v>
+        <v>0.01537779923580729</v>
       </c>
       <c r="D17">
-        <v>0.01369970353359973</v>
+        <v>0.01366276891001972</v>
       </c>
       <c r="E17">
-        <v>0.03206796764091102</v>
+        <v>0.03204351096403535</v>
       </c>
       <c r="F17">
-        <v>1.808553953733721</v>
+        <v>1.805885928203082</v>
       </c>
       <c r="G17">
-        <v>1.372271782296949</v>
+        <v>0.4780474992831927</v>
       </c>
       <c r="H17">
-        <v>1.35572353249168</v>
+        <v>0.895120834221899</v>
       </c>
       <c r="I17">
-        <v>0.02356825299843734</v>
+        <v>1.353657463113635</v>
       </c>
       <c r="J17">
-        <v>11.90421785047033</v>
+        <v>0.02358605463262187</v>
       </c>
       <c r="K17">
-        <v>0.03541759549519519</v>
+        <v>11.9031125509884</v>
       </c>
       <c r="L17">
-        <v>7.294861314278364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.03542005105628832</v>
+      </c>
+      <c r="M17">
+        <v>7.29437659935536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0148100028287601</v>
+        <v>0.01484088872834022</v>
       </c>
       <c r="D18">
-        <v>0.0126356313280942</v>
+        <v>0.01260196525575141</v>
       </c>
       <c r="E18">
-        <v>0.03146588616819024</v>
+        <v>0.03144168951802762</v>
       </c>
       <c r="F18">
-        <v>1.743554757574245</v>
+        <v>1.740991460228955</v>
       </c>
       <c r="G18">
-        <v>1.321075802697024</v>
+        <v>0.4596494618319724</v>
       </c>
       <c r="H18">
-        <v>1.3064182108767</v>
+        <v>0.8624700365992908</v>
       </c>
       <c r="I18">
-        <v>0.02291208712775727</v>
+        <v>1.304433567391499</v>
       </c>
       <c r="J18">
-        <v>11.57989820983624</v>
+        <v>0.02292937795578176</v>
       </c>
       <c r="K18">
-        <v>0.03459185181123381</v>
+        <v>11.57886549224511</v>
       </c>
       <c r="L18">
-        <v>7.095284302403911</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.03459408620583737</v>
+      </c>
+      <c r="M18">
+        <v>7.094840635685159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01463079113571197</v>
+        <v>0.01466164326293296</v>
       </c>
       <c r="D19">
-        <v>0.01228696596287504</v>
+        <v>0.0122543660905825</v>
       </c>
       <c r="E19">
-        <v>0.03126544951527421</v>
+        <v>0.03124134783135979</v>
       </c>
       <c r="F19">
-        <v>1.721958253180873</v>
+        <v>1.719429598960957</v>
       </c>
       <c r="G19">
-        <v>1.304084624058049</v>
+        <v>0.4535350949322492</v>
       </c>
       <c r="H19">
-        <v>1.290040839418026</v>
+        <v>0.8516420477938453</v>
       </c>
       <c r="I19">
-        <v>0.02269693414760887</v>
+        <v>1.288083128937572</v>
       </c>
       <c r="J19">
-        <v>11.47060219752953</v>
+        <v>0.02271405184075448</v>
       </c>
       <c r="K19">
-        <v>0.03431660237836276</v>
+        <v>11.46959326564877</v>
       </c>
       <c r="L19">
-        <v>7.028040907843149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.0343187645000782</v>
+      </c>
+      <c r="M19">
+        <v>7.027610631119359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01544745684678617</v>
+        <v>0.01547842124568888</v>
       </c>
       <c r="D20">
-        <v>0.01390234182198036</v>
+        <v>0.01386478230560595</v>
       </c>
       <c r="E20">
-        <v>0.03218106480114713</v>
+        <v>0.03215656335336092</v>
       </c>
       <c r="F20">
-        <v>1.820785079006157</v>
+        <v>1.818097267377539</v>
       </c>
       <c r="G20">
-        <v>1.381914881346134</v>
+        <v>0.4815088320660408</v>
       </c>
       <c r="H20">
-        <v>1.365003806959791</v>
+        <v>0.9012748754562239</v>
       </c>
       <c r="I20">
-        <v>0.0236931230655415</v>
+        <v>1.36292235300013</v>
       </c>
       <c r="J20">
-        <v>11.96449427327428</v>
+        <v>0.02371101909718831</v>
       </c>
       <c r="K20">
-        <v>0.03557253937239579</v>
+        <v>11.96337514960891</v>
       </c>
       <c r="L20">
-        <v>7.331960656316625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.03557503711097887</v>
+      </c>
+      <c r="M20">
+        <v>7.33146809262999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01839799660225339</v>
+        <v>0.0184285265208004</v>
       </c>
       <c r="D21">
-        <v>0.02026074215139584</v>
+        <v>0.02020321234155986</v>
       </c>
       <c r="E21">
-        <v>0.03552245302713075</v>
+        <v>0.03549713093298834</v>
       </c>
       <c r="F21">
-        <v>2.185329669813342</v>
+        <v>2.182039799479128</v>
       </c>
       <c r="G21">
-        <v>1.670539948689481</v>
+        <v>0.5845996115462526</v>
       </c>
       <c r="H21">
-        <v>1.641902804556878</v>
+        <v>1.085976149098201</v>
       </c>
       <c r="I21">
-        <v>0.02759160723025644</v>
+        <v>1.639353105843398</v>
       </c>
       <c r="J21">
-        <v>13.66509514425525</v>
+        <v>0.02761206612597356</v>
       </c>
       <c r="K21">
-        <v>0.04013225701357648</v>
+        <v>13.6635400705741</v>
       </c>
       <c r="L21">
-        <v>8.379556332651532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.04013606466419972</v>
+      </c>
+      <c r="M21">
+        <v>8.378812203621607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02052066664421659</v>
+        <v>0.02055013486215529</v>
       </c>
       <c r="D22">
-        <v>0.02528108453560174</v>
+        <v>0.02520733204451497</v>
       </c>
       <c r="E22">
-        <v>0.03794072315939623</v>
+        <v>0.03791530583738556</v>
       </c>
       <c r="F22">
-        <v>2.453155727466253</v>
+        <v>2.449406913192874</v>
       </c>
       <c r="G22">
-        <v>1.883883207469793</v>
+        <v>0.6602839433086274</v>
       </c>
       <c r="H22">
-        <v>1.845663692930259</v>
+        <v>1.223012737972965</v>
       </c>
       <c r="I22">
-        <v>0.03063749844717023</v>
+        <v>1.8427569412042</v>
       </c>
       <c r="J22">
-        <v>14.81470826941325</v>
+        <v>0.03065952734186972</v>
       </c>
       <c r="K22">
-        <v>0.04341811280325913</v>
+        <v>14.81280352567836</v>
       </c>
       <c r="L22">
-        <v>9.088722811865068</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.04342290696665074</v>
+      </c>
+      <c r="M22">
+        <v>9.087772632788727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01936700353105536</v>
+        <v>0.01939712270761618</v>
       </c>
       <c r="D23">
-        <v>0.02250989955704563</v>
+        <v>0.02244514927437136</v>
       </c>
       <c r="E23">
-        <v>0.03662592062103975</v>
+        <v>0.0366005102377116</v>
       </c>
       <c r="F23">
-        <v>2.307114286398246</v>
+        <v>2.303617579088666</v>
       </c>
       <c r="G23">
-        <v>1.767428096879613</v>
+        <v>0.6190180365213394</v>
       </c>
       <c r="H23">
-        <v>1.734524841586918</v>
+        <v>1.148164120079628</v>
       </c>
       <c r="I23">
-        <v>0.02895992612812748</v>
+        <v>1.731814235867375</v>
       </c>
       <c r="J23">
-        <v>14.19710332223877</v>
+        <v>0.02898113226052246</v>
       </c>
       <c r="K23">
-        <v>0.04163259379327577</v>
+        <v>14.19539233955652</v>
       </c>
       <c r="L23">
-        <v>8.707638694292768</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.0416368502970208</v>
+      </c>
+      <c r="M23">
+        <v>8.706803075164601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01540192084796743</v>
+        <v>0.01543288176685209</v>
       </c>
       <c r="D24">
-        <v>0.0138105076155306</v>
+        <v>0.01377323139102282</v>
       </c>
       <c r="E24">
-        <v>0.03212986967909615</v>
+        <v>0.03210538834206211</v>
       </c>
       <c r="F24">
-        <v>1.815247630211275</v>
+        <v>1.812568779566689</v>
       </c>
       <c r="G24">
-        <v>1.377548760195893</v>
+        <v>0.4799417939572379</v>
       </c>
       <c r="H24">
-        <v>1.360802219923002</v>
+        <v>0.8984883459792599</v>
       </c>
       <c r="I24">
-        <v>0.0236365366381186</v>
+        <v>1.358727733567548</v>
       </c>
       <c r="J24">
-        <v>11.93723389794542</v>
+        <v>0.02365439000037384</v>
       </c>
       <c r="K24">
-        <v>0.03550240793614989</v>
+        <v>11.93612103946683</v>
       </c>
       <c r="L24">
-        <v>7.315181985348744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.03550488655901418</v>
+      </c>
+      <c r="M24">
+        <v>7.314692979927969</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01172087331742588</v>
+        <v>0.01175040688296747</v>
       </c>
       <c r="D25">
-        <v>0.007128460569432171</v>
+        <v>0.00711131260394493</v>
       </c>
       <c r="E25">
-        <v>0.02806565856114496</v>
+        <v>0.02804375353779243</v>
       </c>
       <c r="F25">
-        <v>1.379824799937836</v>
+        <v>1.377835660523871</v>
       </c>
       <c r="G25">
-        <v>1.03637364510692</v>
+        <v>0.3565326868903327</v>
       </c>
       <c r="H25">
-        <v>1.03094734636295</v>
+        <v>0.6817041928385805</v>
       </c>
       <c r="I25">
-        <v>0.01951450133143418</v>
+        <v>1.029408922086702</v>
       </c>
       <c r="J25">
-        <v>9.618807839289389</v>
+        <v>0.01952864548831812</v>
       </c>
       <c r="K25">
-        <v>0.02988988835082118</v>
+        <v>9.61815325102387</v>
       </c>
       <c r="L25">
-        <v>5.889840826375604</v>
+        <v>0.02989102290927548</v>
+      </c>
+      <c r="M25">
+        <v>5.88960537224159</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00935782100697935</v>
+        <v>0.1177019771952388</v>
       </c>
       <c r="D2">
-        <v>0.003708543610876469</v>
+        <v>0.04713050559004728</v>
       </c>
       <c r="E2">
-        <v>0.02554268111323488</v>
+        <v>0.02144149051567301</v>
       </c>
       <c r="F2">
-        <v>1.113164518065062</v>
+        <v>4.185157223143847</v>
       </c>
       <c r="G2">
-        <v>0.2810710129261196</v>
+        <v>0.0008044654109151757</v>
       </c>
       <c r="H2">
-        <v>0.5527927944030182</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8295723098639556</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01745637618658336</v>
+        <v>0.06716162975993711</v>
       </c>
       <c r="K2">
-        <v>7.976031734126423</v>
+        <v>4.463566170482721</v>
       </c>
       <c r="L2">
-        <v>0.02635620556656626</v>
+        <v>0.05128184115001488</v>
       </c>
       <c r="M2">
-        <v>4.882037937769496</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>3.039469221647082</v>
+      </c>
+      <c r="N2">
+        <v>1.006530538206093</v>
+      </c>
+      <c r="O2">
+        <v>3.320315000897367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.007867155955707972</v>
+        <v>0.1114631965171924</v>
       </c>
       <c r="D3">
-        <v>0.002050226090181351</v>
+        <v>0.03944738961760663</v>
       </c>
       <c r="E3">
-        <v>0.02408299957994942</v>
+        <v>0.02182411754866709</v>
       </c>
       <c r="F3">
-        <v>0.9587688581051452</v>
+        <v>3.821425734815477</v>
       </c>
       <c r="G3">
-        <v>0.2368067403000254</v>
+        <v>0.0008197254529582081</v>
       </c>
       <c r="H3">
-        <v>0.4792982221882198</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7133392252597304</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01649807352337795</v>
+        <v>0.06931394948130887</v>
       </c>
       <c r="K3">
-        <v>6.889364966414405</v>
+        <v>3.883836711214599</v>
       </c>
       <c r="L3">
-        <v>0.0242374870834432</v>
+        <v>0.04607904373516192</v>
       </c>
       <c r="M3">
-        <v>4.2162543293406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.660759136465884</v>
+      </c>
+      <c r="N3">
+        <v>1.025162547594107</v>
+      </c>
+      <c r="O3">
+        <v>3.019219517743991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.00699912457647045</v>
+        <v>0.1079210586625834</v>
       </c>
       <c r="D4">
-        <v>0.001277678636195212</v>
+        <v>0.03499551649751709</v>
       </c>
       <c r="E4">
-        <v>0.02328435524153605</v>
+        <v>0.02207093535522342</v>
       </c>
       <c r="F4">
-        <v>0.8737823748799372</v>
+        <v>3.613634836878845</v>
       </c>
       <c r="G4">
-        <v>0.2123078327243348</v>
+        <v>0.0008292417306255493</v>
       </c>
       <c r="H4">
-        <v>0.4396360590530364</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6495100869740824</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01608913552091451</v>
+        <v>0.07082649660843643</v>
       </c>
       <c r="K4">
-        <v>6.231373525934998</v>
+        <v>3.536450088753355</v>
       </c>
       <c r="L4">
-        <v>0.02304791017129482</v>
+        <v>0.04294920289290616</v>
       </c>
       <c r="M4">
-        <v>3.813513130471023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.434127340033712</v>
+      </c>
+      <c r="N4">
+        <v>1.038272486776279</v>
+      </c>
+      <c r="O4">
+        <v>2.847068401972507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.006655115342159235</v>
+        <v>0.1065427616053967</v>
       </c>
       <c r="D5">
-        <v>0.001015346096943093</v>
+        <v>0.03323714276680079</v>
       </c>
       <c r="E5">
-        <v>0.02298108593012138</v>
+        <v>0.02217445626973491</v>
       </c>
       <c r="F5">
-        <v>0.8412975397544784</v>
+        <v>3.532384534057655</v>
       </c>
       <c r="G5">
-        <v>0.2029072717235465</v>
+        <v>0.0008331629278363229</v>
       </c>
       <c r="H5">
-        <v>0.4246716748637951</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6251484649186807</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01596246476601237</v>
+        <v>0.07148750468845932</v>
       </c>
       <c r="K5">
-        <v>5.965086298468947</v>
+        <v>3.396704467034226</v>
       </c>
       <c r="L5">
-        <v>0.02258793378559609</v>
+        <v>0.0416865084294642</v>
       </c>
       <c r="M5">
-        <v>3.650615042328809</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.343032290468528</v>
+      </c>
+      <c r="N5">
+        <v>1.044015854116168</v>
+      </c>
+      <c r="O5">
+        <v>2.77971399002378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.006598522870802981</v>
+        <v>0.1063176336160652</v>
       </c>
       <c r="D6">
-        <v>0.0009747095151810825</v>
+        <v>0.03294824444950706</v>
       </c>
       <c r="E6">
-        <v>0.02293200499692638</v>
+        <v>0.02219182225916494</v>
       </c>
       <c r="F6">
-        <v>0.8360246134270568</v>
+        <v>3.519087038689065</v>
       </c>
       <c r="G6">
-        <v>0.2013790904211419</v>
+        <v>0.0008338168221595499</v>
       </c>
       <c r="H6">
-        <v>0.4222545180667154</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6211962475839101</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.01594370806014922</v>
+        <v>0.07159986936389373</v>
       </c>
       <c r="K6">
-        <v>5.920968619659504</v>
+        <v>3.373600555893432</v>
       </c>
       <c r="L6">
-        <v>0.02251296638288736</v>
+        <v>0.04147751463965932</v>
       </c>
       <c r="M6">
-        <v>3.623631727313537</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.327976106632008</v>
+      </c>
+      <c r="N6">
+        <v>1.044993242409092</v>
+      </c>
+      <c r="O6">
+        <v>2.768688164164288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.006994448410303278</v>
+        <v>0.1079022157296663</v>
       </c>
       <c r="D7">
-        <v>0.00127393951936261</v>
+        <v>0.0349715899076628</v>
       </c>
       <c r="E7">
-        <v>0.02328017831543328</v>
+        <v>0.02207231962280876</v>
       </c>
       <c r="F7">
-        <v>0.8733359689533273</v>
+        <v>3.612525784490344</v>
       </c>
       <c r="G7">
-        <v>0.2121788046311224</v>
+        <v>0.0008292944303855067</v>
       </c>
       <c r="H7">
-        <v>0.4394296078899984</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6491751621084134</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01608727164062707</v>
+        <v>0.07083523464280717</v>
       </c>
       <c r="K7">
-        <v>6.227775371544055</v>
+        <v>3.534558485628963</v>
       </c>
       <c r="L7">
-        <v>0.02304161033859486</v>
+        <v>0.04293212647000999</v>
       </c>
       <c r="M7">
-        <v>3.811311649111616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.432893975573762</v>
+      </c>
+      <c r="N7">
+        <v>1.038348343717743</v>
+      </c>
+      <c r="O7">
+        <v>2.846149196018558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.008832627331585741</v>
+        <v>0.1154861922451289</v>
       </c>
       <c r="D8">
-        <v>0.003079730836164418</v>
+        <v>0.04441910833256202</v>
       </c>
       <c r="E8">
-        <v>0.02501760286804533</v>
+        <v>0.02157092172902797</v>
       </c>
       <c r="F8">
-        <v>1.057685866534356</v>
+        <v>4.056205182294264</v>
       </c>
       <c r="G8">
-        <v>0.265193908733103</v>
+        <v>0.0008097007799030553</v>
       </c>
       <c r="H8">
-        <v>0.5262044591652284</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7877715523784801</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.01708537103883856</v>
+        <v>0.06786190843397932</v>
       </c>
       <c r="K8">
-        <v>7.599130410758448</v>
+        <v>4.261678203329751</v>
       </c>
       <c r="L8">
-        <v>0.02560049174440771</v>
+        <v>0.04947219852437357</v>
       </c>
       <c r="M8">
-        <v>4.651026023249472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.907521037332245</v>
+      </c>
+      <c r="N8">
+        <v>1.012596150065079</v>
+      </c>
+      <c r="O8">
+        <v>3.213597441558491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01293062012454982</v>
+        <v>0.1330446224702087</v>
       </c>
       <c r="D9">
-        <v>0.00907654177583328</v>
+        <v>0.0656518299375719</v>
       </c>
       <c r="E9">
-        <v>0.02932511554622508</v>
+        <v>0.02068485944117504</v>
       </c>
       <c r="F9">
-        <v>1.514178973731489</v>
+        <v>5.075560957913325</v>
       </c>
       <c r="G9">
-        <v>0.3952864514085093</v>
+        <v>0.0007720975657561772</v>
       </c>
       <c r="H9">
-        <v>0.7491382620677456</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.132568996679552</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02074416506438581</v>
+        <v>0.06372937439339665</v>
       </c>
       <c r="K9">
-        <v>10.3867654419897</v>
+        <v>5.773815755413807</v>
       </c>
       <c r="L9">
-        <v>0.03167413227828852</v>
+        <v>0.06300270187147561</v>
       </c>
       <c r="M9">
-        <v>6.361787104677887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.897156645804571</v>
+      </c>
+      <c r="N9">
+        <v>0.9763383464136126</v>
+      </c>
+      <c r="O9">
+        <v>4.056726560374955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01645092280660521</v>
+        <v>0.1482668489077668</v>
       </c>
       <c r="D10">
-        <v>0.01586752953436599</v>
+        <v>0.08395342146085483</v>
       </c>
       <c r="E10">
-        <v>0.03325288854233399</v>
+        <v>0.02009888596377862</v>
       </c>
       <c r="F10">
-        <v>1.936866956729901</v>
+        <v>5.960520093917978</v>
       </c>
       <c r="G10">
-        <v>0.5151649086693908</v>
+        <v>0.0007443787278694659</v>
       </c>
       <c r="H10">
-        <v>0.9612867733551269</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.453070771859799</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02494804875403389</v>
+        <v>0.0620435350552313</v>
       </c>
       <c r="K10">
-        <v>12.53782530967553</v>
+        <v>6.969066023168949</v>
       </c>
       <c r="L10">
-        <v>0.03707553160844412</v>
+        <v>0.07371032657685106</v>
       </c>
       <c r="M10">
-        <v>7.685150040220435</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.681129234821881</v>
+      </c>
+      <c r="N10">
+        <v>0.9600331952244119</v>
+      </c>
+      <c r="O10">
+        <v>4.788364719621711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01822700913216835</v>
+        <v>0.1559005691609627</v>
       </c>
       <c r="D11">
-        <v>0.01974620026041185</v>
+        <v>0.09318915970469277</v>
       </c>
       <c r="E11">
-        <v>0.03526781526186973</v>
+        <v>0.01984850453024156</v>
       </c>
       <c r="F11">
-        <v>2.156859213086022</v>
+        <v>6.406215264283361</v>
       </c>
       <c r="G11">
-        <v>0.5774701609564517</v>
+        <v>0.0007315715511282709</v>
       </c>
       <c r="H11">
-        <v>1.073124034560905</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.620209857522454</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02733225468449874</v>
+        <v>0.06166453178118658</v>
       </c>
       <c r="K11">
-        <v>13.55132052771819</v>
+        <v>7.540664589498249</v>
       </c>
       <c r="L11">
-        <v>0.03982388128371461</v>
+        <v>0.07885092360518797</v>
       </c>
       <c r="M11">
-        <v>8.309628708808191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.056445786661897</v>
+      </c>
+      <c r="N11">
+        <v>0.9553277867371293</v>
+      </c>
+      <c r="O11">
+        <v>5.156868276979935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01893192501866992</v>
+        <v>0.1589159754318246</v>
       </c>
       <c r="D12">
-        <v>0.0213591630765273</v>
+        <v>0.09685423174607166</v>
       </c>
       <c r="E12">
-        <v>0.03607037367649291</v>
+        <v>0.0197562855349549</v>
       </c>
       <c r="F12">
-        <v>2.24511672357221</v>
+        <v>6.582710436084341</v>
       </c>
       <c r="G12">
-        <v>0.6024573604743608</v>
+        <v>0.0007266735904281906</v>
       </c>
       <c r="H12">
-        <v>1.118213138883021</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.687317025050902</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02831871211080639</v>
+        <v>0.06158740623041936</v>
       </c>
       <c r="K12">
-        <v>13.94149392483249</v>
+        <v>7.762190516982997</v>
       </c>
       <c r="L12">
-        <v>0.04091602893421786</v>
+        <v>0.08084798547501748</v>
       </c>
       <c r="M12">
-        <v>8.550203780054829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.201961070023145</v>
+      </c>
+      <c r="N12">
+        <v>0.9539856603240224</v>
+      </c>
+      <c r="O12">
+        <v>5.302809597614782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01877853265752449</v>
+        <v>0.1582605797920564</v>
       </c>
       <c r="D13">
-        <v>0.02100478728400601</v>
+        <v>0.09605673098263168</v>
       </c>
       <c r="E13">
-        <v>0.03589564457248784</v>
+        <v>0.0197760257053361</v>
       </c>
       <c r="F13">
-        <v>2.22587053251587</v>
+        <v>6.544326909832961</v>
       </c>
       <c r="G13">
-        <v>0.597008756494219</v>
+        <v>0.0007277309691594093</v>
       </c>
       <c r="H13">
-        <v>1.108370544738392</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.672680594075075</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02810224683647355</v>
+        <v>0.06160086287163224</v>
       </c>
       <c r="K13">
-        <v>13.85715392759374</v>
+        <v>7.71423508988758</v>
       </c>
       <c r="L13">
-        <v>0.04067835140475928</v>
+        <v>0.08041541723644485</v>
       </c>
       <c r="M13">
-        <v>8.498193228218156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.170457595597981</v>
+      </c>
+      <c r="N13">
+        <v>0.9542542424464528</v>
+      </c>
+      <c r="O13">
+        <v>5.271070006157458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01828430592574648</v>
+        <v>0.1561459975071244</v>
       </c>
       <c r="D14">
-        <v>0.01987580325182225</v>
+        <v>0.09348707707914627</v>
       </c>
       <c r="E14">
-        <v>0.03533300522840932</v>
+        <v>0.01984086369528548</v>
       </c>
       <c r="F14">
-        <v>2.16401453777631</v>
+        <v>6.420570696458839</v>
       </c>
       <c r="G14">
-        <v>0.579496103308287</v>
+        <v>0.0007311696905954991</v>
       </c>
       <c r="H14">
-        <v>1.076775088538142</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.625649364793716</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02741163054878015</v>
+        <v>0.0616567847209879</v>
       </c>
       <c r="K14">
-        <v>13.58328340932937</v>
+        <v>7.558780808890333</v>
       </c>
       <c r="L14">
-        <v>0.03991263954076629</v>
+        <v>0.07901413356691478</v>
       </c>
       <c r="M14">
-        <v>8.329333095334846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.068344723430783</v>
+      </c>
+      <c r="N14">
+        <v>0.9552082321400377</v>
+      </c>
+      <c r="O14">
+        <v>5.168738235006856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01798603980735791</v>
+        <v>0.154867770207602</v>
       </c>
       <c r="D15">
-        <v>0.01920410241222248</v>
+        <v>0.09193620340595743</v>
       </c>
       <c r="E15">
-        <v>0.03499375017932138</v>
+        <v>0.01988092652474538</v>
       </c>
       <c r="F15">
-        <v>2.126803724671973</v>
+        <v>6.345824030342527</v>
       </c>
       <c r="G15">
-        <v>0.568959998007756</v>
+        <v>0.0007332690576014461</v>
       </c>
       <c r="H15">
-        <v>1.057796867859466</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.597363701134796</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02700003357598391</v>
+        <v>0.06170004936403473</v>
       </c>
       <c r="K15">
-        <v>13.41640717249635</v>
+        <v>7.464257975207801</v>
       </c>
       <c r="L15">
-        <v>0.03945063679361027</v>
+        <v>0.07816277715330244</v>
       </c>
       <c r="M15">
-        <v>8.226464475374485</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.006263449983521</v>
+      </c>
+      <c r="N15">
+        <v>0.9558515055796164</v>
+      </c>
+      <c r="O15">
+        <v>5.106933696193806</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01633894076455533</v>
+        <v>0.147784045415861</v>
       </c>
       <c r="D16">
-        <v>0.01563237118188088</v>
+        <v>0.08337107597647986</v>
       </c>
       <c r="E16">
-        <v>0.0331263407841611</v>
+        <v>0.02011559526624196</v>
       </c>
       <c r="F16">
-        <v>1.923124691216003</v>
+        <v>5.932381403260877</v>
       </c>
       <c r="G16">
-        <v>0.5112715272397992</v>
+        <v>0.0007452101586835125</v>
       </c>
       <c r="H16">
-        <v>0.9543290592923768</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.442636851569972</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02480298882089471</v>
+        <v>0.06207695402478208</v>
       </c>
       <c r="K16">
-        <v>12.47240341345744</v>
+        <v>6.932356352203669</v>
       </c>
       <c r="L16">
-        <v>0.03690254374096114</v>
+        <v>0.07338072626171055</v>
       </c>
       <c r="M16">
-        <v>7.644860609190914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.657033403088874</v>
+      </c>
+      <c r="N16">
+        <v>0.9603992868115512</v>
+      </c>
+      <c r="O16">
+        <v>4.765100772233382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01537779923580729</v>
+        <v>0.1436344184713505</v>
       </c>
       <c r="D17">
-        <v>0.01366276891001972</v>
+        <v>0.07837289537500425</v>
       </c>
       <c r="E17">
-        <v>0.03204351096403535</v>
+        <v>0.02026386242645939</v>
       </c>
       <c r="F17">
-        <v>1.805885928203082</v>
+        <v>5.690752586560222</v>
       </c>
       <c r="G17">
-        <v>0.4780474992831927</v>
+        <v>0.0007524725145899435</v>
       </c>
       <c r="H17">
-        <v>0.895120834221899</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.353657463113635</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02358605463262187</v>
+        <v>0.0624142390713871</v>
       </c>
       <c r="K17">
-        <v>11.9031125509884</v>
+        <v>6.613864607441371</v>
       </c>
       <c r="L17">
-        <v>0.03542005105628832</v>
+        <v>0.07052348321241197</v>
       </c>
       <c r="M17">
-        <v>7.29437659935536</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.448022744330856</v>
+      </c>
+      <c r="N17">
+        <v>0.9639159562767787</v>
+      </c>
+      <c r="O17">
+        <v>4.565335502204562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01484088872834022</v>
+        <v>0.1413127523665878</v>
       </c>
       <c r="D18">
-        <v>0.01260196525575141</v>
+        <v>0.07558104715759129</v>
       </c>
       <c r="E18">
-        <v>0.03144168951802762</v>
+        <v>0.02035064406145637</v>
       </c>
       <c r="F18">
-        <v>1.740991460228955</v>
+        <v>5.555722287323107</v>
       </c>
       <c r="G18">
-        <v>0.4596494618319724</v>
+        <v>0.0007566324536518231</v>
       </c>
       <c r="H18">
-        <v>0.8624700365992908</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.304433567391499</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02292937795578176</v>
+        <v>0.06264397425260526</v>
       </c>
       <c r="K18">
-        <v>11.57886549224511</v>
+        <v>6.433222462629232</v>
       </c>
       <c r="L18">
-        <v>0.03459408620583737</v>
+        <v>0.06890459794025006</v>
       </c>
       <c r="M18">
-        <v>7.094840635685159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.329512605771086</v>
+      </c>
+      <c r="N18">
+        <v>0.9661903890577008</v>
+      </c>
+      <c r="O18">
+        <v>4.453701601101415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01466164326293296</v>
+        <v>0.1405372549500044</v>
       </c>
       <c r="D19">
-        <v>0.0122543660905825</v>
+        <v>0.07464906510525537</v>
       </c>
       <c r="E19">
-        <v>0.03124134783135979</v>
+        <v>0.02038027822680211</v>
       </c>
       <c r="F19">
-        <v>1.719429598960957</v>
+        <v>5.510641470096004</v>
       </c>
       <c r="G19">
-        <v>0.4535350949322492</v>
+        <v>0.0007580385073713206</v>
       </c>
       <c r="H19">
-        <v>0.8516420477938453</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.288083128937572</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02271405184075448</v>
+        <v>0.06272761676425276</v>
       </c>
       <c r="K19">
-        <v>11.46959326564877</v>
+        <v>6.372469334993127</v>
       </c>
       <c r="L19">
-        <v>0.0343187645000782</v>
+        <v>0.06836037866415978</v>
       </c>
       <c r="M19">
-        <v>7.027610631119359</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.289661781493692</v>
+      </c>
+      <c r="N19">
+        <v>0.9670023611470242</v>
+      </c>
+      <c r="O19">
+        <v>4.416431857051293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01547842124568888</v>
+        <v>0.144069270727897</v>
       </c>
       <c r="D20">
-        <v>0.01386478230560595</v>
+        <v>0.07889613856262656</v>
       </c>
       <c r="E20">
-        <v>0.03215656335336092</v>
+        <v>0.02024792202389825</v>
       </c>
       <c r="F20">
-        <v>1.818097267377539</v>
+        <v>5.716056026262123</v>
       </c>
       <c r="G20">
-        <v>0.4815088320660408</v>
+        <v>0.000751701328670652</v>
       </c>
       <c r="H20">
-        <v>0.9012748754562239</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.36292235300013</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02371101909718831</v>
+        <v>0.06237456765435923</v>
       </c>
       <c r="K20">
-        <v>11.96337514960891</v>
+        <v>6.647498276232625</v>
       </c>
       <c r="L20">
-        <v>0.03557503711097887</v>
+        <v>0.07082502904252408</v>
       </c>
       <c r="M20">
-        <v>7.33146809262999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.470091073618562</v>
+      </c>
+      <c r="N20">
+        <v>0.9635152202215949</v>
+      </c>
+      <c r="O20">
+        <v>4.586254743208542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0184285265208004</v>
+        <v>0.1567635060118704</v>
       </c>
       <c r="D21">
-        <v>0.02020321234155986</v>
+        <v>0.09423694833101592</v>
       </c>
       <c r="E21">
-        <v>0.03549713093298834</v>
+        <v>0.019821746112343</v>
       </c>
       <c r="F21">
-        <v>2.182039799479128</v>
+        <v>6.456697165172187</v>
       </c>
       <c r="G21">
-        <v>0.5845996115462526</v>
+        <v>0.0007301611464187768</v>
       </c>
       <c r="H21">
-        <v>1.085976149098201</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.639353105843398</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02761206612597356</v>
+        <v>0.0616384580252145</v>
       </c>
       <c r="K21">
-        <v>13.6635400705741</v>
+        <v>7.604293825079964</v>
       </c>
       <c r="L21">
-        <v>0.04013606466419972</v>
+        <v>0.07942424617445454</v>
       </c>
       <c r="M21">
-        <v>8.378812203621607</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.098239131762881</v>
+      </c>
+      <c r="N21">
+        <v>0.9549156368937872</v>
+      </c>
+      <c r="O21">
+        <v>5.198610090162134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02055013486215529</v>
+        <v>0.1658021196112287</v>
       </c>
       <c r="D22">
-        <v>0.02520733204451497</v>
+        <v>0.1052662720563333</v>
       </c>
       <c r="E22">
-        <v>0.03791530583738556</v>
+        <v>0.01955855232970216</v>
       </c>
       <c r="F22">
-        <v>2.449406913192874</v>
+        <v>6.986790148486193</v>
       </c>
       <c r="G22">
-        <v>0.6602839433086274</v>
+        <v>0.0007157891586304649</v>
       </c>
       <c r="H22">
-        <v>1.223012737972965</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1.8427569412042</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.03065952734186972</v>
+        <v>0.06155162778085455</v>
       </c>
       <c r="K22">
-        <v>14.81280352567836</v>
+        <v>8.259921158317582</v>
       </c>
       <c r="L22">
-        <v>0.04342290696665074</v>
+        <v>0.08534639392539134</v>
       </c>
       <c r="M22">
-        <v>9.087772632788727</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.529018607663318</v>
+      </c>
+      <c r="N22">
+        <v>0.9518901178018666</v>
+      </c>
+      <c r="O22">
+        <v>5.636976604060607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01939712270761618</v>
+        <v>0.1609008972000368</v>
       </c>
       <c r="D23">
-        <v>0.02244514927437136</v>
+        <v>0.09927271942956395</v>
       </c>
       <c r="E23">
-        <v>0.0366005102377116</v>
+        <v>0.01969750164969508</v>
       </c>
       <c r="F23">
-        <v>2.303617579088666</v>
+        <v>6.699036242990985</v>
       </c>
       <c r="G23">
-        <v>0.6190180365213394</v>
+        <v>0.0007234947304533001</v>
       </c>
       <c r="H23">
-        <v>1.148164120079628</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.731814235867375</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02898113226052246</v>
+        <v>0.06155756821166491</v>
       </c>
       <c r="K23">
-        <v>14.19539233955652</v>
+        <v>7.906792217486412</v>
       </c>
       <c r="L23">
-        <v>0.0416368502970208</v>
+        <v>0.08215319058796666</v>
       </c>
       <c r="M23">
-        <v>8.706803075164601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.296963261238119</v>
+      </c>
+      <c r="N23">
+        <v>0.9532479437750681</v>
+      </c>
+      <c r="O23">
+        <v>5.39900310397897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01543288176685209</v>
+        <v>0.1438724762751633</v>
       </c>
       <c r="D24">
-        <v>0.01377323139102282</v>
+        <v>0.07865932855123248</v>
       </c>
       <c r="E24">
-        <v>0.03210538834206211</v>
+        <v>0.02025512389901218</v>
       </c>
       <c r="F24">
-        <v>1.812568779566689</v>
+        <v>5.70460434795973</v>
       </c>
       <c r="G24">
-        <v>0.4799417939572379</v>
+        <v>0.0007520500280080993</v>
       </c>
       <c r="H24">
-        <v>0.8984883459792599</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.358727733567548</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02365439000037384</v>
+        <v>0.06239239227372551</v>
       </c>
       <c r="K24">
-        <v>11.93612103946683</v>
+        <v>6.632284899150022</v>
       </c>
       <c r="L24">
-        <v>0.03550488655901418</v>
+        <v>0.07068862692954525</v>
       </c>
       <c r="M24">
-        <v>7.314692979927969</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.460108884037197</v>
+      </c>
+      <c r="N24">
+        <v>0.9636956096392026</v>
+      </c>
+      <c r="O24">
+        <v>4.576787234666597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01175040688296747</v>
+        <v>0.1279446845961161</v>
       </c>
       <c r="D25">
-        <v>0.00711131260394493</v>
+        <v>0.05952337587566348</v>
       </c>
       <c r="E25">
-        <v>0.02804375353779243</v>
+        <v>0.02091367697236401</v>
       </c>
       <c r="F25">
-        <v>1.377835660523871</v>
+        <v>4.779728102593964</v>
       </c>
       <c r="G25">
-        <v>0.3565326868903327</v>
+        <v>0.0007822363074423023</v>
       </c>
       <c r="H25">
-        <v>0.6817041928385805</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.029408922086702</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.01952864548831812</v>
+        <v>0.06463691304010055</v>
       </c>
       <c r="K25">
-        <v>9.61815325102387</v>
+        <v>5.352630293954093</v>
       </c>
       <c r="L25">
-        <v>0.02989102290927548</v>
+        <v>0.05923643862912797</v>
       </c>
       <c r="M25">
-        <v>5.88960537224159</v>
+        <v>3.621223289596756</v>
+      </c>
+      <c r="N25">
+        <v>0.9844689396455095</v>
+      </c>
+      <c r="O25">
+        <v>3.812116470912201</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1177019771952388</v>
+        <v>0.1577823926570403</v>
       </c>
       <c r="D2">
-        <v>0.04713050559004728</v>
+        <v>0.1933056893873015</v>
       </c>
       <c r="E2">
-        <v>0.02144149051567301</v>
+        <v>0.06800409983744871</v>
       </c>
       <c r="F2">
-        <v>4.185157223143847</v>
+        <v>3.844115626219434</v>
       </c>
       <c r="G2">
-        <v>0.0008044654109151757</v>
+        <v>4.491676721460976</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.240665436051529</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06716162975993711</v>
+        <v>0.03123333117405203</v>
       </c>
       <c r="K2">
-        <v>4.463566170482721</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.05128184115001488</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.039469221647082</v>
+        <v>4.698078307721673</v>
       </c>
       <c r="N2">
-        <v>1.006530538206093</v>
+        <v>3.182383275740222</v>
       </c>
       <c r="O2">
-        <v>3.320315000897367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1114631965171924</v>
+        <v>0.1344779431313725</v>
       </c>
       <c r="D3">
-        <v>0.03944738961760663</v>
+        <v>0.168983609952889</v>
       </c>
       <c r="E3">
-        <v>0.02182411754866709</v>
+        <v>0.06341311824189333</v>
       </c>
       <c r="F3">
-        <v>3.821425734815477</v>
+        <v>3.333353017128871</v>
       </c>
       <c r="G3">
-        <v>0.0008197254529582081</v>
+        <v>3.857159060655817</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.951736762599126</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06931394948130887</v>
+        <v>0.03319288842841317</v>
       </c>
       <c r="K3">
-        <v>3.883836711214599</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04607904373516192</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.660759136465884</v>
+        <v>4.064589237728157</v>
       </c>
       <c r="N3">
-        <v>1.025162547594107</v>
+        <v>2.855339920828953</v>
       </c>
       <c r="O3">
-        <v>3.019219517743991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1079210586625834</v>
+        <v>0.1206331301574721</v>
       </c>
       <c r="D4">
-        <v>0.03499551649751709</v>
+        <v>0.1544218276414568</v>
       </c>
       <c r="E4">
-        <v>0.02207093535522342</v>
+        <v>0.06061905729700534</v>
       </c>
       <c r="F4">
-        <v>3.613634836878845</v>
+        <v>3.035145803069554</v>
       </c>
       <c r="G4">
-        <v>0.0008292417306255493</v>
+        <v>3.485026420252211</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.783060400964246</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07082649660843643</v>
+        <v>0.03447049209145447</v>
       </c>
       <c r="K4">
-        <v>3.536450088753355</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.04294920289290616</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2.434127340033712</v>
+        <v>3.681245311715969</v>
       </c>
       <c r="N4">
-        <v>1.038272486776279</v>
+        <v>2.655932361653328</v>
       </c>
       <c r="O4">
-        <v>2.847068401972507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1065427616053967</v>
+        <v>0.115088032088579</v>
       </c>
       <c r="D5">
-        <v>0.03323714276680079</v>
+        <v>0.1485619174583235</v>
       </c>
       <c r="E5">
-        <v>0.02217445626973491</v>
+        <v>0.05948547158255835</v>
       </c>
       <c r="F5">
-        <v>3.532384534057655</v>
+        <v>2.916921325242441</v>
       </c>
       <c r="G5">
-        <v>0.0008331629278363229</v>
+        <v>3.337089887047483</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.716194352630339</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07148750468845932</v>
+        <v>0.03500952985388217</v>
       </c>
       <c r="K5">
-        <v>3.396704467034226</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0416865084294642</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2.343032290468528</v>
+        <v>3.526171510714619</v>
       </c>
       <c r="N5">
-        <v>1.044015854116168</v>
+        <v>2.574982648419933</v>
       </c>
       <c r="O5">
-        <v>2.77971399002378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1063176336160652</v>
+        <v>0.114172587399608</v>
       </c>
       <c r="D6">
-        <v>0.03294824444950706</v>
+        <v>0.147592849664008</v>
       </c>
       <c r="E6">
-        <v>0.02219182225916494</v>
+        <v>0.05929751203630396</v>
       </c>
       <c r="F6">
-        <v>3.519087038689065</v>
+        <v>2.897474084456348</v>
       </c>
       <c r="G6">
-        <v>0.0008338168221595499</v>
+        <v>3.312731153785109</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.705195699508522</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07159986936389373</v>
+        <v>0.03510013918255162</v>
       </c>
       <c r="K6">
-        <v>3.373600555893432</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.04147751463965932</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2.327976106632008</v>
+        <v>3.500483413466213</v>
       </c>
       <c r="N6">
-        <v>1.044993242409092</v>
+        <v>2.561558652662143</v>
       </c>
       <c r="O6">
-        <v>2.768688164164288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1079022157296663</v>
+        <v>0.1205579795096838</v>
       </c>
       <c r="D7">
-        <v>0.0349715899076628</v>
+        <v>0.1543425221758952</v>
       </c>
       <c r="E7">
-        <v>0.02207231962280876</v>
+        <v>0.0606037505029704</v>
       </c>
       <c r="F7">
-        <v>3.612525784490344</v>
+        <v>3.033538737524111</v>
       </c>
       <c r="G7">
-        <v>0.0008292944303855067</v>
+        <v>3.483017102333434</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.782151440958017</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07083523464280717</v>
+        <v>0.03447768763483694</v>
       </c>
       <c r="K7">
-        <v>3.534558485628963</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.04293212647000999</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>2.432893975573762</v>
+        <v>3.679149638109251</v>
       </c>
       <c r="N7">
-        <v>1.038348343717743</v>
+        <v>2.654839439199975</v>
       </c>
       <c r="O7">
-        <v>2.846149196018558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1154861922451289</v>
+        <v>0.1496377056637641</v>
       </c>
       <c r="D8">
-        <v>0.04441910833256202</v>
+        <v>0.1848295007354892</v>
       </c>
       <c r="E8">
-        <v>0.02157092172902797</v>
+        <v>0.06641516141462134</v>
       </c>
       <c r="F8">
-        <v>4.056205182294264</v>
+        <v>3.66443371978869</v>
       </c>
       <c r="G8">
-        <v>0.0008097007799030553</v>
+        <v>4.268827964598444</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.139021282349347</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06786190843397932</v>
+        <v>0.03189335108752367</v>
       </c>
       <c r="K8">
-        <v>4.261678203329751</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.04947219852437357</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>2.907521037332245</v>
+        <v>4.478307593062596</v>
       </c>
       <c r="N8">
-        <v>1.012596150065079</v>
+        <v>3.069302040088047</v>
       </c>
       <c r="O8">
-        <v>3.213597441558491</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1330446224702087</v>
+        <v>0.2114360029295028</v>
       </c>
       <c r="D9">
-        <v>0.0656518299375719</v>
+        <v>0.2486478864469888</v>
       </c>
       <c r="E9">
-        <v>0.02068485944117504</v>
+        <v>0.07808005144779884</v>
       </c>
       <c r="F9">
-        <v>5.075560957913325</v>
+        <v>5.05525272539748</v>
       </c>
       <c r="G9">
-        <v>0.0007720975657561772</v>
+        <v>5.985562915141088</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.925761876246042</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06372937439339665</v>
+        <v>0.02742985372292495</v>
       </c>
       <c r="K9">
-        <v>5.773815755413807</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.06300270187147561</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>3.897156645804571</v>
+        <v>6.105035443853495</v>
       </c>
       <c r="N9">
-        <v>0.9763383464136126</v>
+        <v>3.895345297025273</v>
       </c>
       <c r="O9">
-        <v>4.056726560374955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1482668489077668</v>
+        <v>0.2616709298489326</v>
       </c>
       <c r="D10">
-        <v>0.08395342146085483</v>
+        <v>0.2999473153349896</v>
       </c>
       <c r="E10">
-        <v>0.02009888596377862</v>
+        <v>0.08695132413692619</v>
       </c>
       <c r="F10">
-        <v>5.960520093917978</v>
+        <v>6.22613195309313</v>
       </c>
       <c r="G10">
-        <v>0.0007443787278694659</v>
+        <v>7.419661996557636</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.587972930827789</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0620435350552313</v>
+        <v>0.02453700407267689</v>
       </c>
       <c r="K10">
-        <v>6.969066023168949</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.07371032657685106</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>4.681129234821881</v>
+        <v>7.363188919438898</v>
       </c>
       <c r="N10">
-        <v>0.9600331952244119</v>
+        <v>4.513981883436372</v>
       </c>
       <c r="O10">
-        <v>4.788364719621711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1559005691609627</v>
+        <v>0.286168030247012</v>
       </c>
       <c r="D11">
-        <v>0.09318915970469277</v>
+        <v>0.3248664472513099</v>
       </c>
       <c r="E11">
-        <v>0.01984850453024156</v>
+        <v>0.09109914345040693</v>
       </c>
       <c r="F11">
-        <v>6.406215264283361</v>
+        <v>6.808300191087881</v>
       </c>
       <c r="G11">
-        <v>0.0007315715511282709</v>
+        <v>8.129958364605216</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.917188125168423</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06166453178118658</v>
+        <v>0.02330814236069401</v>
       </c>
       <c r="K11">
-        <v>7.540664589498249</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.07885092360518797</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>5.056445786661897</v>
+        <v>7.957552096547488</v>
       </c>
       <c r="N11">
-        <v>0.9553277867371293</v>
+        <v>4.798976375379084</v>
       </c>
       <c r="O11">
-        <v>5.156868276979935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1589159754318246</v>
+        <v>0.2957494832833021</v>
       </c>
       <c r="D12">
-        <v>0.09685423174607166</v>
+        <v>0.334604019061274</v>
       </c>
       <c r="E12">
-        <v>0.0197562855349549</v>
+        <v>0.09269173422010724</v>
       </c>
       <c r="F12">
-        <v>6.582710436084341</v>
+        <v>7.037849733943858</v>
       </c>
       <c r="G12">
-        <v>0.0007266735904281906</v>
+        <v>8.409607891664052</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.046992608343487</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.06158740623041936</v>
+        <v>0.02285550189474428</v>
       </c>
       <c r="K12">
-        <v>7.762190516982997</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.08084798547501748</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>5.201961070023145</v>
+        <v>8.186749919336961</v>
       </c>
       <c r="N12">
-        <v>0.9539856603240224</v>
+        <v>4.9075136555835</v>
       </c>
       <c r="O12">
-        <v>5.302809597614782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1582605797920564</v>
+        <v>0.29367106594988</v>
       </c>
       <c r="D13">
-        <v>0.09605673098263168</v>
+        <v>0.3324920213638762</v>
       </c>
       <c r="E13">
-        <v>0.0197760257053361</v>
+        <v>0.09234765158461755</v>
       </c>
       <c r="F13">
-        <v>6.544326909832961</v>
+        <v>6.987969597234354</v>
       </c>
       <c r="G13">
-        <v>0.0007277309691594093</v>
+        <v>8.348860268005296</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>4.018786861419414</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.06160086287163224</v>
+        <v>0.02295241982795737</v>
       </c>
       <c r="K13">
-        <v>7.71423508988758</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08041541723644485</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>5.170457595597981</v>
+        <v>8.137186067152072</v>
       </c>
       <c r="N13">
-        <v>0.9542542424464528</v>
+        <v>4.884108953237899</v>
       </c>
       <c r="O13">
-        <v>5.271070006157458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1561459975071244</v>
+        <v>0.2869497239945247</v>
       </c>
       <c r="D14">
-        <v>0.09348707707914627</v>
+        <v>0.3256610165347666</v>
       </c>
       <c r="E14">
-        <v>0.01984086369528548</v>
+        <v>0.09122968708734902</v>
       </c>
       <c r="F14">
-        <v>6.420570696458839</v>
+        <v>6.826989621232883</v>
       </c>
       <c r="G14">
-        <v>0.0007311696905954991</v>
+        <v>8.152735302098847</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.927756625586142</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0616567847209879</v>
+        <v>0.02327064824407721</v>
       </c>
       <c r="K14">
-        <v>7.558780808890333</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.07901413356691478</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>5.068344723430783</v>
+        <v>7.976319100994658</v>
       </c>
       <c r="N14">
-        <v>0.9552082321400377</v>
+        <v>4.807892794824795</v>
       </c>
       <c r="O14">
-        <v>5.168738235006856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.154867770207602</v>
+        <v>0.2828748028751136</v>
       </c>
       <c r="D15">
-        <v>0.09193620340595743</v>
+        <v>0.3215186565520725</v>
       </c>
       <c r="E15">
-        <v>0.01988092652474538</v>
+        <v>0.09054796155758638</v>
       </c>
       <c r="F15">
-        <v>6.345824030342527</v>
+        <v>6.729637958447881</v>
       </c>
       <c r="G15">
-        <v>0.0007332690576014461</v>
+        <v>8.034075280530203</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.87270599160172</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.06170004936403473</v>
+        <v>0.02346722961219427</v>
       </c>
       <c r="K15">
-        <v>7.464257975207801</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.07816277715330244</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>5.006263449983521</v>
+        <v>7.878354171189585</v>
       </c>
       <c r="N15">
-        <v>0.9558515055796164</v>
+        <v>4.761291817498602</v>
       </c>
       <c r="O15">
-        <v>5.106933696193806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.147784045415861</v>
+        <v>0.260108485597712</v>
       </c>
       <c r="D16">
-        <v>0.08337107597647986</v>
+        <v>0.2983564148515967</v>
       </c>
       <c r="E16">
-        <v>0.02011559526624196</v>
+        <v>0.0866829591844116</v>
       </c>
       <c r="F16">
-        <v>5.932381403260877</v>
+        <v>6.189238244894966</v>
       </c>
       <c r="G16">
-        <v>0.0007452101586835125</v>
+        <v>7.374593078957105</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.567108813975665</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.06207695402478208</v>
+        <v>0.02461908379345523</v>
       </c>
       <c r="K16">
-        <v>6.932356352203669</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.07338072626171055</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>4.657033403088874</v>
+        <v>7.324864605727043</v>
       </c>
       <c r="N16">
-        <v>0.9603992868115512</v>
+        <v>4.495437005962003</v>
       </c>
       <c r="O16">
-        <v>4.765100772233382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1436344184713505</v>
+        <v>0.2466061113058657</v>
       </c>
       <c r="D17">
-        <v>0.07837289537500425</v>
+        <v>0.2845980071224261</v>
       </c>
       <c r="E17">
-        <v>0.02026386242645939</v>
+        <v>0.08434414033448689</v>
       </c>
       <c r="F17">
-        <v>5.690752586560222</v>
+        <v>5.871637976435551</v>
       </c>
       <c r="G17">
-        <v>0.0007524725145899435</v>
+        <v>6.986320760225396</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.387495193606071</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0624142390713871</v>
+        <v>0.02534818124450489</v>
       </c>
       <c r="K17">
-        <v>6.613864607441371</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.07052348321241197</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>4.448022744330856</v>
+        <v>6.991554598394913</v>
       </c>
       <c r="N17">
-        <v>0.9639159562767787</v>
+        <v>4.333325488241513</v>
       </c>
       <c r="O17">
-        <v>4.565335502204562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1413127523665878</v>
+        <v>0.238989685366505</v>
       </c>
       <c r="D18">
-        <v>0.07558104715759129</v>
+        <v>0.276828005755533</v>
       </c>
       <c r="E18">
-        <v>0.02035064406145637</v>
+        <v>0.08300903679428728</v>
       </c>
       <c r="F18">
-        <v>5.555722287323107</v>
+        <v>5.693478930597166</v>
       </c>
       <c r="G18">
-        <v>0.0007566324536518231</v>
+        <v>6.768274752253717</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.286736597083404</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.06264397425260526</v>
+        <v>0.0257757324885155</v>
       </c>
       <c r="K18">
-        <v>6.433222462629232</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.06890459794025006</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>4.329512605771086</v>
+        <v>6.80184540911992</v>
       </c>
       <c r="N18">
-        <v>0.9661903890577008</v>
+        <v>4.240412437604022</v>
       </c>
       <c r="O18">
-        <v>4.453701601101415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1405372549500044</v>
+        <v>0.2364348465759889</v>
       </c>
       <c r="D19">
-        <v>0.07464906510525537</v>
+        <v>0.2742199744506593</v>
       </c>
       <c r="E19">
-        <v>0.02038027822680211</v>
+        <v>0.08255858864537657</v>
       </c>
       <c r="F19">
-        <v>5.510641470096004</v>
+        <v>5.633881862603971</v>
       </c>
       <c r="G19">
-        <v>0.0007580385073713206</v>
+        <v>6.695293817217362</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.253030608601534</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.06272761676425276</v>
+        <v>0.02592189401954847</v>
       </c>
       <c r="K19">
-        <v>6.372469334993127</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.06836037866415978</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>4.289661781493692</v>
+        <v>6.73793217893089</v>
       </c>
       <c r="N19">
-        <v>0.9670023611470242</v>
+        <v>4.209007425657603</v>
       </c>
       <c r="O19">
-        <v>4.416431857051293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.144069270727897</v>
+        <v>0.2480275274779729</v>
       </c>
       <c r="D20">
-        <v>0.07889613856262656</v>
+        <v>0.2860473038126798</v>
       </c>
       <c r="E20">
-        <v>0.02024792202389825</v>
+        <v>0.08459202859961934</v>
       </c>
       <c r="F20">
-        <v>5.716056026262123</v>
+        <v>5.904967174491389</v>
       </c>
       <c r="G20">
-        <v>0.000751701328670652</v>
+        <v>7.027091924209287</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.406344360852529</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.06237456765435923</v>
+        <v>0.02526971789924914</v>
       </c>
       <c r="K20">
-        <v>6.647498276232625</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.07082502904252408</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>4.470091073618562</v>
+        <v>7.026822775856772</v>
       </c>
       <c r="N20">
-        <v>0.9635152202215949</v>
+        <v>4.35054778880459</v>
       </c>
       <c r="O20">
-        <v>4.586254743208542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1567635060118704</v>
+        <v>0.2889150194809957</v>
       </c>
       <c r="D21">
-        <v>0.09423694833101592</v>
+        <v>0.3276585637737526</v>
       </c>
       <c r="E21">
-        <v>0.019821746112343</v>
+        <v>0.09155740913367438</v>
       </c>
       <c r="F21">
-        <v>6.456697165172187</v>
+        <v>6.874007756514175</v>
       </c>
       <c r="G21">
-        <v>0.0007301611464187768</v>
+        <v>8.210029897492802</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.954344363539974</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0616384580252145</v>
+        <v>0.02317683135762749</v>
       </c>
       <c r="K21">
-        <v>7.604293825079964</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.07942424617445454</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>5.098239131762881</v>
+        <v>8.023448536827402</v>
       </c>
       <c r="N21">
-        <v>0.9549156368937872</v>
+        <v>4.830261688217888</v>
       </c>
       <c r="O21">
-        <v>5.198610090162134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1658021196112287</v>
+        <v>0.3174634997433401</v>
       </c>
       <c r="D22">
-        <v>0.1052662720563333</v>
+        <v>0.3566638990156008</v>
       </c>
       <c r="E22">
-        <v>0.01955855232970216</v>
+        <v>0.09624181844704793</v>
       </c>
       <c r="F22">
-        <v>6.986790148486193</v>
+        <v>7.56175210946131</v>
       </c>
       <c r="G22">
-        <v>0.0007157891586304649</v>
+        <v>9.047052116855866</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.343238508133709</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.06155162778085455</v>
+        <v>0.02188301620292776</v>
       </c>
       <c r="K22">
-        <v>8.259921158317582</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08534639392539134</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>5.529018607663318</v>
+        <v>8.699534111226342</v>
       </c>
       <c r="N22">
-        <v>0.9518901178018666</v>
+        <v>5.147437464210952</v>
       </c>
       <c r="O22">
-        <v>5.636976604060607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1609008972000368</v>
+        <v>0.3020309918905184</v>
       </c>
       <c r="D23">
-        <v>0.09927271942956395</v>
+        <v>0.3409862885829398</v>
       </c>
       <c r="E23">
-        <v>0.01969750164969508</v>
+        <v>0.09372704073981097</v>
       </c>
       <c r="F23">
-        <v>6.699036242990985</v>
+        <v>7.188886566711119</v>
       </c>
       <c r="G23">
-        <v>0.0007234947304533001</v>
+        <v>8.593488912011992</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.132398846802118</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.06155756821166491</v>
+        <v>0.02256675967212196</v>
       </c>
       <c r="K23">
-        <v>7.906792217486412</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08215319058796666</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>5.296963261238119</v>
+        <v>8.336029927875757</v>
       </c>
       <c r="N23">
-        <v>0.9532479437750681</v>
+        <v>4.977780668030675</v>
       </c>
       <c r="O23">
-        <v>5.39900310397897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1438724762751633</v>
+        <v>0.247384454491467</v>
       </c>
       <c r="D24">
-        <v>0.07865932855123248</v>
+        <v>0.2853916462539132</v>
       </c>
       <c r="E24">
-        <v>0.02025512389901218</v>
+        <v>0.08447992908189761</v>
       </c>
       <c r="F24">
-        <v>5.70460434795973</v>
+        <v>5.889885374626033</v>
       </c>
       <c r="G24">
-        <v>0.0007520500280080993</v>
+        <v>7.00864332275296</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.3978149332155</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.06239239227372551</v>
+        <v>0.02530516508059577</v>
       </c>
       <c r="K24">
-        <v>6.632284899150022</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.07068862692954525</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>4.460108884037197</v>
+        <v>7.010872135534896</v>
       </c>
       <c r="N24">
-        <v>0.9636956096392026</v>
+        <v>4.342760700139422</v>
       </c>
       <c r="O24">
-        <v>4.576787234666597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1279446845961161</v>
+        <v>0.19403425677352</v>
       </c>
       <c r="D25">
-        <v>0.05952337587566348</v>
+        <v>0.2307783598192401</v>
       </c>
       <c r="E25">
-        <v>0.02091367697236401</v>
+        <v>0.07488379184064797</v>
       </c>
       <c r="F25">
-        <v>4.779728102593964</v>
+        <v>4.657575548786212</v>
       </c>
       <c r="G25">
-        <v>0.0007822363074423023</v>
+        <v>5.496429212071234</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.700821119376826</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06463691304010055</v>
+        <v>0.0285707252584988</v>
       </c>
       <c r="K25">
-        <v>5.352630293954093</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.05923643862912797</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>3.621223289596756</v>
+        <v>5.656195504509213</v>
       </c>
       <c r="N25">
-        <v>0.9844689396455095</v>
+        <v>3.670114558460426</v>
       </c>
       <c r="O25">
-        <v>3.812116470912201</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1577823926570403</v>
+        <v>0.04834671834362325</v>
       </c>
       <c r="D2">
-        <v>0.1933056893873015</v>
+        <v>0.102340726199543</v>
       </c>
       <c r="E2">
-        <v>0.06800409983744871</v>
+        <v>0.08328565320068293</v>
       </c>
       <c r="F2">
-        <v>3.844115626219434</v>
+        <v>2.859129718111461</v>
       </c>
       <c r="G2">
-        <v>4.491676721460976</v>
+        <v>2.506027728869753</v>
       </c>
       <c r="H2">
-        <v>2.240665436051529</v>
+        <v>1.835817060205386</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03123333117405203</v>
+        <v>0.09912528355382477</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.698078307721673</v>
+        <v>1.969097753115591</v>
       </c>
       <c r="N2">
-        <v>3.182383275740222</v>
+        <v>1.573475684104238</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1344779431313725</v>
+        <v>0.0429180893500245</v>
       </c>
       <c r="D3">
-        <v>0.168983609952889</v>
+        <v>0.09562326158399514</v>
       </c>
       <c r="E3">
-        <v>0.06341311824189333</v>
+        <v>0.08201667906204335</v>
       </c>
       <c r="F3">
-        <v>3.333353017128871</v>
+        <v>2.779587354382329</v>
       </c>
       <c r="G3">
-        <v>3.857159060655817</v>
+        <v>2.391787200681676</v>
       </c>
       <c r="H3">
-        <v>1.951736762599126</v>
+        <v>1.792288196531956</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03319288842841317</v>
+        <v>0.1004854461454627</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>4.064589237728157</v>
+        <v>1.797296184505669</v>
       </c>
       <c r="N3">
-        <v>2.855339920828953</v>
+        <v>1.46737723029517</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1206331301574721</v>
+        <v>0.03961074216603322</v>
       </c>
       <c r="D4">
-        <v>0.1544218276414568</v>
+        <v>0.09146593579458795</v>
       </c>
       <c r="E4">
-        <v>0.06061905729700534</v>
+        <v>0.08124143989931554</v>
       </c>
       <c r="F4">
-        <v>3.035145803069554</v>
+        <v>2.733217131338648</v>
       </c>
       <c r="G4">
-        <v>3.485026420252211</v>
+        <v>2.323906772236001</v>
       </c>
       <c r="H4">
-        <v>1.783060400964246</v>
+        <v>1.767051942773548</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03447049209145447</v>
+        <v>0.101373056645679</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.681245311715969</v>
+        <v>1.692114468396326</v>
       </c>
       <c r="N4">
-        <v>2.655932361653328</v>
+        <v>1.402568746280167</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.115088032088579</v>
+        <v>0.03826917861611889</v>
       </c>
       <c r="D5">
-        <v>0.1485619174583235</v>
+        <v>0.08976330039014613</v>
       </c>
       <c r="E5">
-        <v>0.05948547158255835</v>
+        <v>0.08092653530899341</v>
       </c>
       <c r="F5">
-        <v>2.916921325242441</v>
+        <v>2.714933397893304</v>
       </c>
       <c r="G5">
-        <v>3.337089887047483</v>
+        <v>2.29680413728849</v>
       </c>
       <c r="H5">
-        <v>1.716194352630339</v>
+        <v>1.757138278198653</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03500952985388217</v>
+        <v>0.1017479683468618</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.526171510714619</v>
+        <v>1.64932830999031</v>
       </c>
       <c r="N5">
-        <v>2.574982648419933</v>
+        <v>1.37624620687231</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.114172587399608</v>
+        <v>0.0380467794252155</v>
       </c>
       <c r="D6">
-        <v>0.147592849664008</v>
+        <v>0.08948005900109024</v>
       </c>
       <c r="E6">
-        <v>0.05929751203630396</v>
+        <v>0.08087430753906766</v>
       </c>
       <c r="F6">
-        <v>2.897474084456348</v>
+        <v>2.711934150037223</v>
       </c>
       <c r="G6">
-        <v>3.312731153785109</v>
+        <v>2.292337248872542</v>
       </c>
       <c r="H6">
-        <v>1.705195699508522</v>
+        <v>1.75551435721249</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03510013918255162</v>
+        <v>0.1018110199009605</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.500483413466213</v>
+        <v>1.642228293926479</v>
       </c>
       <c r="N6">
-        <v>2.561558652662143</v>
+        <v>1.371880735857076</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1205579795096838</v>
+        <v>0.03959262462196023</v>
       </c>
       <c r="D7">
-        <v>0.1543425221758952</v>
+        <v>0.09144300816663531</v>
       </c>
       <c r="E7">
-        <v>0.0606037505029704</v>
+        <v>0.08123718885371289</v>
       </c>
       <c r="F7">
-        <v>3.033538737524111</v>
+        <v>2.732968081431096</v>
       </c>
       <c r="G7">
-        <v>3.483017102333434</v>
+        <v>2.323539005616965</v>
       </c>
       <c r="H7">
-        <v>1.782151440958017</v>
+        <v>1.766916750145924</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03447768763483694</v>
+        <v>0.1013780593621387</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.679149638109251</v>
+        <v>1.691537131158313</v>
       </c>
       <c r="N7">
-        <v>2.654839439199975</v>
+        <v>1.402213393417071</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1496377056637641</v>
+        <v>0.04646938155842406</v>
       </c>
       <c r="D8">
-        <v>0.1848295007354892</v>
+        <v>0.1000311936732601</v>
       </c>
       <c r="E8">
-        <v>0.06641516141462134</v>
+        <v>0.08284731382360633</v>
       </c>
       <c r="F8">
-        <v>3.66443371978869</v>
+        <v>2.831185936632068</v>
       </c>
       <c r="G8">
-        <v>4.268827964598444</v>
+        <v>2.466161629007786</v>
       </c>
       <c r="H8">
-        <v>2.139021282349347</v>
+        <v>1.820496161478729</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03189335108752367</v>
+        <v>0.09958338478604745</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>4.478307593062596</v>
+        <v>1.909796864458301</v>
       </c>
       <c r="N8">
-        <v>3.069302040088047</v>
+        <v>1.536824775533688</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2114360029295028</v>
+        <v>0.06017388422064585</v>
       </c>
       <c r="D9">
-        <v>0.2486478864469888</v>
+        <v>0.1166246457661231</v>
       </c>
       <c r="E9">
-        <v>0.07808005144779884</v>
+        <v>0.08603482341689528</v>
       </c>
       <c r="F9">
-        <v>5.05525272539748</v>
+        <v>3.043778462150698</v>
       </c>
       <c r="G9">
-        <v>5.985562915141088</v>
+        <v>2.764281490661233</v>
       </c>
       <c r="H9">
-        <v>2.925761876246042</v>
+        <v>1.937607631688991</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02742985372292495</v>
+        <v>0.09647983175034369</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>6.105035443853495</v>
+        <v>2.340273983668368</v>
       </c>
       <c r="N9">
-        <v>3.895345297025273</v>
+        <v>1.803357838202118</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2616709298489326</v>
+        <v>0.07039690942414722</v>
       </c>
       <c r="D10">
-        <v>0.2999473153349896</v>
+        <v>0.1286826853153542</v>
       </c>
       <c r="E10">
-        <v>0.08695132413692619</v>
+        <v>0.08839390312727602</v>
       </c>
       <c r="F10">
-        <v>6.22613195309313</v>
+        <v>3.212731734877281</v>
       </c>
       <c r="G10">
-        <v>7.419661996557636</v>
+        <v>2.995242513984238</v>
       </c>
       <c r="H10">
-        <v>3.587972930827789</v>
+        <v>2.03130429728634</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02453700407267689</v>
+        <v>0.09445242960935119</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>7.363188919438898</v>
+        <v>2.658159702887247</v>
       </c>
       <c r="N10">
-        <v>4.513981883436372</v>
+        <v>2.000619432434746</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.286168030247012</v>
+        <v>0.0750857760916972</v>
       </c>
       <c r="D11">
-        <v>0.3248664472513099</v>
+        <v>0.1341433251698163</v>
       </c>
       <c r="E11">
-        <v>0.09109914345040693</v>
+        <v>0.08947063217429374</v>
       </c>
       <c r="F11">
-        <v>6.808300191087881</v>
+        <v>3.292493132229595</v>
       </c>
       <c r="G11">
-        <v>8.129958364605216</v>
+        <v>3.103058625009965</v>
       </c>
       <c r="H11">
-        <v>3.917188125168423</v>
+        <v>2.075661873806951</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02330814236069401</v>
+        <v>0.09358485403232919</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>7.957552096547488</v>
+        <v>2.803152260169782</v>
       </c>
       <c r="N11">
-        <v>4.798976375379084</v>
+        <v>2.090648376778176</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2957494832833021</v>
+        <v>0.07686721218748005</v>
       </c>
       <c r="D12">
-        <v>0.334604019061274</v>
+        <v>0.1362079028945402</v>
       </c>
       <c r="E12">
-        <v>0.09269173422010724</v>
+        <v>0.08987885200702195</v>
       </c>
       <c r="F12">
-        <v>7.037849733943858</v>
+        <v>3.323124704485338</v>
       </c>
       <c r="G12">
-        <v>8.409607891664052</v>
+        <v>3.144293845121695</v>
       </c>
       <c r="H12">
-        <v>4.046992608343487</v>
+        <v>2.092714045495597</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02285550189474428</v>
+        <v>0.09326418212691223</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>8.186749919336961</v>
+        <v>2.858114190227809</v>
       </c>
       <c r="N12">
-        <v>4.9075136555835</v>
+        <v>2.12477993992286</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.29367106594988</v>
+        <v>0.0764832816204688</v>
       </c>
       <c r="D13">
-        <v>0.3324920213638762</v>
+        <v>0.1357633988632045</v>
       </c>
       <c r="E13">
-        <v>0.09234765158461755</v>
+        <v>0.08979091338918366</v>
       </c>
       <c r="F13">
-        <v>6.987969597234354</v>
+        <v>3.31650846326491</v>
       </c>
       <c r="G13">
-        <v>8.348860268005296</v>
+        <v>3.135394779832836</v>
       </c>
       <c r="H13">
-        <v>4.018786861419414</v>
+        <v>2.089030128451839</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02295241982795737</v>
+        <v>0.09333289506385256</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>8.137186067152072</v>
+        <v>2.846274628535383</v>
       </c>
       <c r="N13">
-        <v>4.884108953237899</v>
+        <v>2.117427379628168</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2869497239945247</v>
+        <v>0.07523221636489552</v>
       </c>
       <c r="D14">
-        <v>0.3256610165347666</v>
+        <v>0.1343132426142546</v>
       </c>
       <c r="E14">
-        <v>0.09122968708734902</v>
+        <v>0.0895042070847154</v>
       </c>
       <c r="F14">
-        <v>6.826989621232883</v>
+        <v>3.295004580331181</v>
       </c>
       <c r="G14">
-        <v>8.152735302098847</v>
+        <v>3.106442832510822</v>
       </c>
       <c r="H14">
-        <v>3.927756625586142</v>
+        <v>2.077059625249717</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02327064824407721</v>
+        <v>0.093558314664552</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>7.976319100994658</v>
+        <v>2.807672874384252</v>
       </c>
       <c r="N14">
-        <v>4.807892794824795</v>
+        <v>2.093455623312877</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2828748028751136</v>
+        <v>0.07446667690845743</v>
       </c>
       <c r="D15">
-        <v>0.3215186565520725</v>
+        <v>0.1334245658594853</v>
       </c>
       <c r="E15">
-        <v>0.09054796155758638</v>
+        <v>0.0893286536581499</v>
       </c>
       <c r="F15">
-        <v>6.729637958447881</v>
+        <v>3.281888829673392</v>
       </c>
       <c r="G15">
-        <v>8.034075280530203</v>
+        <v>3.08876237242788</v>
       </c>
       <c r="H15">
-        <v>3.87270599160172</v>
+        <v>2.069760710178628</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02346722961219427</v>
+        <v>0.0936974141374094</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>7.878354171189585</v>
+        <v>2.784035563728111</v>
       </c>
       <c r="N15">
-        <v>4.761291817498602</v>
+        <v>2.078777303659081</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.260108485597712</v>
+        <v>0.07009128242640372</v>
       </c>
       <c r="D16">
-        <v>0.2983564148515967</v>
+        <v>0.128325349032707</v>
       </c>
       <c r="E16">
-        <v>0.0866829591844116</v>
+        <v>0.08832360584973031</v>
       </c>
       <c r="F16">
-        <v>6.189238244894966</v>
+        <v>3.207578428866498</v>
       </c>
       <c r="G16">
-        <v>7.374593078957105</v>
+        <v>2.988252853026495</v>
       </c>
       <c r="H16">
-        <v>3.567108813975665</v>
+        <v>2.028440794965434</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02461908379345523</v>
+        <v>0.09451022792665853</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>7.324864605727043</v>
+        <v>2.648691928735474</v>
       </c>
       <c r="N16">
-        <v>4.495437005962003</v>
+        <v>1.994741508298034</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2466061113058657</v>
+        <v>0.06741718970188515</v>
       </c>
       <c r="D17">
-        <v>0.2845980071224261</v>
+        <v>0.1251910440753221</v>
       </c>
       <c r="E17">
-        <v>0.08434414033448689</v>
+        <v>0.08770793658483456</v>
       </c>
       <c r="F17">
-        <v>5.871637976435551</v>
+        <v>3.162742232194802</v>
       </c>
       <c r="G17">
-        <v>6.986320760225396</v>
+        <v>2.927306536457195</v>
       </c>
       <c r="H17">
-        <v>3.387495193606071</v>
+        <v>2.003540482019332</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02534818124450489</v>
+        <v>0.09502286870354126</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>6.991554598394913</v>
+        <v>2.565762254319139</v>
       </c>
       <c r="N17">
-        <v>4.333325488241513</v>
+        <v>1.943261558554667</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.238989685366505</v>
+        <v>0.0658827117388654</v>
       </c>
       <c r="D18">
-        <v>0.276828005755533</v>
+        <v>0.1233859391956713</v>
       </c>
       <c r="E18">
-        <v>0.08300903679428728</v>
+        <v>0.08735415774386723</v>
       </c>
       <c r="F18">
-        <v>5.693478930597166</v>
+        <v>3.137226328917507</v>
       </c>
       <c r="G18">
-        <v>6.768274752253717</v>
+        <v>2.892510006736359</v>
       </c>
       <c r="H18">
-        <v>3.286736597083404</v>
+        <v>1.98938140202182</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0257757324885155</v>
+        <v>0.09532287504822889</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>6.80184540911992</v>
+        <v>2.518099441273478</v>
       </c>
       <c r="N18">
-        <v>4.240412437604022</v>
+        <v>1.913679448494747</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2364348465759889</v>
+        <v>0.06536376989882342</v>
       </c>
       <c r="D19">
-        <v>0.2742199744506593</v>
+        <v>0.1227743517713549</v>
       </c>
       <c r="E19">
-        <v>0.08255858864537657</v>
+        <v>0.08723443318119095</v>
       </c>
       <c r="F19">
-        <v>5.633881862603971</v>
+        <v>3.128633613257136</v>
       </c>
       <c r="G19">
-        <v>6.695293817217362</v>
+        <v>2.880772480045778</v>
       </c>
       <c r="H19">
-        <v>3.253030608601534</v>
+        <v>1.984615197284143</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02592189401954847</v>
+        <v>0.09542533654951768</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>6.73793217893089</v>
+        <v>2.501967808823764</v>
       </c>
       <c r="N19">
-        <v>4.209007425657603</v>
+        <v>1.903668310778158</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2480275274779729</v>
+        <v>0.06770147745058352</v>
       </c>
       <c r="D20">
-        <v>0.2860473038126798</v>
+        <v>0.1255249358148802</v>
       </c>
       <c r="E20">
-        <v>0.08459202859961934</v>
+        <v>0.08777344086608352</v>
       </c>
       <c r="F20">
-        <v>5.904967174491389</v>
+        <v>3.167486826902319</v>
       </c>
       <c r="G20">
-        <v>7.027091924209287</v>
+        <v>2.933767568992835</v>
       </c>
       <c r="H20">
-        <v>3.406344360852529</v>
+        <v>2.006174261683157</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02526971789924914</v>
+        <v>0.09496776436490961</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>7.026822775856772</v>
+        <v>2.574586511826055</v>
       </c>
       <c r="N20">
-        <v>4.35054778880459</v>
+        <v>1.948738829943295</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2889150194809957</v>
+        <v>0.07559952259620673</v>
       </c>
       <c r="D21">
-        <v>0.3276585637737526</v>
+        <v>0.1347392744398803</v>
       </c>
       <c r="E21">
-        <v>0.09155740913367438</v>
+        <v>0.08958840670807078</v>
       </c>
       <c r="F21">
-        <v>6.874007756514175</v>
+        <v>3.301309103563426</v>
       </c>
       <c r="G21">
-        <v>8.210029897492802</v>
+        <v>3.114935561753498</v>
       </c>
       <c r="H21">
-        <v>3.954344363539974</v>
+        <v>2.080568689203801</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02317683135762749</v>
+        <v>0.09349189018511694</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>8.023448536827402</v>
+        <v>2.819009605557312</v>
       </c>
       <c r="N21">
-        <v>4.830261688217888</v>
+        <v>2.100495656630414</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3174634997433401</v>
+        <v>0.0807956992394594</v>
       </c>
       <c r="D22">
-        <v>0.3566638990156008</v>
+        <v>0.1407425863659313</v>
       </c>
       <c r="E22">
-        <v>0.09624181844704793</v>
+        <v>0.09077741145046048</v>
       </c>
       <c r="F22">
-        <v>7.56175210946131</v>
+        <v>3.391267309600551</v>
       </c>
       <c r="G22">
-        <v>9.047052116855866</v>
+        <v>3.235720910024611</v>
       </c>
       <c r="H22">
-        <v>4.343238508133709</v>
+        <v>2.130678271325053</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02188301620292776</v>
+        <v>0.09257313355391972</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>8.699534111226342</v>
+        <v>2.979083535136965</v>
       </c>
       <c r="N22">
-        <v>5.147437464210952</v>
+        <v>2.199906887718782</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3020309918905184</v>
+        <v>0.07801914208826588</v>
       </c>
       <c r="D23">
-        <v>0.3409862885829398</v>
+        <v>0.13754012652754</v>
       </c>
       <c r="E23">
-        <v>0.09372704073981097</v>
+        <v>0.09014256831390455</v>
       </c>
       <c r="F23">
-        <v>7.188886566711119</v>
+        <v>3.343022984556825</v>
       </c>
       <c r="G23">
-        <v>8.593488912011992</v>
+        <v>3.171033527339887</v>
       </c>
       <c r="H23">
-        <v>4.132398846802118</v>
+        <v>2.103795789901142</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02256675967212196</v>
+        <v>0.09305930120613226</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>8.336029927875757</v>
+        <v>2.893618546225554</v>
       </c>
       <c r="N23">
-        <v>4.977780668030675</v>
+        <v>2.146829119470851</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.247384454491467</v>
+        <v>0.06757294197278441</v>
       </c>
       <c r="D24">
-        <v>0.2853916462539132</v>
+        <v>0.1253739931958364</v>
       </c>
       <c r="E24">
-        <v>0.08447992908189761</v>
+        <v>0.08774382582514306</v>
       </c>
       <c r="F24">
-        <v>5.889885374626033</v>
+        <v>3.1653409833674</v>
       </c>
       <c r="G24">
-        <v>7.00864332275296</v>
+        <v>2.93084578231975</v>
       </c>
       <c r="H24">
-        <v>3.3978149332155</v>
+        <v>2.004983043031132</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02530516508059577</v>
+        <v>0.09499266058269384</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>7.010872135534896</v>
+        <v>2.570597019729718</v>
       </c>
       <c r="N24">
-        <v>4.342760700139422</v>
+        <v>1.946262510495757</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.19403425677352</v>
+        <v>0.0564408731712831</v>
       </c>
       <c r="D25">
-        <v>0.2307783598192401</v>
+        <v>0.112160386338914</v>
       </c>
       <c r="E25">
-        <v>0.07488379184064797</v>
+        <v>0.08516941510098164</v>
       </c>
       <c r="F25">
-        <v>4.657575548786212</v>
+        <v>2.984067929782498</v>
       </c>
       <c r="G25">
-        <v>5.496429212071234</v>
+        <v>2.681587665541372</v>
       </c>
       <c r="H25">
-        <v>2.700821119376826</v>
+        <v>1.904604694182638</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0285707252584988</v>
+        <v>0.09727498471777452</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>5.656195504509213</v>
+        <v>2.223543303372224</v>
       </c>
       <c r="N25">
-        <v>3.670114558460426</v>
+        <v>1.730992261561681</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04834671834362325</v>
+        <v>0.1577823926571256</v>
       </c>
       <c r="D2">
-        <v>0.102340726199543</v>
+        <v>0.19330568938787</v>
       </c>
       <c r="E2">
-        <v>0.08328565320068293</v>
+        <v>0.06800409983744515</v>
       </c>
       <c r="F2">
-        <v>2.859129718111461</v>
+        <v>3.844115626219462</v>
       </c>
       <c r="G2">
-        <v>2.506027728869753</v>
+        <v>4.491676721461033</v>
       </c>
       <c r="H2">
-        <v>1.835817060205386</v>
+        <v>2.240665436051756</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.09912528355382477</v>
+        <v>0.0312333311740467</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.969097753115591</v>
+        <v>4.698078307721673</v>
       </c>
       <c r="N2">
-        <v>1.573475684104238</v>
+        <v>3.182383275740222</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0429180893500245</v>
+        <v>0.1344779431316709</v>
       </c>
       <c r="D3">
-        <v>0.09562326158399514</v>
+        <v>0.1689836099532727</v>
       </c>
       <c r="E3">
-        <v>0.08201667906204335</v>
+        <v>0.0634131182419555</v>
       </c>
       <c r="F3">
-        <v>2.779587354382329</v>
+        <v>3.333353017128843</v>
       </c>
       <c r="G3">
-        <v>2.391787200681676</v>
+        <v>3.857159060655761</v>
       </c>
       <c r="H3">
-        <v>1.792288196531956</v>
+        <v>1.951736762599126</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1004854461454627</v>
+        <v>0.03319288842841139</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.797296184505669</v>
+        <v>4.064589237728157</v>
       </c>
       <c r="N3">
-        <v>1.46737723029517</v>
+        <v>2.855339920828953</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03961074216603322</v>
+        <v>0.1206331301577563</v>
       </c>
       <c r="D4">
-        <v>0.09146593579458795</v>
+        <v>0.1544218276412437</v>
       </c>
       <c r="E4">
-        <v>0.08124143989931554</v>
+        <v>0.06061905729703732</v>
       </c>
       <c r="F4">
-        <v>2.733217131338648</v>
+        <v>3.035145803069611</v>
       </c>
       <c r="G4">
-        <v>2.323906772236001</v>
+        <v>3.485026420252325</v>
       </c>
       <c r="H4">
-        <v>1.767051942773548</v>
+        <v>1.783060400964217</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.101373056645679</v>
+        <v>0.03447049209141007</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.692114468396326</v>
+        <v>3.681245311715969</v>
       </c>
       <c r="N4">
-        <v>1.402568746280167</v>
+        <v>2.655932361653356</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03826917861611889</v>
+        <v>0.1150880320878116</v>
       </c>
       <c r="D5">
-        <v>0.08976330039014613</v>
+        <v>0.1485619174584514</v>
       </c>
       <c r="E5">
-        <v>0.08092653530899341</v>
+        <v>0.05948547158255657</v>
       </c>
       <c r="F5">
-        <v>2.714933397893304</v>
+        <v>2.916921325242498</v>
       </c>
       <c r="G5">
-        <v>2.29680413728849</v>
+        <v>3.33708988704737</v>
       </c>
       <c r="H5">
-        <v>1.757138278198653</v>
+        <v>1.716194352630225</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1017479683468618</v>
+        <v>0.03500952985394079</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.64932830999031</v>
+        <v>3.526171510714619</v>
       </c>
       <c r="N5">
-        <v>1.37624620687231</v>
+        <v>2.574982648419962</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0380467794252155</v>
+        <v>0.114172587400077</v>
       </c>
       <c r="D6">
-        <v>0.08948005900109024</v>
+        <v>0.1475928496639938</v>
       </c>
       <c r="E6">
-        <v>0.08087430753906766</v>
+        <v>0.05929751203627198</v>
       </c>
       <c r="F6">
-        <v>2.711934150037223</v>
+        <v>2.897474084456292</v>
       </c>
       <c r="G6">
-        <v>2.292337248872542</v>
+        <v>3.312731153785137</v>
       </c>
       <c r="H6">
-        <v>1.75551435721249</v>
+        <v>1.705195699508494</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1018110199009605</v>
+        <v>0.03510013918254806</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.642228293926479</v>
+        <v>3.500483413466185</v>
       </c>
       <c r="N6">
-        <v>1.371880735857076</v>
+        <v>2.561558652662143</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03959262462196023</v>
+        <v>0.120557979509428</v>
       </c>
       <c r="D7">
-        <v>0.09144300816663531</v>
+        <v>0.1543425221757531</v>
       </c>
       <c r="E7">
-        <v>0.08123718885371289</v>
+        <v>0.06060375050299882</v>
       </c>
       <c r="F7">
-        <v>2.732968081431096</v>
+        <v>3.033538737524111</v>
       </c>
       <c r="G7">
-        <v>2.323539005616965</v>
+        <v>3.483017102333406</v>
       </c>
       <c r="H7">
-        <v>1.766916750145924</v>
+        <v>1.782151440957989</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1013780593621387</v>
+        <v>0.03447768763472325</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.691537131158313</v>
+        <v>3.679149638109266</v>
       </c>
       <c r="N7">
-        <v>1.402213393417071</v>
+        <v>2.654839439200003</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04646938155842406</v>
+        <v>0.1496377056640483</v>
       </c>
       <c r="D8">
-        <v>0.1000311936732601</v>
+        <v>0.1848295007356171</v>
       </c>
       <c r="E8">
-        <v>0.08284731382360633</v>
+        <v>0.06641516141462134</v>
       </c>
       <c r="F8">
-        <v>2.831185936632068</v>
+        <v>3.66443371978869</v>
       </c>
       <c r="G8">
-        <v>2.466161629007786</v>
+        <v>4.268827964598529</v>
       </c>
       <c r="H8">
-        <v>1.820496161478729</v>
+        <v>2.139021282349233</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09958338478604745</v>
+        <v>0.03189335108751656</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.909796864458301</v>
+        <v>4.47830759306261</v>
       </c>
       <c r="N8">
-        <v>1.536824775533688</v>
+        <v>3.069302040087933</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06017388422064585</v>
+        <v>0.2114360029294886</v>
       </c>
       <c r="D9">
-        <v>0.1166246457661231</v>
+        <v>0.2486478864471309</v>
       </c>
       <c r="E9">
-        <v>0.08603482341689528</v>
+        <v>0.07808005144778818</v>
       </c>
       <c r="F9">
-        <v>3.043778462150698</v>
+        <v>5.055252725397452</v>
       </c>
       <c r="G9">
-        <v>2.764281490661233</v>
+        <v>5.985562915141259</v>
       </c>
       <c r="H9">
-        <v>1.937607631688991</v>
+        <v>2.925761876246042</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09647983175034369</v>
+        <v>0.02742985372301376</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.340273983668368</v>
+        <v>6.105035443853524</v>
       </c>
       <c r="N9">
-        <v>1.803357838202118</v>
+        <v>3.895345297025273</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07039690942414722</v>
+        <v>0.2616709298489042</v>
       </c>
       <c r="D10">
-        <v>0.1286826853153542</v>
+        <v>0.2999473153349328</v>
       </c>
       <c r="E10">
-        <v>0.08839390312727602</v>
+        <v>0.08695132413691908</v>
       </c>
       <c r="F10">
-        <v>3.212731734877281</v>
+        <v>6.226131953093159</v>
       </c>
       <c r="G10">
-        <v>2.995242513984238</v>
+        <v>7.419661996557636</v>
       </c>
       <c r="H10">
-        <v>2.03130429728634</v>
+        <v>3.587972930827789</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09445242960935119</v>
+        <v>0.02453700407265025</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.658159702887247</v>
+        <v>7.363188919438926</v>
       </c>
       <c r="N10">
-        <v>2.000619432434746</v>
+        <v>4.513981883436259</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0750857760916972</v>
+        <v>0.2861680302467988</v>
       </c>
       <c r="D11">
-        <v>0.1341433251698163</v>
+        <v>0.3248664472518641</v>
       </c>
       <c r="E11">
-        <v>0.08947063217429374</v>
+        <v>0.09109914345042469</v>
       </c>
       <c r="F11">
-        <v>3.292493132229595</v>
+        <v>6.808300191087937</v>
       </c>
       <c r="G11">
-        <v>3.103058625009965</v>
+        <v>8.129958364605329</v>
       </c>
       <c r="H11">
-        <v>2.075661873806951</v>
+        <v>3.917188125168423</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09358485403232919</v>
+        <v>0.0233081423605892</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.803152260169782</v>
+        <v>7.957552096547573</v>
       </c>
       <c r="N11">
-        <v>2.090648376778176</v>
+        <v>4.798976375379084</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07686721218748005</v>
+        <v>0.2957494832836574</v>
       </c>
       <c r="D12">
-        <v>0.1362079028945402</v>
+        <v>0.3346040190614588</v>
       </c>
       <c r="E12">
-        <v>0.08987885200702195</v>
+        <v>0.09269173422006105</v>
       </c>
       <c r="F12">
-        <v>3.323124704485338</v>
+        <v>7.03784973394383</v>
       </c>
       <c r="G12">
-        <v>3.144293845121695</v>
+        <v>8.409607891663939</v>
       </c>
       <c r="H12">
-        <v>2.092714045495597</v>
+        <v>4.046992608343544</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09326418212691223</v>
+        <v>0.02285550189492547</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.858114190227809</v>
+        <v>8.186749919336961</v>
       </c>
       <c r="N12">
-        <v>2.12477993992286</v>
+        <v>4.9075136555835</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0764832816204688</v>
+        <v>0.2936710659493116</v>
       </c>
       <c r="D13">
-        <v>0.1357633988632045</v>
+        <v>0.3324920213636489</v>
       </c>
       <c r="E13">
-        <v>0.08979091338918366</v>
+        <v>0.09234765158465308</v>
       </c>
       <c r="F13">
-        <v>3.31650846326491</v>
+        <v>6.987969597234411</v>
       </c>
       <c r="G13">
-        <v>3.135394779832836</v>
+        <v>8.34886026800541</v>
       </c>
       <c r="H13">
-        <v>2.089030128451839</v>
+        <v>4.018786861419528</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09333289506385256</v>
+        <v>0.02295241982773</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.846274628535383</v>
+        <v>8.137186067152214</v>
       </c>
       <c r="N13">
-        <v>2.117427379628168</v>
+        <v>4.884108953237728</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07523221636489552</v>
+        <v>0.2869497239946952</v>
       </c>
       <c r="D14">
-        <v>0.1343132426142546</v>
+        <v>0.3256610165347524</v>
       </c>
       <c r="E14">
-        <v>0.0895042070847154</v>
+        <v>0.0912296870873881</v>
       </c>
       <c r="F14">
-        <v>3.295004580331181</v>
+        <v>6.826989621232883</v>
       </c>
       <c r="G14">
-        <v>3.106442832510822</v>
+        <v>8.152735302098904</v>
       </c>
       <c r="H14">
-        <v>2.077059625249717</v>
+        <v>3.927756625586142</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.093558314664552</v>
+        <v>0.02327064824380543</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.807672874384252</v>
+        <v>7.976319100994687</v>
       </c>
       <c r="N14">
-        <v>2.093455623312877</v>
+        <v>4.807892794824852</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07446667690845743</v>
+        <v>0.2828748028750852</v>
       </c>
       <c r="D15">
-        <v>0.1334245658594853</v>
+        <v>0.3215186565518735</v>
       </c>
       <c r="E15">
-        <v>0.0893286536581499</v>
+        <v>0.09054796155762901</v>
       </c>
       <c r="F15">
-        <v>3.281888829673392</v>
+        <v>6.729637958447967</v>
       </c>
       <c r="G15">
-        <v>3.08876237242788</v>
+        <v>8.034075280530146</v>
       </c>
       <c r="H15">
-        <v>2.069760710178628</v>
+        <v>3.87270599160172</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0936974141374094</v>
+        <v>0.02346722961218362</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.784035563728111</v>
+        <v>7.878354171189585</v>
       </c>
       <c r="N15">
-        <v>2.078777303659081</v>
+        <v>4.761291817498488</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07009128242640372</v>
+        <v>0.260108485597911</v>
       </c>
       <c r="D16">
-        <v>0.128325349032707</v>
+        <v>0.2983564148513977</v>
       </c>
       <c r="E16">
-        <v>0.08832360584973031</v>
+        <v>0.08668295918437252</v>
       </c>
       <c r="F16">
-        <v>3.207578428866498</v>
+        <v>6.189238244894909</v>
       </c>
       <c r="G16">
-        <v>2.988252853026495</v>
+        <v>7.374593078957048</v>
       </c>
       <c r="H16">
-        <v>2.028440794965434</v>
+        <v>3.567108813975779</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09451022792665853</v>
+        <v>0.02461908379350142</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.648691928735474</v>
+        <v>7.32486460572693</v>
       </c>
       <c r="N16">
-        <v>1.994741508298034</v>
+        <v>4.49543700596206</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06741718970188515</v>
+        <v>0.2466061113060647</v>
       </c>
       <c r="D17">
-        <v>0.1251910440753221</v>
+        <v>0.2845980071224119</v>
       </c>
       <c r="E17">
-        <v>0.08770793658483456</v>
+        <v>0.08434414033455084</v>
       </c>
       <c r="F17">
-        <v>3.162742232194802</v>
+        <v>5.871637976435551</v>
       </c>
       <c r="G17">
-        <v>2.927306536457195</v>
+        <v>6.98632076022534</v>
       </c>
       <c r="H17">
-        <v>2.003540482019332</v>
+        <v>3.387495193606071</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09502286870354126</v>
+        <v>0.02534818124451199</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.565762254319139</v>
+        <v>6.991554598394913</v>
       </c>
       <c r="N17">
-        <v>1.943261558554667</v>
+        <v>4.333325488241513</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0658827117388654</v>
+        <v>0.2389896853667182</v>
       </c>
       <c r="D18">
-        <v>0.1233859391956713</v>
+        <v>0.2768280057553483</v>
       </c>
       <c r="E18">
-        <v>0.08735415774386723</v>
+        <v>0.0830090367943086</v>
       </c>
       <c r="F18">
-        <v>3.137226328917507</v>
+        <v>5.693478930597138</v>
       </c>
       <c r="G18">
-        <v>2.892510006736359</v>
+        <v>6.768274752253603</v>
       </c>
       <c r="H18">
-        <v>1.98938140202182</v>
+        <v>3.286736597083461</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09532287504822889</v>
+        <v>0.02577573248853327</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.518099441273478</v>
+        <v>6.801845409119949</v>
       </c>
       <c r="N18">
-        <v>1.913679448494747</v>
+        <v>4.240412437604107</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06536376989882342</v>
+        <v>0.2364348465758468</v>
       </c>
       <c r="D19">
-        <v>0.1227743517713549</v>
+        <v>0.2742199744504177</v>
       </c>
       <c r="E19">
-        <v>0.08723443318119095</v>
+        <v>0.082558588645405</v>
       </c>
       <c r="F19">
-        <v>3.128633613257136</v>
+        <v>5.633881862603971</v>
       </c>
       <c r="G19">
-        <v>2.880772480045778</v>
+        <v>6.695293817217475</v>
       </c>
       <c r="H19">
-        <v>1.984615197284143</v>
+        <v>3.253030608601591</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09542533654951768</v>
+        <v>0.02592189401954315</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.501967808823764</v>
+        <v>6.737932178930947</v>
       </c>
       <c r="N19">
-        <v>1.903668310778158</v>
+        <v>4.209007425657632</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06770147745058352</v>
+        <v>0.2480275274779729</v>
       </c>
       <c r="D20">
-        <v>0.1255249358148802</v>
+        <v>0.2860473038124809</v>
       </c>
       <c r="E20">
-        <v>0.08777344086608352</v>
+        <v>0.08459202859958381</v>
       </c>
       <c r="F20">
-        <v>3.167486826902319</v>
+        <v>5.904967174491361</v>
       </c>
       <c r="G20">
-        <v>2.933767568992835</v>
+        <v>7.02709192420923</v>
       </c>
       <c r="H20">
-        <v>2.006174261683157</v>
+        <v>3.406344360852529</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09496776436490961</v>
+        <v>0.02526971789917631</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.574586511826055</v>
+        <v>7.0268227758568</v>
       </c>
       <c r="N20">
-        <v>1.948738829943295</v>
+        <v>4.35054778880459</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07559952259620673</v>
+        <v>0.288915019480811</v>
       </c>
       <c r="D21">
-        <v>0.1347392744398803</v>
+        <v>0.3276585637738236</v>
       </c>
       <c r="E21">
-        <v>0.08958840670807078</v>
+        <v>0.09155740913366017</v>
       </c>
       <c r="F21">
-        <v>3.301309103563426</v>
+        <v>6.874007756514118</v>
       </c>
       <c r="G21">
-        <v>3.114935561753498</v>
+        <v>8.210029897492575</v>
       </c>
       <c r="H21">
-        <v>2.080568689203801</v>
+        <v>3.954344363539917</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09349189018511694</v>
+        <v>0.02317683135768611</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.819009605557312</v>
+        <v>8.023448536827345</v>
       </c>
       <c r="N21">
-        <v>2.100495656630414</v>
+        <v>4.830261688217774</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0807956992394594</v>
+        <v>0.3174634997429564</v>
       </c>
       <c r="D22">
-        <v>0.1407425863659313</v>
+        <v>0.3566638990156008</v>
       </c>
       <c r="E22">
-        <v>0.09077741145046048</v>
+        <v>0.09624181844707635</v>
       </c>
       <c r="F22">
-        <v>3.391267309600551</v>
+        <v>7.56175210946131</v>
       </c>
       <c r="G22">
-        <v>3.235720910024611</v>
+        <v>9.047052116855866</v>
       </c>
       <c r="H22">
-        <v>2.130678271325053</v>
+        <v>4.343238508133595</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09257313355391972</v>
+        <v>0.02188301620281763</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.979083535136965</v>
+        <v>8.699534111226342</v>
       </c>
       <c r="N22">
-        <v>2.199906887718782</v>
+        <v>5.147437464210952</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07801914208826588</v>
+        <v>0.3020309918905326</v>
       </c>
       <c r="D23">
-        <v>0.13754012652754</v>
+        <v>0.3409862885830819</v>
       </c>
       <c r="E23">
-        <v>0.09014256831390455</v>
+        <v>0.09372704073980032</v>
       </c>
       <c r="F23">
-        <v>3.343022984556825</v>
+        <v>7.188886566711119</v>
       </c>
       <c r="G23">
-        <v>3.171033527339887</v>
+        <v>8.593488912012049</v>
       </c>
       <c r="H23">
-        <v>2.103795789901142</v>
+        <v>4.132398846802175</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09305930120613226</v>
+        <v>0.02256675967209176</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.893618546225554</v>
+        <v>8.336029927875813</v>
       </c>
       <c r="N23">
-        <v>2.146829119470851</v>
+        <v>4.977780668030789</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06757294197278441</v>
+        <v>0.2473844544916943</v>
       </c>
       <c r="D24">
-        <v>0.1253739931958364</v>
+        <v>0.285391646253899</v>
       </c>
       <c r="E24">
-        <v>0.08774382582514306</v>
+        <v>0.08447992908188695</v>
       </c>
       <c r="F24">
-        <v>3.1653409833674</v>
+        <v>5.889885374626061</v>
       </c>
       <c r="G24">
-        <v>2.93084578231975</v>
+        <v>7.008643322752789</v>
       </c>
       <c r="H24">
-        <v>2.004983043031132</v>
+        <v>3.397814933215557</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09499266058269384</v>
+        <v>0.02530516508067748</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.570597019729718</v>
+        <v>7.010872135534925</v>
       </c>
       <c r="N24">
-        <v>1.946262510495757</v>
+        <v>4.342760700139422</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0564408731712831</v>
+        <v>0.1940342567738185</v>
       </c>
       <c r="D25">
-        <v>0.112160386338914</v>
+        <v>0.2307783598193822</v>
       </c>
       <c r="E25">
-        <v>0.08516941510098164</v>
+        <v>0.07488379184064087</v>
       </c>
       <c r="F25">
-        <v>2.984067929782498</v>
+        <v>4.657575548786212</v>
       </c>
       <c r="G25">
-        <v>2.681587665541372</v>
+        <v>5.496429212071234</v>
       </c>
       <c r="H25">
-        <v>1.904604694182638</v>
+        <v>2.70082111937694</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09727498471777452</v>
+        <v>0.02857072525855031</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.223543303372224</v>
+        <v>5.656195504509213</v>
       </c>
       <c r="N25">
-        <v>1.730992261561681</v>
+        <v>3.670114558460398</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1577823926571256</v>
+        <v>0.1727201401996581</v>
       </c>
       <c r="D2">
-        <v>0.19330568938787</v>
+        <v>0.1139577735620634</v>
       </c>
       <c r="E2">
-        <v>0.06800409983744515</v>
+        <v>0.07502567795638448</v>
       </c>
       <c r="F2">
-        <v>3.844115626219462</v>
+        <v>0.6924918850480921</v>
       </c>
       <c r="G2">
-        <v>4.491676721461033</v>
+        <v>0.4279373255649404</v>
       </c>
       <c r="H2">
-        <v>2.240665436051756</v>
+        <v>0.003125310123442304</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001002046504327225</v>
       </c>
       <c r="J2">
-        <v>0.0312333311740467</v>
+        <v>0.3632959037073817</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5001988657680769</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08081659501026905</v>
       </c>
       <c r="M2">
-        <v>4.698078307721673</v>
+        <v>2.320412785624228</v>
       </c>
       <c r="N2">
-        <v>3.182383275740222</v>
+        <v>0.0698766388336729</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5376296980397939</v>
+      </c>
+      <c r="P2">
+        <v>1.047490548364465</v>
+      </c>
+      <c r="Q2">
+        <v>1.614976627688833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1344779431316709</v>
+        <v>0.1588452217467449</v>
       </c>
       <c r="D3">
-        <v>0.1689836099532727</v>
+        <v>0.1040100760650873</v>
       </c>
       <c r="E3">
-        <v>0.0634131182419555</v>
+        <v>0.07091444276374936</v>
       </c>
       <c r="F3">
-        <v>3.333353017128843</v>
+        <v>0.6682110145914919</v>
       </c>
       <c r="G3">
-        <v>3.857159060655761</v>
+        <v>0.4125444112255252</v>
       </c>
       <c r="H3">
-        <v>1.951736762599126</v>
+        <v>0.00460275481744743</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001739974561955737</v>
       </c>
       <c r="J3">
-        <v>0.03319288842841139</v>
+        <v>0.3599892408210295</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4831353561852509</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.07785155180080494</v>
       </c>
       <c r="M3">
-        <v>4.064589237728157</v>
+        <v>2.022510972513743</v>
       </c>
       <c r="N3">
-        <v>2.855339920828953</v>
+        <v>0.06774974688407553</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4710806282863587</v>
+      </c>
+      <c r="P3">
+        <v>1.03777854318291</v>
+      </c>
+      <c r="Q3">
+        <v>1.575148617808495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1206331301577563</v>
+        <v>0.1501400362960084</v>
       </c>
       <c r="D4">
-        <v>0.1544218276412437</v>
+        <v>0.09792958569658339</v>
       </c>
       <c r="E4">
-        <v>0.06061905729703732</v>
+        <v>0.06837290920980621</v>
       </c>
       <c r="F4">
-        <v>3.035145803069611</v>
+        <v>0.6537572499173265</v>
       </c>
       <c r="G4">
-        <v>3.485026420252325</v>
+        <v>0.4034443454758474</v>
       </c>
       <c r="H4">
-        <v>1.783060400964217</v>
+        <v>0.005693841352197748</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00240839588044528</v>
       </c>
       <c r="J4">
-        <v>0.03447049209141007</v>
+        <v>0.358206229674586</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4728444703735555</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.07598559275840344</v>
       </c>
       <c r="M4">
-        <v>3.681245311715969</v>
+        <v>1.838902872168859</v>
       </c>
       <c r="N4">
-        <v>2.655932361653356</v>
+        <v>0.06647421315216206</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4300746083779146</v>
+      </c>
+      <c r="P4">
+        <v>1.032515841401526</v>
+      </c>
+      <c r="Q4">
+        <v>1.551948711203309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1150880320878116</v>
+        <v>0.1461570197289888</v>
       </c>
       <c r="D5">
-        <v>0.1485619174584514</v>
+        <v>0.09547079511006018</v>
       </c>
       <c r="E5">
-        <v>0.05948547158255657</v>
+        <v>0.06730323675824579</v>
       </c>
       <c r="F5">
-        <v>2.916921325242498</v>
+        <v>0.647586903452023</v>
       </c>
       <c r="G5">
-        <v>3.33708988704737</v>
+        <v>0.3994908872047489</v>
       </c>
       <c r="H5">
-        <v>1.716194352630225</v>
+        <v>0.006186697920238904</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002807617939048601</v>
       </c>
       <c r="J5">
-        <v>0.03500952985394079</v>
+        <v>0.3573724402341441</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4682511553716537</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07517161791787075</v>
       </c>
       <c r="M5">
-        <v>3.526171510714619</v>
+        <v>1.763266592697931</v>
       </c>
       <c r="N5">
-        <v>2.574982648419962</v>
+        <v>0.06602537386252649</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4131328994092556</v>
+      </c>
+      <c r="P5">
+        <v>1.030824507645725</v>
+      </c>
+      <c r="Q5">
+        <v>1.541748199088047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.114172587400077</v>
+        <v>0.1450176213357679</v>
       </c>
       <c r="D6">
-        <v>0.1475928496639938</v>
+        <v>0.09507830151945029</v>
       </c>
       <c r="E6">
-        <v>0.05929751203627198</v>
+        <v>0.06708928498041011</v>
       </c>
       <c r="F6">
-        <v>2.897474084456292</v>
+        <v>0.6460915297878884</v>
       </c>
       <c r="G6">
-        <v>3.312731153785137</v>
+        <v>0.3984366267202617</v>
       </c>
       <c r="H6">
-        <v>1.705195699508494</v>
+        <v>0.006275705535037535</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002975622590000171</v>
       </c>
       <c r="J6">
-        <v>0.03510013918254806</v>
+        <v>0.3570325929042042</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4669477381581579</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.07498448151491921</v>
       </c>
       <c r="M6">
-        <v>3.500483413466185</v>
+        <v>1.749916147344976</v>
       </c>
       <c r="N6">
-        <v>2.561558652662143</v>
+        <v>0.06602956168277885</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4100795371043304</v>
+      </c>
+      <c r="P6">
+        <v>1.030900036280386</v>
+      </c>
+      <c r="Q6">
+        <v>1.538788901935447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.120557979509428</v>
+        <v>0.1487839609504391</v>
       </c>
       <c r="D7">
-        <v>0.1543425221757531</v>
+        <v>0.09793858332965044</v>
       </c>
       <c r="E7">
-        <v>0.06060375050299882</v>
+        <v>0.06826009081173545</v>
       </c>
       <c r="F7">
-        <v>3.033538737524111</v>
+        <v>0.6523698567771135</v>
       </c>
       <c r="G7">
-        <v>3.483017102333406</v>
+        <v>0.4022901535017098</v>
       </c>
       <c r="H7">
-        <v>1.782151440957989</v>
+        <v>0.005711840750067587</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002666572231199815</v>
       </c>
       <c r="J7">
-        <v>0.03447768763472325</v>
+        <v>0.35763535433302</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4712972267405036</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.07583485656282107</v>
       </c>
       <c r="M7">
-        <v>3.679149638109266</v>
+        <v>1.835744625385416</v>
       </c>
       <c r="N7">
-        <v>2.654839439200003</v>
+        <v>0.06668180079727293</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4291943800249882</v>
+      </c>
+      <c r="P7">
+        <v>1.03344820265233</v>
+      </c>
+      <c r="Q7">
+        <v>1.548304537565485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1496377056640483</v>
+        <v>0.1662390678106647</v>
       </c>
       <c r="D8">
-        <v>0.1848295007356171</v>
+        <v>0.1105781291609063</v>
       </c>
       <c r="E8">
-        <v>0.06641516141462134</v>
+        <v>0.07348167506762238</v>
       </c>
       <c r="F8">
-        <v>3.66443371978869</v>
+        <v>0.6822976458245193</v>
       </c>
       <c r="G8">
-        <v>4.268827964598529</v>
+        <v>0.4210970663033464</v>
       </c>
       <c r="H8">
-        <v>2.139021282349233</v>
+        <v>0.003607044008324567</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001511571582115678</v>
       </c>
       <c r="J8">
-        <v>0.03189335108751656</v>
+        <v>0.3613655967560661</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4923078521244406</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07961973245499721</v>
       </c>
       <c r="M8">
-        <v>4.47830759306261</v>
+        <v>2.214976766180001</v>
       </c>
       <c r="N8">
-        <v>3.069302040087933</v>
+        <v>0.06942022525857539</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5138421321387341</v>
+      </c>
+      <c r="P8">
+        <v>1.04530254696688</v>
+      </c>
+      <c r="Q8">
+        <v>1.596340461448591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2114360029294886</v>
+        <v>0.2013230343513044</v>
       </c>
       <c r="D9">
-        <v>0.2486478864471309</v>
+        <v>0.1355265906177152</v>
       </c>
       <c r="E9">
-        <v>0.07808005144778818</v>
+        <v>0.08376855589596133</v>
       </c>
       <c r="F9">
-        <v>5.055252725397452</v>
+        <v>0.7471398917736849</v>
       </c>
       <c r="G9">
-        <v>5.985562915141259</v>
+        <v>0.4629289117323765</v>
       </c>
       <c r="H9">
-        <v>2.925761876246042</v>
+        <v>0.001005635168495056</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0006705257842432033</v>
       </c>
       <c r="J9">
-        <v>0.02742985372301376</v>
+        <v>0.3717223676908645</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5377486682990167</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08693909572541614</v>
       </c>
       <c r="M9">
-        <v>6.105035443853524</v>
+        <v>2.957175667133725</v>
       </c>
       <c r="N9">
-        <v>3.895345297025273</v>
+        <v>0.07466775499687017</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.6799125708937694</v>
+      </c>
+      <c r="P9">
+        <v>1.072560212334025</v>
+      </c>
+      <c r="Q9">
+        <v>1.707345155567907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2616709298489042</v>
+        <v>0.2228167293494039</v>
       </c>
       <c r="D10">
-        <v>0.2999473153349328</v>
+        <v>0.1519235497477496</v>
       </c>
       <c r="E10">
-        <v>0.08695132413691908</v>
+        <v>0.0889244914147902</v>
       </c>
       <c r="F10">
-        <v>6.226131953093159</v>
+        <v>0.7889132421475935</v>
       </c>
       <c r="G10">
-        <v>7.419661996557636</v>
+        <v>0.4900746446247979</v>
       </c>
       <c r="H10">
-        <v>3.587972930827789</v>
+        <v>0.0003638314279981181</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001389513238983398</v>
       </c>
       <c r="J10">
-        <v>0.02453700407265025</v>
+        <v>0.377859585593427</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5660516321553075</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.08990787541790723</v>
       </c>
       <c r="M10">
-        <v>7.363188919438926</v>
+        <v>3.490430284857609</v>
       </c>
       <c r="N10">
-        <v>4.513981883436259</v>
+        <v>0.07617653028725968</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.792901979676806</v>
+      </c>
+      <c r="P10">
+        <v>1.10275738167941</v>
+      </c>
+      <c r="Q10">
+        <v>1.778171693940948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2861680302467988</v>
+        <v>0.2075681935744598</v>
       </c>
       <c r="D11">
-        <v>0.3248664472518641</v>
+        <v>0.1412635242368339</v>
       </c>
       <c r="E11">
-        <v>0.09109914345042469</v>
+        <v>0.07312400119860918</v>
       </c>
       <c r="F11">
-        <v>6.808300191087937</v>
+        <v>0.7390444581878413</v>
       </c>
       <c r="G11">
-        <v>8.129958364605329</v>
+        <v>0.457122181106044</v>
       </c>
       <c r="H11">
-        <v>3.917188125168423</v>
+        <v>0.01891794800359037</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002182580136218526</v>
       </c>
       <c r="J11">
-        <v>0.0233081423605892</v>
+        <v>0.3580351718850636</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5301418562618352</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07670728705867802</v>
       </c>
       <c r="M11">
-        <v>7.957552096547573</v>
+        <v>3.658442385495846</v>
       </c>
       <c r="N11">
-        <v>4.798976375379084</v>
+        <v>0.05865579696359902</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7729857825129187</v>
+      </c>
+      <c r="P11">
+        <v>1.172456615998925</v>
+      </c>
+      <c r="Q11">
+        <v>1.666967298115225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2957494832836574</v>
+        <v>0.1928250391396489</v>
       </c>
       <c r="D12">
-        <v>0.3346040190614588</v>
+        <v>0.1290656613284114</v>
       </c>
       <c r="E12">
-        <v>0.09269173422006105</v>
+        <v>0.06132623074489274</v>
       </c>
       <c r="F12">
-        <v>7.03784973394383</v>
+        <v>0.6907580009997574</v>
       </c>
       <c r="G12">
-        <v>8.409607891663939</v>
+        <v>0.425677395980415</v>
       </c>
       <c r="H12">
-        <v>4.046992608343544</v>
+        <v>0.05762479071506732</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002228291967161233</v>
       </c>
       <c r="J12">
-        <v>0.02285550189492547</v>
+        <v>0.3409248473554243</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4966987254283666</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07079215786249793</v>
       </c>
       <c r="M12">
-        <v>8.186749919336961</v>
+        <v>3.689626065402365</v>
       </c>
       <c r="N12">
-        <v>4.9075136555835</v>
+        <v>0.04931458222730978</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7334440706306538</v>
+      </c>
+      <c r="P12">
+        <v>1.22696584853432</v>
+      </c>
+      <c r="Q12">
+        <v>1.564532958268813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2936710659493116</v>
+        <v>0.1756654396471191</v>
       </c>
       <c r="D13">
-        <v>0.3324920213636489</v>
+        <v>0.1151093671133978</v>
       </c>
       <c r="E13">
-        <v>0.09234765158465308</v>
+        <v>0.0517920451615872</v>
       </c>
       <c r="F13">
-        <v>6.987969597234411</v>
+        <v>0.6388487856610965</v>
       </c>
       <c r="G13">
-        <v>8.34886026800541</v>
+        <v>0.3917996897624789</v>
       </c>
       <c r="H13">
-        <v>4.018786861419528</v>
+        <v>0.1134562338738903</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002029069790150828</v>
       </c>
       <c r="J13">
-        <v>0.02295241982773</v>
+        <v>0.3239891228985812</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.4609067601856154</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06982632905233821</v>
       </c>
       <c r="M13">
-        <v>8.137186067152214</v>
+        <v>3.613648807872153</v>
       </c>
       <c r="N13">
-        <v>4.884108953237728</v>
+        <v>0.04595590938780081</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6757792830571034</v>
+      </c>
+      <c r="P13">
+        <v>1.273440424560434</v>
+      </c>
+      <c r="Q13">
+        <v>1.457224188581563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2869497239946952</v>
+        <v>0.1624271351955997</v>
       </c>
       <c r="D14">
-        <v>0.3256610165347524</v>
+        <v>0.1046938079937192</v>
       </c>
       <c r="E14">
-        <v>0.0912296870873881</v>
+        <v>0.0465019890408227</v>
       </c>
       <c r="F14">
-        <v>6.826989621232883</v>
+        <v>0.6009629928047673</v>
       </c>
       <c r="G14">
-        <v>8.152735302098904</v>
+        <v>0.3669804860513963</v>
       </c>
       <c r="H14">
-        <v>3.927756625586142</v>
+        <v>0.1628880867159666</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001878763953249596</v>
       </c>
       <c r="J14">
-        <v>0.02327064824380543</v>
+        <v>0.3121852166216073</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.434704401360662</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.0720962438473105</v>
       </c>
       <c r="M14">
-        <v>7.976319100994687</v>
+        <v>3.511464350593769</v>
       </c>
       <c r="N14">
-        <v>4.807892794824852</v>
+        <v>0.04707216018492666</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.627441409611869</v>
+      </c>
+      <c r="P14">
+        <v>1.302701483238593</v>
+      </c>
+      <c r="Q14">
+        <v>1.379834766871326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2828748028750852</v>
+        <v>0.1582483298547004</v>
       </c>
       <c r="D15">
-        <v>0.3215186565518735</v>
+        <v>0.1017760348743906</v>
       </c>
       <c r="E15">
-        <v>0.09054796155762901</v>
+        <v>0.04537006585071168</v>
       </c>
       <c r="F15">
-        <v>6.729637958447967</v>
+        <v>0.5905358653877357</v>
       </c>
       <c r="G15">
-        <v>8.034075280530146</v>
+        <v>0.3600541548903919</v>
       </c>
       <c r="H15">
-        <v>3.87270599160172</v>
+        <v>0.1754418441524308</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001911192356197411</v>
       </c>
       <c r="J15">
-        <v>0.02346722961218362</v>
+        <v>0.3091774384060102</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4273282072089657</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.07297054651677115</v>
       </c>
       <c r="M15">
-        <v>7.878354171189585</v>
+        <v>3.463156378028998</v>
       </c>
       <c r="N15">
-        <v>4.761291817498488</v>
+        <v>0.04777210018706413</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.6116733680737596</v>
+      </c>
+      <c r="P15">
+        <v>1.307983406394882</v>
+      </c>
+      <c r="Q15">
+        <v>1.358820453548702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.260108485597911</v>
+        <v>0.1523127944562077</v>
       </c>
       <c r="D16">
-        <v>0.2983564148513977</v>
+        <v>0.0979085879867938</v>
       </c>
       <c r="E16">
-        <v>0.08668295918437252</v>
+        <v>0.04527049982865528</v>
       </c>
       <c r="F16">
-        <v>6.189238244894909</v>
+        <v>0.5828235933046031</v>
       </c>
       <c r="G16">
-        <v>7.374593078957048</v>
+        <v>0.3548085371232688</v>
       </c>
       <c r="H16">
-        <v>3.567108813975779</v>
+        <v>0.162968981601054</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001713453548895849</v>
       </c>
       <c r="J16">
-        <v>0.02461908379350142</v>
+        <v>0.3096277255157531</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4219711598289138</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07179989546469834</v>
       </c>
       <c r="M16">
-        <v>7.32486460572693</v>
+        <v>3.249213015835608</v>
       </c>
       <c r="N16">
-        <v>4.49543700596206</v>
+        <v>0.04775966072141458</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5759998242971065</v>
+      </c>
+      <c r="P16">
+        <v>1.282942066573369</v>
+      </c>
+      <c r="Q16">
+        <v>1.348464101930006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2466061113060647</v>
+        <v>0.1545737768084621</v>
       </c>
       <c r="D17">
-        <v>0.2845980071224119</v>
+        <v>0.1003922046316035</v>
       </c>
       <c r="E17">
-        <v>0.08434414033455084</v>
+        <v>0.04773853644649062</v>
       </c>
       <c r="F17">
-        <v>5.871637976435551</v>
+        <v>0.5968735984299869</v>
       </c>
       <c r="G17">
-        <v>6.98632076022534</v>
+        <v>0.3638785776327538</v>
       </c>
       <c r="H17">
-        <v>3.387495193606071</v>
+        <v>0.125364714629896</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001682223516620951</v>
       </c>
       <c r="J17">
-        <v>0.02534818124451199</v>
+        <v>0.3162335140064769</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4316184002672188</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06919776070102124</v>
       </c>
       <c r="M17">
-        <v>6.991554598394913</v>
+        <v>3.139440265394285</v>
       </c>
       <c r="N17">
-        <v>4.333325488241513</v>
+        <v>0.04668057131835468</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5740100704505338</v>
+      </c>
+      <c r="P17">
+        <v>1.248607500520293</v>
+      </c>
+      <c r="Q17">
+        <v>1.381417550732422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2389896853667182</v>
+        <v>0.1654254586267143</v>
       </c>
       <c r="D18">
-        <v>0.2768280057553483</v>
+        <v>0.1088234433150816</v>
       </c>
       <c r="E18">
-        <v>0.0830090367943086</v>
+        <v>0.05399424273198505</v>
       </c>
       <c r="F18">
-        <v>5.693478930597138</v>
+        <v>0.6326594388354891</v>
       </c>
       <c r="G18">
-        <v>6.768274752253603</v>
+        <v>0.3873805107508019</v>
       </c>
       <c r="H18">
-        <v>3.286736597083461</v>
+        <v>0.07258215931825873</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001447167089825285</v>
       </c>
       <c r="J18">
-        <v>0.02577573248853327</v>
+        <v>0.3293671190775385</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.456727046397539</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0678080520182136</v>
       </c>
       <c r="M18">
-        <v>6.801845409119949</v>
+        <v>3.10794980167293</v>
       </c>
       <c r="N18">
-        <v>4.240412437604107</v>
+        <v>0.04752696979750359</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6015923558680569</v>
+      </c>
+      <c r="P18">
+        <v>1.202693809545607</v>
+      </c>
+      <c r="Q18">
+        <v>1.458688713945307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2364348465758468</v>
+        <v>0.1809936178925966</v>
       </c>
       <c r="D19">
-        <v>0.2742199744504177</v>
+        <v>0.1219263839177245</v>
       </c>
       <c r="E19">
-        <v>0.082558588645405</v>
+        <v>0.06464945499365449</v>
       </c>
       <c r="F19">
-        <v>5.633881862603971</v>
+        <v>0.6823599025494147</v>
       </c>
       <c r="G19">
-        <v>6.695293817217475</v>
+        <v>0.4197380570884093</v>
       </c>
       <c r="H19">
-        <v>3.253030608601591</v>
+        <v>0.02719428346063779</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001584159542019847</v>
       </c>
       <c r="J19">
-        <v>0.02592189401954315</v>
+        <v>0.3461668561773195</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4908856764478671</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07153345514706544</v>
       </c>
       <c r="M19">
-        <v>6.737932178930947</v>
+        <v>3.137053954094313</v>
       </c>
       <c r="N19">
-        <v>4.209007425657632</v>
+        <v>0.05425375854150438</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6506258964292684</v>
+      </c>
+      <c r="P19">
+        <v>1.155071975099105</v>
+      </c>
+      <c r="Q19">
+        <v>1.56245821106441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2480275274779729</v>
+        <v>0.2130385831432164</v>
       </c>
       <c r="D20">
-        <v>0.2860473038124809</v>
+        <v>0.1476527714920621</v>
       </c>
       <c r="E20">
-        <v>0.08459202859958381</v>
+        <v>0.08717815842628696</v>
       </c>
       <c r="F20">
-        <v>5.904967174491361</v>
+        <v>0.7733812966184459</v>
       </c>
       <c r="G20">
-        <v>7.02709192420923</v>
+        <v>0.4791574155128302</v>
       </c>
       <c r="H20">
-        <v>3.406344360852529</v>
+        <v>0.0004528930249918517</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001868218505750363</v>
       </c>
       <c r="J20">
-        <v>0.02526971789917631</v>
+        <v>0.374323219516711</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5536944510646578</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08863306324979803</v>
       </c>
       <c r="M20">
-        <v>7.0268227758568</v>
+        <v>3.34339104028254</v>
       </c>
       <c r="N20">
-        <v>4.35054778880459</v>
+        <v>0.07630945216301654</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7608609074224049</v>
+      </c>
+      <c r="P20">
+        <v>1.098081157270258</v>
+      </c>
+      <c r="Q20">
+        <v>1.747511019243063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.288915019480811</v>
+        <v>0.2342242973573576</v>
       </c>
       <c r="D21">
-        <v>0.3276585637738236</v>
+        <v>0.1635648039456754</v>
       </c>
       <c r="E21">
-        <v>0.09155740913366017</v>
+        <v>0.09471816504565922</v>
       </c>
       <c r="F21">
-        <v>6.874007756514118</v>
+        <v>0.8193799135793753</v>
       </c>
       <c r="G21">
-        <v>8.210029897492575</v>
+        <v>0.5094128054161047</v>
       </c>
       <c r="H21">
-        <v>3.954344363539917</v>
+        <v>8.013868105338773E-06</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.00270501546993529</v>
       </c>
       <c r="J21">
-        <v>0.02317683135768611</v>
+        <v>0.3838407535292845</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5852223123906413</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.0942490968204055</v>
       </c>
       <c r="M21">
-        <v>8.023448536827345</v>
+        <v>3.765436502881926</v>
       </c>
       <c r="N21">
-        <v>4.830261688217774</v>
+        <v>0.08150374253254355</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.8603201425876392</v>
+      </c>
+      <c r="P21">
+        <v>1.113054676522182</v>
+      </c>
+      <c r="Q21">
+        <v>1.831902449024426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3174634997429564</v>
+        <v>0.2482516988127088</v>
       </c>
       <c r="D22">
-        <v>0.3566638990156008</v>
+        <v>0.172866729308879</v>
       </c>
       <c r="E22">
-        <v>0.09624181844707635</v>
+        <v>0.09860207600142346</v>
       </c>
       <c r="F22">
-        <v>7.56175210946131</v>
+        <v>0.8477210310329895</v>
       </c>
       <c r="G22">
-        <v>9.047052116855866</v>
+        <v>0.5284792130908471</v>
       </c>
       <c r="H22">
-        <v>4.343238508133595</v>
+        <v>4.333287536995023E-05</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003215661335278952</v>
       </c>
       <c r="J22">
-        <v>0.02188301620281763</v>
+        <v>0.3897611873571662</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6052396530773336</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09697847814215166</v>
       </c>
       <c r="M22">
-        <v>8.699534111226342</v>
+        <v>4.039680193653453</v>
       </c>
       <c r="N22">
-        <v>5.147437464210952</v>
+        <v>0.08329423215088028</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.9220092493511842</v>
+      </c>
+      <c r="P22">
+        <v>1.125183136191183</v>
+      </c>
+      <c r="Q22">
+        <v>1.884922406027897</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3020309918905326</v>
+        <v>0.2423397563288319</v>
       </c>
       <c r="D23">
-        <v>0.3409862885830819</v>
+        <v>0.1678469439440562</v>
       </c>
       <c r="E23">
-        <v>0.09372704073980032</v>
+        <v>0.09664498075420624</v>
       </c>
       <c r="F23">
-        <v>7.188886566711119</v>
+        <v>0.8340764770599165</v>
       </c>
       <c r="G23">
-        <v>8.593488912012049</v>
+        <v>0.5195578372267562</v>
       </c>
       <c r="H23">
-        <v>4.132398846802175</v>
+        <v>2.728039238286684E-06</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002633168865709301</v>
       </c>
       <c r="J23">
-        <v>0.02256675967209176</v>
+        <v>0.3872255977977375</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5962863851569438</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.09568528737348458</v>
       </c>
       <c r="M23">
-        <v>8.336029927875813</v>
+        <v>3.895977745230766</v>
       </c>
       <c r="N23">
-        <v>4.977780668030789</v>
+        <v>0.08207576603354028</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.8898884353376886</v>
+      </c>
+      <c r="P23">
+        <v>1.117360814843792</v>
+      </c>
+      <c r="Q23">
+        <v>1.86059283245379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2473844544916943</v>
+        <v>0.2171744020944999</v>
       </c>
       <c r="D24">
-        <v>0.285391646253899</v>
+        <v>0.1490011640022146</v>
       </c>
       <c r="E24">
-        <v>0.08447992908188695</v>
+        <v>0.08904004376293173</v>
       </c>
       <c r="F24">
-        <v>5.889885374626061</v>
+        <v>0.7812058002267221</v>
       </c>
       <c r="G24">
-        <v>7.008643322752789</v>
+        <v>0.484722138444198</v>
       </c>
       <c r="H24">
-        <v>3.397814933215557</v>
+        <v>0.0003088807876332478</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001397704420968537</v>
       </c>
       <c r="J24">
-        <v>0.02530516508067748</v>
+        <v>0.3772009191474268</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5601757442229101</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09047601728201471</v>
       </c>
       <c r="M24">
-        <v>7.010872135534925</v>
+        <v>3.346800389348005</v>
       </c>
       <c r="N24">
-        <v>4.342760700139422</v>
+        <v>0.07794814303903763</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.7668410039536582</v>
+      </c>
+      <c r="P24">
+        <v>1.091381668062368</v>
+      </c>
+      <c r="Q24">
+        <v>1.765331702859271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1940342567738185</v>
+        <v>0.1896161272453156</v>
       </c>
       <c r="D25">
-        <v>0.2307783598193822</v>
+        <v>0.1288262020554498</v>
       </c>
       <c r="E25">
-        <v>0.07488379184064087</v>
+        <v>0.08082106402738631</v>
       </c>
       <c r="F25">
-        <v>4.657575548786212</v>
+        <v>0.7268017492247623</v>
       </c>
       <c r="G25">
-        <v>5.496429212071234</v>
+        <v>0.4492733755638199</v>
       </c>
       <c r="H25">
-        <v>2.70082111937694</v>
+        <v>0.00154225964579624</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001112084934036695</v>
       </c>
       <c r="J25">
-        <v>0.02857072525855031</v>
+        <v>0.3676857789613877</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5225835891228314</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08474628226780112</v>
       </c>
       <c r="M25">
-        <v>5.656195504509213</v>
+        <v>2.752972500830623</v>
       </c>
       <c r="N25">
-        <v>3.670114558460398</v>
+        <v>0.07360871453412443</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.6338929982697081</v>
+      </c>
+      <c r="P25">
+        <v>1.066390997535763</v>
+      </c>
+      <c r="Q25">
+        <v>1.669776793623726</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_42/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1727201401996581</v>
+        <v>0.1225499173631093</v>
       </c>
       <c r="D2">
-        <v>0.1139577735620634</v>
+        <v>0.1156243683538065</v>
       </c>
       <c r="E2">
-        <v>0.07502567795638448</v>
+        <v>0.07159053657596814</v>
       </c>
       <c r="F2">
-        <v>0.6924918850480921</v>
+        <v>0.6454039516790502</v>
       </c>
       <c r="G2">
-        <v>0.4279373255649404</v>
+        <v>0.372828047285239</v>
       </c>
       <c r="H2">
-        <v>0.003125310123442304</v>
+        <v>0.002666166306488305</v>
       </c>
       <c r="I2">
-        <v>0.001002046504327225</v>
+        <v>0.0007653327006442723</v>
       </c>
       <c r="J2">
-        <v>0.3632959037073817</v>
+        <v>0.3692153241920195</v>
       </c>
       <c r="K2">
-        <v>0.5001988657680769</v>
+        <v>0.4428175384913366</v>
       </c>
       <c r="L2">
-        <v>0.08081659501026905</v>
+        <v>0.213046817401036</v>
       </c>
       <c r="M2">
-        <v>2.320412785624228</v>
+        <v>0.1264471710184729</v>
       </c>
       <c r="N2">
-        <v>0.0698766388336729</v>
+        <v>0.07515503306483851</v>
       </c>
       <c r="O2">
-        <v>0.5376296980397939</v>
+        <v>2.262405140659496</v>
       </c>
       <c r="P2">
-        <v>1.047490548364465</v>
+        <v>0.0834754718508286</v>
       </c>
       <c r="Q2">
-        <v>1.614976627688833</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5181293336270514</v>
+      </c>
+      <c r="R2">
+        <v>1.067906361658814</v>
+      </c>
+      <c r="S2">
+        <v>1.485779559844985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1588452217467449</v>
+        <v>0.1139507233267594</v>
       </c>
       <c r="D3">
-        <v>0.1040100760650873</v>
+        <v>0.1055559660558316</v>
       </c>
       <c r="E3">
-        <v>0.07091444276374936</v>
+        <v>0.06797229357977841</v>
       </c>
       <c r="F3">
-        <v>0.6682110145914919</v>
+        <v>0.6259198031499693</v>
       </c>
       <c r="G3">
-        <v>0.4125444112255252</v>
+        <v>0.3625485317781738</v>
       </c>
       <c r="H3">
-        <v>0.00460275481744743</v>
+        <v>0.003925949442608656</v>
       </c>
       <c r="I3">
-        <v>0.001739974561955737</v>
+        <v>0.001197642747299721</v>
       </c>
       <c r="J3">
-        <v>0.3599892408210295</v>
+        <v>0.3651212065561893</v>
       </c>
       <c r="K3">
-        <v>0.4831353561852509</v>
+        <v>0.430983121505065</v>
       </c>
       <c r="L3">
-        <v>0.07785155180080494</v>
+        <v>0.2144424141469976</v>
       </c>
       <c r="M3">
-        <v>2.022510972513743</v>
+        <v>0.1174872795143784</v>
       </c>
       <c r="N3">
-        <v>0.06774974688407553</v>
+        <v>0.07277295646015425</v>
       </c>
       <c r="O3">
-        <v>0.4710806282863587</v>
+        <v>1.975790058482204</v>
       </c>
       <c r="P3">
-        <v>1.03777854318291</v>
+        <v>0.08070519879362692</v>
       </c>
       <c r="Q3">
-        <v>1.575148617808495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4548232243097345</v>
+      </c>
+      <c r="R3">
+        <v>1.05107609288379</v>
+      </c>
+      <c r="S3">
+        <v>1.457921509126407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1501400362960084</v>
+        <v>0.1084633127206089</v>
       </c>
       <c r="D4">
-        <v>0.09792958569658339</v>
+        <v>0.09940616510252909</v>
       </c>
       <c r="E4">
-        <v>0.06837290920980621</v>
+        <v>0.06573022839699405</v>
       </c>
       <c r="F4">
-        <v>0.6537572499173265</v>
+        <v>0.6142976770189463</v>
       </c>
       <c r="G4">
-        <v>0.4034443454758474</v>
+        <v>0.3565818332370512</v>
       </c>
       <c r="H4">
-        <v>0.005693841352197748</v>
+        <v>0.004856750220994965</v>
       </c>
       <c r="I4">
-        <v>0.00240839588044528</v>
+        <v>0.001638034104771258</v>
       </c>
       <c r="J4">
-        <v>0.358206229674586</v>
+        <v>0.362685412419836</v>
       </c>
       <c r="K4">
-        <v>0.4728444703735555</v>
+        <v>0.4237861185952916</v>
       </c>
       <c r="L4">
-        <v>0.07598559275840344</v>
+        <v>0.2152340422282073</v>
       </c>
       <c r="M4">
-        <v>1.838902872168859</v>
+        <v>0.11261083536154</v>
       </c>
       <c r="N4">
-        <v>0.06647421315216206</v>
+        <v>0.07126297981615082</v>
       </c>
       <c r="O4">
-        <v>0.4300746083779146</v>
+        <v>1.798935358856113</v>
       </c>
       <c r="P4">
-        <v>1.032515841401526</v>
+        <v>0.07906763947057982</v>
       </c>
       <c r="Q4">
-        <v>1.551948711203309</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4157582319486508</v>
+      </c>
+      <c r="R4">
+        <v>1.041508627142136</v>
+      </c>
+      <c r="S4">
+        <v>1.441745233373936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1461570197289888</v>
+        <v>0.1058498190793813</v>
       </c>
       <c r="D5">
-        <v>0.09547079511006018</v>
+        <v>0.09692063297082854</v>
       </c>
       <c r="E5">
-        <v>0.06730323675824579</v>
+        <v>0.06478290452516866</v>
       </c>
       <c r="F5">
-        <v>0.647586903452023</v>
+        <v>0.6092695362764786</v>
       </c>
       <c r="G5">
-        <v>0.3994908872047489</v>
+        <v>0.3539259483173041</v>
       </c>
       <c r="H5">
-        <v>0.006186697920238904</v>
+        <v>0.005277428501335168</v>
       </c>
       <c r="I5">
-        <v>0.002807617939048601</v>
+        <v>0.001946151371632787</v>
       </c>
       <c r="J5">
-        <v>0.3573724402341441</v>
+        <v>0.3615438432671425</v>
       </c>
       <c r="K5">
-        <v>0.4682511553716537</v>
+        <v>0.4204565582168307</v>
       </c>
       <c r="L5">
-        <v>0.07517161791787075</v>
+        <v>0.2153450681649751</v>
       </c>
       <c r="M5">
-        <v>1.763266592697931</v>
+        <v>0.1106635330996841</v>
       </c>
       <c r="N5">
-        <v>0.06602537386252649</v>
+        <v>0.07059739295531742</v>
       </c>
       <c r="O5">
-        <v>0.4131328994092556</v>
+        <v>1.726018186846886</v>
       </c>
       <c r="P5">
-        <v>1.030824507645725</v>
+        <v>0.07848873825444258</v>
       </c>
       <c r="Q5">
-        <v>1.541748199088047</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3995987918953432</v>
+      </c>
+      <c r="R5">
+        <v>1.038094134430352</v>
+      </c>
+      <c r="S5">
+        <v>1.434381212278979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1450176213357679</v>
+        <v>0.1050162038610338</v>
       </c>
       <c r="D6">
-        <v>0.09507830151945029</v>
+        <v>0.09652408227697862</v>
       </c>
       <c r="E6">
-        <v>0.06708928498041011</v>
+        <v>0.06459054457206292</v>
       </c>
       <c r="F6">
-        <v>0.6460915297878884</v>
+        <v>0.607981815535851</v>
       </c>
       <c r="G6">
-        <v>0.3984366267202617</v>
+        <v>0.3531145899442549</v>
       </c>
       <c r="H6">
-        <v>0.006275705535037535</v>
+        <v>0.005353527323385288</v>
       </c>
       <c r="I6">
-        <v>0.002975622590000171</v>
+        <v>0.002114099690744276</v>
       </c>
       <c r="J6">
-        <v>0.3570325929042042</v>
+        <v>0.3611500784450072</v>
       </c>
       <c r="K6">
-        <v>0.4669477381581579</v>
+        <v>0.4194001629962578</v>
       </c>
       <c r="L6">
-        <v>0.07498448151491921</v>
+        <v>0.2151247890191712</v>
       </c>
       <c r="M6">
-        <v>1.749916147344976</v>
+        <v>0.1102065364297324</v>
       </c>
       <c r="N6">
-        <v>0.06602956168277885</v>
+        <v>0.07043951805839299</v>
       </c>
       <c r="O6">
-        <v>0.4100795371043304</v>
+        <v>1.713128658223184</v>
       </c>
       <c r="P6">
-        <v>1.030900036280386</v>
+        <v>0.07848323635693788</v>
       </c>
       <c r="Q6">
-        <v>1.538788901935447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3966788671559129</v>
+      </c>
+      <c r="R6">
+        <v>1.037902170517043</v>
+      </c>
+      <c r="S6">
+        <v>1.431954299932386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1487839609504391</v>
+        <v>0.1074617453192488</v>
       </c>
       <c r="D7">
-        <v>0.09793858332965044</v>
+        <v>0.09954617233989183</v>
       </c>
       <c r="E7">
-        <v>0.06826009081173545</v>
+        <v>0.06564574392140088</v>
       </c>
       <c r="F7">
-        <v>0.6523698567771135</v>
+        <v>0.6122949755331391</v>
       </c>
       <c r="G7">
-        <v>0.4022901535017098</v>
+        <v>0.3581228357559496</v>
       </c>
       <c r="H7">
-        <v>0.005711840750067587</v>
+        <v>0.004876855991504891</v>
       </c>
       <c r="I7">
-        <v>0.002666572231199815</v>
+        <v>0.001938152299882923</v>
       </c>
       <c r="J7">
-        <v>0.35763535433302</v>
+        <v>0.3583519091403815</v>
       </c>
       <c r="K7">
-        <v>0.4712972267405036</v>
+        <v>0.4218936152157546</v>
       </c>
       <c r="L7">
-        <v>0.07583485656282107</v>
+        <v>0.214384167679345</v>
       </c>
       <c r="M7">
-        <v>1.835744625385416</v>
+        <v>0.1120407985530356</v>
       </c>
       <c r="N7">
-        <v>0.06668180079727293</v>
+        <v>0.07111538203452916</v>
       </c>
       <c r="O7">
-        <v>0.4291943800249882</v>
+        <v>1.794451025233627</v>
       </c>
       <c r="P7">
-        <v>1.03344820265233</v>
+        <v>0.07930298293292637</v>
       </c>
       <c r="Q7">
-        <v>1.548304537565485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4147195342653092</v>
+      </c>
+      <c r="R7">
+        <v>1.043057465802875</v>
+      </c>
+      <c r="S7">
+        <v>1.436298935582613</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1662390678106647</v>
+        <v>0.118592315233002</v>
       </c>
       <c r="D8">
-        <v>0.1105781291609063</v>
+        <v>0.1126412872101454</v>
       </c>
       <c r="E8">
-        <v>0.07348167506762238</v>
+        <v>0.070300691355353</v>
       </c>
       <c r="F8">
-        <v>0.6822976458245193</v>
+        <v>0.6346969274300065</v>
       </c>
       <c r="G8">
-        <v>0.4210970663033464</v>
+        <v>0.3765760304618411</v>
       </c>
       <c r="H8">
-        <v>0.003607044008324567</v>
+        <v>0.003088029268231152</v>
       </c>
       <c r="I8">
-        <v>0.001511571582115678</v>
+        <v>0.001234422781740463</v>
       </c>
       <c r="J8">
-        <v>0.3613655967560661</v>
+        <v>0.3548142444431193</v>
       </c>
       <c r="K8">
-        <v>0.4923078521244406</v>
+        <v>0.4353574920827157</v>
       </c>
       <c r="L8">
-        <v>0.07961973245499721</v>
+        <v>0.212099067846772</v>
       </c>
       <c r="M8">
-        <v>2.214976766180001</v>
+        <v>0.122130278496126</v>
       </c>
       <c r="N8">
-        <v>0.06942022525857539</v>
+        <v>0.07414123381176374</v>
       </c>
       <c r="O8">
-        <v>0.5138421321387341</v>
+        <v>2.156265786153568</v>
       </c>
       <c r="P8">
-        <v>1.04530254696688</v>
+        <v>0.0828296239084132</v>
       </c>
       <c r="Q8">
-        <v>1.596340461448591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4948809368778626</v>
+      </c>
+      <c r="R8">
+        <v>1.065358665525707</v>
+      </c>
+      <c r="S8">
+        <v>1.464912232070958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2013230343513044</v>
+        <v>0.1402603685004635</v>
       </c>
       <c r="D9">
-        <v>0.1355265906177152</v>
+        <v>0.138041943903275</v>
       </c>
       <c r="E9">
-        <v>0.08376855589596133</v>
+        <v>0.07935713704197767</v>
       </c>
       <c r="F9">
-        <v>0.7471398917736849</v>
+        <v>0.6862156579105019</v>
       </c>
       <c r="G9">
-        <v>0.4629289117323765</v>
+        <v>0.4079641321258833</v>
       </c>
       <c r="H9">
-        <v>0.001005635168495056</v>
+        <v>0.000866356575654148</v>
       </c>
       <c r="I9">
-        <v>0.0006705257842432033</v>
+        <v>0.0008595465384511058</v>
       </c>
       <c r="J9">
-        <v>0.3717223676908645</v>
+        <v>0.3627919914594315</v>
       </c>
       <c r="K9">
-        <v>0.5377486682990167</v>
+        <v>0.4665290800226174</v>
       </c>
       <c r="L9">
-        <v>0.08693909572541614</v>
+        <v>0.2089278619721675</v>
       </c>
       <c r="M9">
-        <v>2.957175667133725</v>
+        <v>0.1482234216490639</v>
       </c>
       <c r="N9">
-        <v>0.07466775499687017</v>
+        <v>0.07997189009518202</v>
       </c>
       <c r="O9">
-        <v>0.6799125708937694</v>
+        <v>2.867820581161482</v>
       </c>
       <c r="P9">
-        <v>1.072560212334025</v>
+        <v>0.0898356397204445</v>
       </c>
       <c r="Q9">
-        <v>1.707345155567907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.6523672358703365</v>
+      </c>
+      <c r="R9">
+        <v>1.111372539193084</v>
+      </c>
+      <c r="S9">
+        <v>1.542095968077064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2228167293494039</v>
+        <v>0.1535704644034723</v>
       </c>
       <c r="D10">
-        <v>0.1519235497477496</v>
+        <v>0.1555384265796391</v>
       </c>
       <c r="E10">
-        <v>0.0889244914147902</v>
+        <v>0.08386582555259281</v>
       </c>
       <c r="F10">
-        <v>0.7889132421475935</v>
+        <v>0.7145437374875314</v>
       </c>
       <c r="G10">
-        <v>0.4900746446247979</v>
+        <v>0.4438748418660197</v>
       </c>
       <c r="H10">
-        <v>0.0003638314279981181</v>
+        <v>0.0003476058626938894</v>
       </c>
       <c r="I10">
-        <v>0.001389513238983398</v>
+        <v>0.001698317011181061</v>
       </c>
       <c r="J10">
-        <v>0.377859585593427</v>
+        <v>0.3465328446777178</v>
       </c>
       <c r="K10">
-        <v>0.5660516321553075</v>
+        <v>0.4821145300892766</v>
       </c>
       <c r="L10">
-        <v>0.08990787541790723</v>
+        <v>0.2035198962900218</v>
       </c>
       <c r="M10">
-        <v>3.490430284857609</v>
+        <v>0.1673807378176484</v>
       </c>
       <c r="N10">
-        <v>0.07617653028725968</v>
+        <v>0.08212365339314331</v>
       </c>
       <c r="O10">
-        <v>0.792901979676806</v>
+        <v>3.370022467751824</v>
       </c>
       <c r="P10">
-        <v>1.10275738167941</v>
+        <v>0.09224455131761289</v>
       </c>
       <c r="Q10">
-        <v>1.778171693940948</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.7580826959236475</v>
+      </c>
+      <c r="R10">
+        <v>1.159626839196122</v>
+      </c>
+      <c r="S10">
+        <v>1.577114286028461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2075681935744598</v>
+        <v>0.1441237967129325</v>
       </c>
       <c r="D11">
-        <v>0.1412635242368339</v>
+        <v>0.1462777679291065</v>
       </c>
       <c r="E11">
-        <v>0.07312400119860918</v>
+        <v>0.06906320614802119</v>
       </c>
       <c r="F11">
-        <v>0.7390444581878413</v>
+        <v>0.6602384685505882</v>
       </c>
       <c r="G11">
-        <v>0.457122181106044</v>
+        <v>0.447098327728412</v>
       </c>
       <c r="H11">
-        <v>0.01891794800359037</v>
+        <v>0.0189187498076393</v>
       </c>
       <c r="I11">
-        <v>0.002182580136218526</v>
+        <v>0.002569978946366014</v>
       </c>
       <c r="J11">
-        <v>0.3580351718850636</v>
+        <v>0.2932507609499808</v>
       </c>
       <c r="K11">
-        <v>0.5301418562618352</v>
+        <v>0.4451750537391987</v>
       </c>
       <c r="L11">
-        <v>0.07670728705867802</v>
+        <v>0.1857480303215517</v>
       </c>
       <c r="M11">
-        <v>3.658442385495846</v>
+        <v>0.1586229231334748</v>
       </c>
       <c r="N11">
-        <v>0.05865579696359902</v>
+        <v>0.07137830226107056</v>
       </c>
       <c r="O11">
-        <v>0.7729857825129187</v>
+        <v>3.517109119506415</v>
       </c>
       <c r="P11">
-        <v>1.172456615998925</v>
+        <v>0.07027644565931013</v>
       </c>
       <c r="Q11">
-        <v>1.666967298115225</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7365686759800312</v>
+      </c>
+      <c r="R11">
+        <v>1.245499247168937</v>
+      </c>
+      <c r="S11">
+        <v>1.452176264861151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1928250391396489</v>
+        <v>0.1349660665472356</v>
       </c>
       <c r="D12">
-        <v>0.1290656613284114</v>
+        <v>0.134452917372613</v>
       </c>
       <c r="E12">
-        <v>0.06132623074489274</v>
+        <v>0.05805301982461053</v>
       </c>
       <c r="F12">
-        <v>0.6907580009997574</v>
+        <v>0.6137403310443048</v>
       </c>
       <c r="G12">
-        <v>0.425677395980415</v>
+        <v>0.4332005493809561</v>
       </c>
       <c r="H12">
-        <v>0.05762479071506732</v>
+        <v>0.05762986066113029</v>
       </c>
       <c r="I12">
-        <v>0.002228291967161233</v>
+        <v>0.002605006852839153</v>
       </c>
       <c r="J12">
-        <v>0.3409248473554243</v>
+        <v>0.2675015135611289</v>
       </c>
       <c r="K12">
-        <v>0.4966987254283666</v>
+        <v>0.4152036430578647</v>
       </c>
       <c r="L12">
-        <v>0.07079215786249793</v>
+        <v>0.1738036940244037</v>
       </c>
       <c r="M12">
-        <v>3.689626065402365</v>
+        <v>0.1485177735534151</v>
       </c>
       <c r="N12">
-        <v>0.04931458222730978</v>
+        <v>0.06761074371203768</v>
       </c>
       <c r="O12">
-        <v>0.7334440706306538</v>
+        <v>3.542532793650594</v>
       </c>
       <c r="P12">
-        <v>1.22696584853432</v>
+        <v>0.05708031313450768</v>
       </c>
       <c r="Q12">
-        <v>1.564532958268813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.6979519757418871</v>
+      </c>
+      <c r="R12">
+        <v>1.30749963505157</v>
+      </c>
+      <c r="S12">
+        <v>1.35354933809127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1756654396471191</v>
+        <v>0.1237062253789745</v>
       </c>
       <c r="D13">
-        <v>0.1151093671133978</v>
+        <v>0.1198733942419352</v>
       </c>
       <c r="E13">
-        <v>0.0517920451615872</v>
+        <v>0.04920311107954145</v>
       </c>
       <c r="F13">
-        <v>0.6388487856610965</v>
+        <v>0.5696778006369172</v>
       </c>
       <c r="G13">
-        <v>0.3917996897624789</v>
+        <v>0.3971747983400888</v>
       </c>
       <c r="H13">
-        <v>0.1134562338738903</v>
+        <v>0.1134522177852659</v>
       </c>
       <c r="I13">
-        <v>0.002029069790150828</v>
+        <v>0.002411864218183624</v>
       </c>
       <c r="J13">
-        <v>0.3239891228985812</v>
+        <v>0.2608372424945955</v>
       </c>
       <c r="K13">
-        <v>0.4609067601856154</v>
+        <v>0.3874446389680983</v>
       </c>
       <c r="L13">
-        <v>0.06982632905233821</v>
+        <v>0.1646646855391403</v>
       </c>
       <c r="M13">
-        <v>3.613648807872153</v>
+        <v>0.1365526252474467</v>
       </c>
       <c r="N13">
-        <v>0.04595590938780081</v>
+        <v>0.06863736702399947</v>
       </c>
       <c r="O13">
-        <v>0.6757792830571034</v>
+        <v>3.476146047788063</v>
       </c>
       <c r="P13">
-        <v>1.273440424560434</v>
+        <v>0.05028581550260158</v>
       </c>
       <c r="Q13">
-        <v>1.457224188581563</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6435797273240027</v>
+      </c>
+      <c r="R13">
+        <v>1.352445063764208</v>
+      </c>
+      <c r="S13">
+        <v>1.267288707725783</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1624271351955997</v>
+        <v>0.114791062454259</v>
       </c>
       <c r="D14">
-        <v>0.1046938079937192</v>
+        <v>0.108654965824762</v>
       </c>
       <c r="E14">
-        <v>0.0465019890408227</v>
+        <v>0.04437031770548483</v>
       </c>
       <c r="F14">
-        <v>0.6009629928047673</v>
+        <v>0.5395964739963404</v>
       </c>
       <c r="G14">
-        <v>0.3669804860513963</v>
+        <v>0.3633294929564457</v>
       </c>
       <c r="H14">
-        <v>0.1628880867159666</v>
+        <v>0.1628672269057176</v>
       </c>
       <c r="I14">
-        <v>0.001878763953249596</v>
+        <v>0.002281891556233262</v>
       </c>
       <c r="J14">
-        <v>0.3121852166216073</v>
+        <v>0.2631311580044624</v>
       </c>
       <c r="K14">
-        <v>0.434704401360662</v>
+        <v>0.3686275786953424</v>
       </c>
       <c r="L14">
-        <v>0.0720962438473105</v>
+        <v>0.1592390852782088</v>
       </c>
       <c r="M14">
-        <v>3.511464350593769</v>
+        <v>0.1273505259001375</v>
       </c>
       <c r="N14">
-        <v>0.04707216018492666</v>
+        <v>0.07217440923860075</v>
       </c>
       <c r="O14">
-        <v>0.627441409611869</v>
+        <v>3.387351838434483</v>
       </c>
       <c r="P14">
-        <v>1.302701483238593</v>
+        <v>0.04929479968147277</v>
       </c>
       <c r="Q14">
-        <v>1.379834766871326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5985032855955268</v>
+      </c>
+      <c r="R14">
+        <v>1.376326738741653</v>
+      </c>
+      <c r="S14">
+        <v>1.21125282894711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1582483298547004</v>
+        <v>0.1118671105988369</v>
       </c>
       <c r="D15">
-        <v>0.1017760348743906</v>
+        <v>0.105390692264038</v>
       </c>
       <c r="E15">
-        <v>0.04537006585071168</v>
+        <v>0.04335413588763437</v>
       </c>
       <c r="F15">
-        <v>0.5905358653877357</v>
+        <v>0.5320998355664415</v>
       </c>
       <c r="G15">
-        <v>0.3600541548903919</v>
+        <v>0.3512077721825975</v>
       </c>
       <c r="H15">
-        <v>0.1754418441524308</v>
+        <v>0.1754113241060224</v>
       </c>
       <c r="I15">
-        <v>0.001911192356197411</v>
+        <v>0.002341140244487505</v>
       </c>
       <c r="J15">
-        <v>0.3091774384060102</v>
+        <v>0.2666626946720925</v>
       </c>
       <c r="K15">
-        <v>0.4273282072089657</v>
+        <v>0.3638732188911469</v>
       </c>
       <c r="L15">
-        <v>0.07297054651677115</v>
+        <v>0.158197169569231</v>
       </c>
       <c r="M15">
-        <v>3.463156378028998</v>
+        <v>0.1245545329117697</v>
       </c>
       <c r="N15">
-        <v>0.04777210018706413</v>
+        <v>0.0733293297982911</v>
       </c>
       <c r="O15">
-        <v>0.6116733680737596</v>
+        <v>3.345210630679446</v>
       </c>
       <c r="P15">
-        <v>1.307983406394882</v>
+        <v>0.04958533241646634</v>
       </c>
       <c r="Q15">
-        <v>1.358820453548702</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5839617031000088</v>
+      </c>
+      <c r="R15">
+        <v>1.378465350668918</v>
+      </c>
+      <c r="S15">
+        <v>1.198385461557166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1523127944562077</v>
+        <v>0.107281033473889</v>
       </c>
       <c r="D16">
-        <v>0.0979085879867938</v>
+        <v>0.1002366755630106</v>
       </c>
       <c r="E16">
-        <v>0.04527049982865528</v>
+        <v>0.04329500908231143</v>
       </c>
       <c r="F16">
-        <v>0.5828235933046031</v>
+        <v>0.5331677177434244</v>
       </c>
       <c r="G16">
-        <v>0.3548085371232688</v>
+        <v>0.321657165471926</v>
       </c>
       <c r="H16">
-        <v>0.162968981601054</v>
+        <v>0.1628782990248823</v>
       </c>
       <c r="I16">
-        <v>0.001713453548895849</v>
+        <v>0.002151775867809569</v>
       </c>
       <c r="J16">
-        <v>0.3096277255157531</v>
+        <v>0.2951195366789534</v>
       </c>
       <c r="K16">
-        <v>0.4219711598289138</v>
+        <v>0.365375858816499</v>
       </c>
       <c r="L16">
-        <v>0.07179989546469834</v>
+        <v>0.1620987747810432</v>
       </c>
       <c r="M16">
-        <v>3.249213015835608</v>
+        <v>0.1205025626134208</v>
       </c>
       <c r="N16">
-        <v>0.04775966072141458</v>
+        <v>0.07195269077444166</v>
       </c>
       <c r="O16">
-        <v>0.5759998242971065</v>
+        <v>3.155840428299314</v>
       </c>
       <c r="P16">
-        <v>1.282942066573369</v>
+        <v>0.05026140024630887</v>
       </c>
       <c r="Q16">
-        <v>1.348464101930006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5520846743031669</v>
+      </c>
+      <c r="R16">
+        <v>1.337921037086403</v>
+      </c>
+      <c r="S16">
+        <v>1.212876640254777</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1545737768084621</v>
+        <v>0.1084567554131155</v>
       </c>
       <c r="D17">
-        <v>0.1003922046316035</v>
+        <v>0.1022689698130321</v>
       </c>
       <c r="E17">
-        <v>0.04773853644649062</v>
+        <v>0.04553562544054035</v>
       </c>
       <c r="F17">
-        <v>0.5968735984299869</v>
+        <v>0.5492833483589692</v>
       </c>
       <c r="G17">
-        <v>0.3638785776327538</v>
+        <v>0.3198124457535911</v>
       </c>
       <c r="H17">
-        <v>0.125364714629896</v>
+        <v>0.1252334295769089</v>
       </c>
       <c r="I17">
-        <v>0.001682223516620951</v>
+        <v>0.002111791159865817</v>
       </c>
       <c r="J17">
-        <v>0.3162335140064769</v>
+        <v>0.3140406607731734</v>
       </c>
       <c r="K17">
-        <v>0.4316184002672188</v>
+        <v>0.3760448089242239</v>
       </c>
       <c r="L17">
-        <v>0.06919776070102124</v>
+        <v>0.1680663522734243</v>
       </c>
       <c r="M17">
-        <v>3.139440265394285</v>
+        <v>0.1219283597601155</v>
       </c>
       <c r="N17">
-        <v>0.04668057131835468</v>
+        <v>0.06857534014375588</v>
       </c>
       <c r="O17">
-        <v>0.5740100704505338</v>
+        <v>3.055445373637212</v>
       </c>
       <c r="P17">
-        <v>1.248607500520293</v>
+        <v>0.05072984598408992</v>
       </c>
       <c r="Q17">
-        <v>1.381417550732422</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5510911116262065</v>
+      </c>
+      <c r="R17">
+        <v>1.296375591790436</v>
+      </c>
+      <c r="S17">
+        <v>1.251943877005701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1654254586267143</v>
+        <v>0.1155055267520382</v>
       </c>
       <c r="D18">
-        <v>0.1088234433150816</v>
+        <v>0.1106395100498219</v>
       </c>
       <c r="E18">
-        <v>0.05399424273198505</v>
+        <v>0.05125813766535003</v>
       </c>
       <c r="F18">
-        <v>0.6326594388354891</v>
+        <v>0.5828722384347884</v>
       </c>
       <c r="G18">
-        <v>0.3873805107508019</v>
+        <v>0.3362129634194133</v>
       </c>
       <c r="H18">
-        <v>0.07258215931825873</v>
+        <v>0.07244001644442477</v>
       </c>
       <c r="I18">
-        <v>0.001447167089825285</v>
+        <v>0.001824490639633858</v>
       </c>
       <c r="J18">
-        <v>0.3293671190775385</v>
+        <v>0.3314703980694773</v>
       </c>
       <c r="K18">
-        <v>0.456727046397539</v>
+        <v>0.3980477176628519</v>
       </c>
       <c r="L18">
-        <v>0.0678080520182136</v>
+        <v>0.177413578903451</v>
       </c>
       <c r="M18">
-        <v>3.10794980167293</v>
+        <v>0.12886145400741</v>
       </c>
       <c r="N18">
-        <v>0.04752696979750359</v>
+        <v>0.06576796248617711</v>
       </c>
       <c r="O18">
-        <v>0.6015923558680569</v>
+        <v>3.024838412560712</v>
       </c>
       <c r="P18">
-        <v>1.202693809545607</v>
+        <v>0.05411251998670874</v>
       </c>
       <c r="Q18">
-        <v>1.458688713945307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5777685733077291</v>
+      </c>
+      <c r="R18">
+        <v>1.247397583370258</v>
+      </c>
+      <c r="S18">
+        <v>1.323646184152651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1809936178925966</v>
+        <v>0.1255477813776835</v>
       </c>
       <c r="D19">
-        <v>0.1219263839177245</v>
+        <v>0.1239108261532778</v>
       </c>
       <c r="E19">
-        <v>0.06464945499365449</v>
+        <v>0.06113321316958853</v>
       </c>
       <c r="F19">
-        <v>0.6823599025494147</v>
+        <v>0.6275821296953694</v>
       </c>
       <c r="G19">
-        <v>0.4197380570884093</v>
+        <v>0.3629151115248348</v>
       </c>
       <c r="H19">
-        <v>0.02719428346063779</v>
+        <v>0.0270729578679223</v>
       </c>
       <c r="I19">
-        <v>0.001584159542019847</v>
+        <v>0.001994544846079194</v>
       </c>
       <c r="J19">
-        <v>0.3461668561773195</v>
+        <v>0.3479449373431862</v>
       </c>
       <c r="K19">
-        <v>0.4908856764478671</v>
+        <v>0.4264152448357805</v>
       </c>
       <c r="L19">
-        <v>0.07153345514706544</v>
+        <v>0.1883582849958749</v>
       </c>
       <c r="M19">
-        <v>3.137053954094313</v>
+        <v>0.1392417583853032</v>
       </c>
       <c r="N19">
-        <v>0.05425375854150438</v>
+        <v>0.06755713852393175</v>
       </c>
       <c r="O19">
-        <v>0.6506258964292684</v>
+        <v>3.049430484781226</v>
       </c>
       <c r="P19">
-        <v>1.155071975099105</v>
+        <v>0.06427565821063119</v>
       </c>
       <c r="Q19">
-        <v>1.56245821106441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6245608805662357</v>
+      </c>
+      <c r="R19">
+        <v>1.19930636301973</v>
+      </c>
+      <c r="S19">
+        <v>1.414383162883922</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2130385831432164</v>
+        <v>0.1464478302689116</v>
       </c>
       <c r="D20">
-        <v>0.1476527714920621</v>
+        <v>0.1504946344815181</v>
       </c>
       <c r="E20">
-        <v>0.08717815842628696</v>
+        <v>0.08222268573399916</v>
       </c>
       <c r="F20">
-        <v>0.7733812966184459</v>
+        <v>0.7053102945606753</v>
       </c>
       <c r="G20">
-        <v>0.4791574155128302</v>
+        <v>0.4211880190369186</v>
       </c>
       <c r="H20">
-        <v>0.0004528930249918517</v>
+        <v>0.0004118973044930918</v>
       </c>
       <c r="I20">
-        <v>0.001868218505750363</v>
+        <v>0.002325828704616839</v>
       </c>
       <c r="J20">
-        <v>0.374323219516711</v>
+        <v>0.3614390885166898</v>
       </c>
       <c r="K20">
-        <v>0.5536944510646578</v>
+        <v>0.4753034445945516</v>
       </c>
       <c r="L20">
-        <v>0.08863306324979803</v>
+        <v>0.2039420820056925</v>
       </c>
       <c r="M20">
-        <v>3.34339104028254</v>
+        <v>0.1611291260243171</v>
       </c>
       <c r="N20">
-        <v>0.07630945216301654</v>
+        <v>0.08116294612030472</v>
       </c>
       <c r="O20">
-        <v>0.7608609074224049</v>
+        <v>3.236606404969166</v>
       </c>
       <c r="P20">
-        <v>1.098081157270258</v>
+        <v>0.09224153244318956</v>
       </c>
       <c r="Q20">
-        <v>1.747511019243063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.728713547019801</v>
+      </c>
+      <c r="R20">
+        <v>1.147988540009692</v>
+      </c>
+      <c r="S20">
+        <v>1.564083316539353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2342242973573576</v>
+        <v>0.1619384515370967</v>
       </c>
       <c r="D21">
-        <v>0.1635648039456754</v>
+        <v>0.1699517952277034</v>
       </c>
       <c r="E21">
-        <v>0.09471816504565922</v>
+        <v>0.0895433399705361</v>
       </c>
       <c r="F21">
-        <v>0.8193799135793753</v>
+        <v>0.7263649135230139</v>
       </c>
       <c r="G21">
-        <v>0.5094128054161047</v>
+        <v>0.5112844672042627</v>
       </c>
       <c r="H21">
-        <v>8.013868105338773E-06</v>
+        <v>1.162711235624947E-05</v>
       </c>
       <c r="I21">
-        <v>0.00270501546993529</v>
+        <v>0.003103310192515529</v>
       </c>
       <c r="J21">
-        <v>0.3838407535292845</v>
+        <v>0.2951743323145166</v>
       </c>
       <c r="K21">
-        <v>0.5852223123906413</v>
+        <v>0.4864561452164011</v>
       </c>
       <c r="L21">
-        <v>0.0942490968204055</v>
+        <v>0.1996051522211673</v>
       </c>
       <c r="M21">
-        <v>3.765436502881926</v>
+        <v>0.1761882891067721</v>
       </c>
       <c r="N21">
-        <v>0.08150374253254355</v>
+        <v>0.08544662786378154</v>
       </c>
       <c r="O21">
-        <v>0.8603201425876392</v>
+        <v>3.605354397335987</v>
       </c>
       <c r="P21">
-        <v>1.113054676522182</v>
+        <v>0.0990366093461752</v>
       </c>
       <c r="Q21">
-        <v>1.831902449024426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8182549799343448</v>
+      </c>
+      <c r="R21">
+        <v>1.189874120283065</v>
+      </c>
+      <c r="S21">
+        <v>1.578639568203954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2482516988127088</v>
+        <v>0.1726189070380713</v>
       </c>
       <c r="D22">
-        <v>0.172866729308879</v>
+        <v>0.1818583316841966</v>
       </c>
       <c r="E22">
-        <v>0.09860207600142346</v>
+        <v>0.09340870757852215</v>
       </c>
       <c r="F22">
-        <v>0.8477210310329895</v>
+        <v>0.737370785668034</v>
       </c>
       <c r="G22">
-        <v>0.5284792130908471</v>
+        <v>0.5787052567207382</v>
       </c>
       <c r="H22">
-        <v>4.333287536995023E-05</v>
+        <v>2.407491312550469E-05</v>
       </c>
       <c r="I22">
-        <v>0.003215661335278952</v>
+        <v>0.003435950666824006</v>
       </c>
       <c r="J22">
-        <v>0.3897611873571662</v>
+        <v>0.2569465762457668</v>
       </c>
       <c r="K22">
-        <v>0.6052396530773336</v>
+        <v>0.4924977430575765</v>
       </c>
       <c r="L22">
-        <v>0.09697847814215166</v>
+        <v>0.1963766009472607</v>
       </c>
       <c r="M22">
-        <v>4.039680193653453</v>
+        <v>0.1859259927742869</v>
       </c>
       <c r="N22">
-        <v>0.08329423215088028</v>
+        <v>0.08744884986808898</v>
       </c>
       <c r="O22">
-        <v>0.9220092493511842</v>
+        <v>3.842116824015136</v>
       </c>
       <c r="P22">
-        <v>1.125183136191183</v>
+        <v>0.10156944787974</v>
       </c>
       <c r="Q22">
-        <v>1.884922406027897</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.8732019165521763</v>
+      </c>
+      <c r="R22">
+        <v>1.221149893671409</v>
+      </c>
+      <c r="S22">
+        <v>1.582951300325789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2423397563288319</v>
+        <v>0.1678366169967518</v>
       </c>
       <c r="D23">
-        <v>0.1678469439440562</v>
+        <v>0.1750616034506578</v>
       </c>
       <c r="E23">
-        <v>0.09664498075420624</v>
+        <v>0.09138298965453728</v>
       </c>
       <c r="F23">
-        <v>0.8340764770599165</v>
+        <v>0.7347018775522116</v>
       </c>
       <c r="G23">
-        <v>0.5195578372267562</v>
+        <v>0.5354588237457847</v>
       </c>
       <c r="H23">
-        <v>2.728039238286684E-06</v>
+        <v>3.681109776998426E-07</v>
       </c>
       <c r="I23">
-        <v>0.002633168865709301</v>
+        <v>0.00289669462916553</v>
       </c>
       <c r="J23">
-        <v>0.3872255977977375</v>
+        <v>0.2833074890136444</v>
       </c>
       <c r="K23">
-        <v>0.5962863851569438</v>
+        <v>0.4920379581178835</v>
       </c>
       <c r="L23">
-        <v>0.09568528737348458</v>
+        <v>0.1990391344929243</v>
       </c>
       <c r="M23">
-        <v>3.895977745230766</v>
+        <v>0.1818373023947082</v>
       </c>
       <c r="N23">
-        <v>0.08207576603354028</v>
+        <v>0.08654392126306121</v>
       </c>
       <c r="O23">
-        <v>0.8898884353376886</v>
+        <v>3.722301696040915</v>
       </c>
       <c r="P23">
-        <v>1.117360814843792</v>
+        <v>0.09990118853845331</v>
       </c>
       <c r="Q23">
-        <v>1.86059283245379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.845176228580371</v>
+      </c>
+      <c r="R23">
+        <v>1.201086488851303</v>
+      </c>
+      <c r="S23">
+        <v>1.589560699097547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2171744020944999</v>
+        <v>0.1494535570114692</v>
       </c>
       <c r="D24">
-        <v>0.1490011640022146</v>
+        <v>0.1518410127237217</v>
       </c>
       <c r="E24">
-        <v>0.08904004376293173</v>
+        <v>0.08398055413769967</v>
       </c>
       <c r="F24">
-        <v>0.7812058002267221</v>
+        <v>0.7125575503312334</v>
       </c>
       <c r="G24">
-        <v>0.484722138444198</v>
+        <v>0.4256655061901284</v>
       </c>
       <c r="H24">
-        <v>0.0003088807876332478</v>
+        <v>0.0002699265724208644</v>
       </c>
       <c r="I24">
-        <v>0.001397704420968537</v>
+        <v>0.001756481211149463</v>
       </c>
       <c r="J24">
-        <v>0.3772009191474268</v>
+        <v>0.3646587144282734</v>
       </c>
       <c r="K24">
-        <v>0.5601757442229101</v>
+        <v>0.480960387426471</v>
       </c>
       <c r="L24">
-        <v>0.09047601728201471</v>
+        <v>0.2061468114649436</v>
       </c>
       <c r="M24">
-        <v>3.346800389348005</v>
+        <v>0.163173610362179</v>
       </c>
       <c r="N24">
-        <v>0.07794814303903763</v>
+        <v>0.08273150497332793</v>
       </c>
       <c r="O24">
-        <v>0.7668410039536582</v>
+        <v>3.239796983981535</v>
       </c>
       <c r="P24">
-        <v>1.091381668062368</v>
+        <v>0.09423300686806968</v>
       </c>
       <c r="Q24">
-        <v>1.765331702859271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.734470601188967</v>
+      </c>
+      <c r="R24">
+        <v>1.140846661133637</v>
+      </c>
+      <c r="S24">
+        <v>1.580314705136061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1896161272453156</v>
+        <v>0.1325152561406497</v>
       </c>
       <c r="D25">
-        <v>0.1288262020554498</v>
+        <v>0.1310271416442248</v>
       </c>
       <c r="E25">
-        <v>0.08082106402738631</v>
+        <v>0.07671952464542464</v>
       </c>
       <c r="F25">
-        <v>0.7268017492247623</v>
+        <v>0.6706940233965497</v>
       </c>
       <c r="G25">
-        <v>0.4492733755638199</v>
+        <v>0.393495582215067</v>
       </c>
       <c r="H25">
-        <v>0.00154225964579624</v>
+        <v>0.001322346662669505</v>
       </c>
       <c r="I25">
-        <v>0.001112084934036695</v>
+        <v>0.001296071176855484</v>
       </c>
       <c r="J25">
-        <v>0.3676857789613877</v>
+        <v>0.3647720960579122</v>
       </c>
       <c r="K25">
-        <v>0.5225835891228314</v>
+        <v>0.4562465462276322</v>
       </c>
       <c r="L25">
-        <v>0.08474628226780112</v>
+        <v>0.2091414854516316</v>
       </c>
       <c r="M25">
-        <v>2.752972500830623</v>
+        <v>0.1399818515528679</v>
       </c>
       <c r="N25">
-        <v>0.07360871453412443</v>
+        <v>0.07822779973692029</v>
       </c>
       <c r="O25">
-        <v>0.6338929982697081</v>
+        <v>2.674194329766209</v>
       </c>
       <c r="P25">
-        <v>1.066390997535763</v>
+        <v>0.08834319454792094</v>
       </c>
       <c r="Q25">
-        <v>1.669776793623726</v>
+        <v>0.6090102492653173</v>
+      </c>
+      <c r="R25">
+        <v>1.099280648990145</v>
+      </c>
+      <c r="S25">
+        <v>1.517293602641246</v>
       </c>
     </row>
   </sheetData>
